--- a/BackTest/2019-10-15 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-15 BackTest TRUE.xlsx
@@ -1369,7 +1369,9 @@
       <c r="J22" t="n">
         <v>1</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>100</v>
+      </c>
       <c r="L22" t="n">
         <v>248.1</v>
       </c>
@@ -2268,7 +2270,7 @@
         <v>12</v>
       </c>
       <c r="K40" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>255</v>
@@ -2319,7 +2321,7 @@
         <v>17</v>
       </c>
       <c r="K41" t="n">
-        <v>64.70588235294117</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L41" t="n">
         <v>255.8</v>
@@ -2370,7 +2372,7 @@
         <v>22</v>
       </c>
       <c r="K42" t="n">
-        <v>23.80952380952381</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L42" t="n">
         <v>256</v>
@@ -2421,7 +2423,7 @@
         <v>22</v>
       </c>
       <c r="K43" t="n">
-        <v>20</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L43" t="n">
         <v>256.1</v>
@@ -2472,7 +2474,7 @@
         <v>23</v>
       </c>
       <c r="K44" t="n">
-        <v>23.80952380952381</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L44" t="n">
         <v>256.1</v>
@@ -2523,7 +2525,7 @@
         <v>26</v>
       </c>
       <c r="K45" t="n">
-        <v>33.33333333333333</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L45" t="n">
         <v>256.2</v>
@@ -2574,7 +2576,7 @@
         <v>28</v>
       </c>
       <c r="K46" t="n">
-        <v>38.46153846153847</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L46" t="n">
         <v>256.5</v>
@@ -2625,7 +2627,7 @@
         <v>32</v>
       </c>
       <c r="K47" t="n">
-        <v>20</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L47" t="n">
         <v>256.4</v>
@@ -2676,7 +2678,7 @@
         <v>32</v>
       </c>
       <c r="K48" t="n">
-        <v>20</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L48" t="n">
         <v>256.3</v>
@@ -2727,7 +2729,7 @@
         <v>32</v>
       </c>
       <c r="K49" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L49" t="n">
         <v>256.2</v>
@@ -2778,7 +2780,7 @@
         <v>33</v>
       </c>
       <c r="K50" t="n">
-        <v>13.33333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L50" t="n">
         <v>256.3</v>
@@ -2829,7 +2831,7 @@
         <v>33</v>
       </c>
       <c r="K51" t="n">
-        <v>13.33333333333333</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L51" t="n">
         <v>255.9</v>
@@ -2880,7 +2882,7 @@
         <v>33</v>
       </c>
       <c r="K52" t="n">
-        <v>10.3448275862069</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L52" t="n">
         <v>256</v>
@@ -2931,7 +2933,7 @@
         <v>33</v>
       </c>
       <c r="K53" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>256.1</v>
@@ -2982,7 +2984,7 @@
         <v>37</v>
       </c>
       <c r="K54" t="n">
-        <v>-13.33333333333333</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L54" t="n">
         <v>255.7</v>
@@ -3033,7 +3035,7 @@
         <v>38</v>
       </c>
       <c r="K55" t="n">
-        <v>-17.24137931034483</v>
+        <v>-80</v>
       </c>
       <c r="L55" t="n">
         <v>255.1</v>
@@ -3084,7 +3086,7 @@
         <v>40</v>
       </c>
       <c r="K56" t="n">
-        <v>-9.67741935483871</v>
+        <v>-25</v>
       </c>
       <c r="L56" t="n">
         <v>254.5</v>
@@ -3135,7 +3137,7 @@
         <v>41</v>
       </c>
       <c r="K57" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L57" t="n">
         <v>254.2</v>
@@ -3186,7 +3188,7 @@
         <v>41</v>
       </c>
       <c r="K58" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>253.9</v>
@@ -3237,7 +3239,7 @@
         <v>41</v>
       </c>
       <c r="K59" t="n">
-        <v>-12.5</v>
+        <v>-25</v>
       </c>
       <c r="L59" t="n">
         <v>253.6</v>
@@ -3288,7 +3290,7 @@
         <v>41</v>
       </c>
       <c r="K60" t="n">
-        <v>-3.448275862068965</v>
+        <v>-25</v>
       </c>
       <c r="L60" t="n">
         <v>253.4</v>
@@ -3390,7 +3392,7 @@
         <v>41</v>
       </c>
       <c r="K62" t="n">
-        <v>-5.263157894736842</v>
+        <v>-25</v>
       </c>
       <c r="L62" t="n">
         <v>253</v>
@@ -3441,7 +3443,7 @@
         <v>47</v>
       </c>
       <c r="K63" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L63" t="n">
         <v>253.4</v>
@@ -3492,7 +3494,7 @@
         <v>52</v>
       </c>
       <c r="K64" t="n">
-        <v>-3.448275862068965</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L64" t="n">
         <v>253.7</v>
@@ -3543,7 +3545,7 @@
         <v>55</v>
       </c>
       <c r="K65" t="n">
-        <v>-3.448275862068965</v>
+        <v>20</v>
       </c>
       <c r="L65" t="n">
         <v>254.2</v>
@@ -3594,7 +3596,7 @@
         <v>55</v>
       </c>
       <c r="K66" t="n">
-        <v>-11.11111111111111</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L66" t="n">
         <v>254.5</v>
@@ -3645,7 +3647,7 @@
         <v>57</v>
       </c>
       <c r="K67" t="n">
-        <v>12</v>
+        <v>37.5</v>
       </c>
       <c r="L67" t="n">
         <v>255.1</v>
@@ -3696,7 +3698,7 @@
         <v>57</v>
       </c>
       <c r="K68" t="n">
-        <v>12</v>
+        <v>37.5</v>
       </c>
       <c r="L68" t="n">
         <v>255.7</v>
@@ -3747,7 +3749,7 @@
         <v>57</v>
       </c>
       <c r="K69" t="n">
-        <v>12</v>
+        <v>37.5</v>
       </c>
       <c r="L69" t="n">
         <v>256.3</v>
@@ -3798,7 +3800,7 @@
         <v>57</v>
       </c>
       <c r="K70" t="n">
-        <v>16.66666666666666</v>
+        <v>37.5</v>
       </c>
       <c r="L70" t="n">
         <v>256.9</v>
@@ -3849,7 +3851,7 @@
         <v>62</v>
       </c>
       <c r="K71" t="n">
-        <v>-3.448275862068965</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L71" t="n">
         <v>257</v>
@@ -3900,7 +3902,7 @@
         <v>65</v>
       </c>
       <c r="K72" t="n">
-        <v>-12.5</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L72" t="n">
         <v>256.8</v>
@@ -3951,7 +3953,7 @@
         <v>69</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L73" t="n">
         <v>256.4</v>
@@ -4002,7 +4004,7 @@
         <v>69</v>
       </c>
       <c r="K74" t="n">
-        <v>12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L74" t="n">
         <v>256.5</v>
@@ -4053,7 +4055,7 @@
         <v>69</v>
       </c>
       <c r="K75" t="n">
-        <v>9.67741935483871</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L75" t="n">
         <v>256.3</v>
@@ -4104,7 +4106,7 @@
         <v>69</v>
       </c>
       <c r="K76" t="n">
-        <v>3.448275862068965</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L76" t="n">
         <v>256.1</v>
@@ -4155,7 +4157,7 @@
         <v>69</v>
       </c>
       <c r="K77" t="n">
-        <v>7.142857142857142</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L77" t="n">
         <v>255.7</v>
@@ -4206,7 +4208,7 @@
         <v>72</v>
       </c>
       <c r="K78" t="n">
-        <v>16.12903225806452</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L78" t="n">
         <v>255.6</v>
@@ -4257,7 +4259,7 @@
         <v>80</v>
       </c>
       <c r="K79" t="n">
-        <v>-7.692307692307693</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L79" t="n">
         <v>254.7</v>
@@ -4308,7 +4310,7 @@
         <v>84</v>
       </c>
       <c r="K80" t="n">
-        <v>2.325581395348837</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>254.2</v>
@@ -4359,7 +4361,7 @@
         <v>85</v>
       </c>
       <c r="K81" t="n">
-        <v>4.545454545454546</v>
+        <v>20</v>
       </c>
       <c r="L81" t="n">
         <v>254.3</v>
@@ -4410,7 +4412,7 @@
         <v>85</v>
       </c>
       <c r="K82" t="n">
-        <v>4.545454545454546</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>254.7</v>
@@ -4461,7 +4463,7 @@
         <v>86</v>
       </c>
       <c r="K83" t="n">
-        <v>-12.82051282051282</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L83" t="n">
         <v>254.6</v>
@@ -4512,7 +4514,7 @@
         <v>87</v>
       </c>
       <c r="K84" t="n">
-        <v>2.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>254.6</v>
@@ -4563,7 +4565,7 @@
         <v>87</v>
       </c>
       <c r="K85" t="n">
-        <v>-6.25</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>254.6</v>
@@ -4614,7 +4616,7 @@
         <v>89</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L86" t="n">
         <v>254.8</v>
@@ -4665,7 +4667,7 @@
         <v>89</v>
       </c>
       <c r="K87" t="n">
-        <v>-6.25</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L87" t="n">
         <v>255</v>
@@ -4716,7 +4718,7 @@
         <v>89</v>
       </c>
       <c r="K88" t="n">
-        <v>-6.25</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L88" t="n">
         <v>254.9</v>
@@ -4767,7 +4769,7 @@
         <v>89</v>
       </c>
       <c r="K89" t="n">
-        <v>-6.25</v>
+        <v>60</v>
       </c>
       <c r="L89" t="n">
         <v>255.6</v>
@@ -4818,7 +4820,7 @@
         <v>90</v>
       </c>
       <c r="K90" t="n">
-        <v>-9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L90" t="n">
         <v>255.8</v>
@@ -4869,7 +4871,7 @@
         <v>92</v>
       </c>
       <c r="K91" t="n">
-        <v>13.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L91" t="n">
         <v>256.1</v>
@@ -4920,7 +4922,7 @@
         <v>94</v>
       </c>
       <c r="K92" t="n">
-        <v>17.24137931034483</v>
+        <v>25</v>
       </c>
       <c r="L92" t="n">
         <v>256.2</v>
@@ -5073,7 +5075,7 @@
         <v>95</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L95" t="n">
         <v>256.3</v>
@@ -5124,7 +5126,7 @@
         <v>95</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L96" t="n">
         <v>256.1</v>
@@ -5175,7 +5177,7 @@
         <v>97</v>
       </c>
       <c r="K97" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>256.1</v>
@@ -5226,7 +5228,7 @@
         <v>98</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L98" t="n">
         <v>256.2</v>
@@ -5277,7 +5279,7 @@
         <v>99</v>
       </c>
       <c r="K99" t="n">
-        <v>36.84210526315789</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L99" t="n">
         <v>256.2</v>
@@ -5328,7 +5330,7 @@
         <v>99</v>
       </c>
       <c r="K100" t="n">
-        <v>20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L100" t="n">
         <v>256.3</v>
@@ -5379,7 +5381,7 @@
         <v>99</v>
       </c>
       <c r="K101" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L101" t="n">
         <v>256.2</v>
@@ -5430,7 +5432,7 @@
         <v>99</v>
       </c>
       <c r="K102" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L102" t="n">
         <v>256.3</v>
@@ -5481,7 +5483,7 @@
         <v>99</v>
       </c>
       <c r="K103" t="n">
-        <v>23.07692307692308</v>
+        <v>50</v>
       </c>
       <c r="L103" t="n">
         <v>256.5</v>
@@ -5532,7 +5534,7 @@
         <v>99</v>
       </c>
       <c r="K104" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L104" t="n">
         <v>256.7</v>
@@ -5583,7 +5585,7 @@
         <v>99</v>
       </c>
       <c r="K105" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L105" t="n">
         <v>256.9</v>
@@ -5685,7 +5687,7 @@
         <v>99</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L107" t="n">
         <v>257.1</v>
@@ -5736,7 +5738,7 @@
         <v>101</v>
       </c>
       <c r="K108" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L108" t="n">
         <v>257.2</v>
@@ -5787,7 +5789,7 @@
         <v>102</v>
       </c>
       <c r="K109" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L109" t="n">
         <v>257.3</v>
@@ -5838,7 +5840,7 @@
         <v>103</v>
       </c>
       <c r="K110" t="n">
-        <v>23.07692307692308</v>
+        <v>50</v>
       </c>
       <c r="L110" t="n">
         <v>257.5</v>
@@ -5889,7 +5891,7 @@
         <v>105</v>
       </c>
       <c r="K111" t="n">
-        <v>23.07692307692308</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L111" t="n">
         <v>257.9</v>
@@ -5940,7 +5942,7 @@
         <v>107</v>
       </c>
       <c r="K112" t="n">
-        <v>23.07692307692308</v>
+        <v>25</v>
       </c>
       <c r="L112" t="n">
         <v>258.1</v>
@@ -5991,7 +5993,7 @@
         <v>107</v>
       </c>
       <c r="K113" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L113" t="n">
         <v>258.3</v>
@@ -6042,7 +6044,7 @@
         <v>108</v>
       </c>
       <c r="K114" t="n">
-        <v>38.46153846153847</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L114" t="n">
         <v>258.6</v>
@@ -6093,7 +6095,7 @@
         <v>109</v>
       </c>
       <c r="K115" t="n">
-        <v>28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L115" t="n">
         <v>258.8</v>
@@ -6144,7 +6146,7 @@
         <v>111</v>
       </c>
       <c r="K116" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>258.8</v>
@@ -6195,7 +6197,7 @@
         <v>114</v>
       </c>
       <c r="K117" t="n">
-        <v>17.64705882352941</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L117" t="n">
         <v>259.1</v>
@@ -6246,7 +6248,7 @@
         <v>114</v>
       </c>
       <c r="K118" t="n">
-        <v>12.5</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L118" t="n">
         <v>259.2</v>
@@ -6297,7 +6299,7 @@
         <v>114</v>
       </c>
       <c r="K119" t="n">
-        <v>20</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L119" t="n">
         <v>259.4</v>
@@ -6348,7 +6350,7 @@
         <v>115</v>
       </c>
       <c r="K120" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>259.6</v>
@@ -6399,7 +6401,7 @@
         <v>116</v>
       </c>
       <c r="K121" t="n">
-        <v>17.64705882352941</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L121" t="n">
         <v>259.5</v>
@@ -6450,7 +6452,7 @@
         <v>118</v>
       </c>
       <c r="K122" t="n">
-        <v>5.263157894736842</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L122" t="n">
         <v>259.4</v>
@@ -6501,7 +6503,7 @@
         <v>120</v>
       </c>
       <c r="K123" t="n">
-        <v>-4.761904761904762</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L123" t="n">
         <v>259.1</v>
@@ -6552,7 +6554,7 @@
         <v>125</v>
       </c>
       <c r="K124" t="n">
-        <v>15.38461538461539</v>
+        <v>12.5</v>
       </c>
       <c r="L124" t="n">
         <v>259.2</v>
@@ -6603,7 +6605,7 @@
         <v>126</v>
       </c>
       <c r="K125" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L125" t="n">
         <v>259.3</v>
@@ -6654,7 +6656,7 @@
         <v>126</v>
       </c>
       <c r="K126" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>259.6</v>
@@ -6705,7 +6707,7 @@
         <v>126</v>
       </c>
       <c r="K127" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>259.6</v>
@@ -6756,7 +6758,7 @@
         <v>126</v>
       </c>
       <c r="K128" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>259.6</v>
@@ -6807,7 +6809,7 @@
         <v>126</v>
       </c>
       <c r="K129" t="n">
-        <v>8.333333333333332</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L129" t="n">
         <v>259.6</v>
@@ -6858,7 +6860,7 @@
         <v>126</v>
       </c>
       <c r="K130" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>259.5</v>
@@ -6909,7 +6911,7 @@
         <v>127</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L131" t="n">
         <v>259.6</v>
@@ -6960,7 +6962,7 @@
         <v>127</v>
       </c>
       <c r="K132" t="n">
-        <v>10</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L132" t="n">
         <v>259.9</v>
@@ -7011,7 +7013,7 @@
         <v>127</v>
       </c>
       <c r="K133" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>260.4</v>
@@ -7062,7 +7064,7 @@
         <v>130</v>
       </c>
       <c r="K134" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L134" t="n">
         <v>260.1</v>
@@ -7113,7 +7115,7 @@
         <v>136</v>
       </c>
       <c r="K135" t="n">
-        <v>-25.92592592592592</v>
+        <v>-80</v>
       </c>
       <c r="L135" t="n">
         <v>259.3</v>
@@ -7164,7 +7166,7 @@
         <v>143</v>
       </c>
       <c r="K136" t="n">
-        <v>6.25</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L136" t="n">
         <v>259.2</v>
@@ -7215,7 +7217,7 @@
         <v>143</v>
       </c>
       <c r="K137" t="n">
-        <v>-3.448275862068965</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L137" t="n">
         <v>259.1</v>
@@ -7266,7 +7268,7 @@
         <v>148</v>
       </c>
       <c r="K138" t="n">
-        <v>-17.64705882352941</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L138" t="n">
         <v>258.5</v>
@@ -7317,7 +7319,7 @@
         <v>150</v>
       </c>
       <c r="K139" t="n">
-        <v>-22.22222222222222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L139" t="n">
         <v>257.7</v>
@@ -7368,7 +7370,7 @@
         <v>150</v>
       </c>
       <c r="K140" t="n">
-        <v>-25.71428571428571</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L140" t="n">
         <v>256.9</v>
@@ -7419,7 +7421,7 @@
         <v>153</v>
       </c>
       <c r="K141" t="n">
-        <v>-13.51351351351351</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L141" t="n">
         <v>256.3</v>
@@ -7470,7 +7472,7 @@
         <v>153</v>
       </c>
       <c r="K142" t="n">
-        <v>-8.571428571428571</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L142" t="n">
         <v>255.7</v>
@@ -7521,7 +7523,7 @@
         <v>156</v>
       </c>
       <c r="K143" t="n">
-        <v>5.555555555555555</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>255.4</v>
@@ -7572,7 +7574,7 @@
         <v>158</v>
       </c>
       <c r="K144" t="n">
-        <v>-15.15151515151515</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L144" t="n">
         <v>255.2</v>
@@ -7725,7 +7727,7 @@
         <v>160</v>
       </c>
       <c r="K147" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L147" t="n">
         <v>255.6</v>
@@ -7776,7 +7778,7 @@
         <v>162</v>
       </c>
       <c r="K148" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>255.8</v>
@@ -7827,7 +7829,7 @@
         <v>164</v>
       </c>
       <c r="K149" t="n">
-        <v>-5.263157894736842</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L149" t="n">
         <v>256.4</v>
@@ -7878,7 +7880,7 @@
         <v>164</v>
       </c>
       <c r="K150" t="n">
-        <v>-5.263157894736842</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L150" t="n">
         <v>257</v>
@@ -7929,7 +7931,7 @@
         <v>164</v>
       </c>
       <c r="K151" t="n">
-        <v>-8.108108108108109</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L151" t="n">
         <v>257.3</v>
@@ -7980,7 +7982,7 @@
         <v>164</v>
       </c>
       <c r="K152" t="n">
-        <v>-8.108108108108109</v>
+        <v>0</v>
       </c>
       <c r="L152" t="n">
         <v>257.6</v>
@@ -8031,7 +8033,7 @@
         <v>165</v>
       </c>
       <c r="K153" t="n">
-        <v>-5.263157894736842</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L153" t="n">
         <v>257.7</v>
@@ -8082,7 +8084,7 @@
         <v>165</v>
       </c>
       <c r="K154" t="n">
-        <v>2.857142857142857</v>
+        <v>20</v>
       </c>
       <c r="L154" t="n">
         <v>258</v>
@@ -8133,7 +8135,7 @@
         <v>169</v>
       </c>
       <c r="K155" t="n">
-        <v>9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L155" t="n">
         <v>257.7</v>

--- a/BackTest/2019-10-15 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-15 BackTest TRUE.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S155"/>
+  <dimension ref="A1:M134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,18 +526,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -611,18 +561,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -654,18 +596,10 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -697,18 +631,10 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,18 +666,10 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -783,18 +701,10 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -826,18 +736,10 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -864,25 +766,19 @@
         <v>248.2666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>248</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>248</v>
+      </c>
+      <c r="K11" t="n">
+        <v>248</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -914,20 +810,16 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>248</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>248</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,20 +851,16 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>248</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>248</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1004,20 +892,10 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>248</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1049,20 +927,10 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>248</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1094,20 +962,10 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>248</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1139,20 +997,10 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>248</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1184,20 +1032,10 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>248</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1229,20 +1067,10 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>248</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,20 +1102,10 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>248</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1319,22 +1137,10 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>248</v>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>248</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1364,26 +1170,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>100</v>
-      </c>
-      <c r="L22" t="n">
-        <v>248.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>248.05</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1413,26 +1205,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>100</v>
-      </c>
-      <c r="L23" t="n">
-        <v>248.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>248.15</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1462,26 +1240,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>100</v>
-      </c>
-      <c r="L24" t="n">
-        <v>248.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>248.25</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1511,26 +1275,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>100</v>
-      </c>
-      <c r="L25" t="n">
-        <v>248.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>248.35</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1557,29 +1307,19 @@
         <v>248.15</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="K26" t="n">
-        <v>100</v>
-      </c>
-      <c r="L26" t="n">
-        <v>248.9</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>248.45</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1606,29 +1346,23 @@
         <v>248.1833333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="K27" t="n">
-        <v>100</v>
-      </c>
-      <c r="L27" t="n">
-        <v>249.1</v>
+        <v>250</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>248.55</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1655,29 +1389,23 @@
         <v>248.2166666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="K28" t="n">
-        <v>100</v>
-      </c>
-      <c r="L28" t="n">
-        <v>249.3</v>
+        <v>250</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>248.65</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1704,29 +1432,23 @@
         <v>248.25</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>249</v>
       </c>
       <c r="K29" t="n">
-        <v>100</v>
-      </c>
-      <c r="L29" t="n">
-        <v>249.5</v>
+        <v>250</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>248.75</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1753,29 +1475,23 @@
         <v>248.3</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>251</v>
       </c>
       <c r="K30" t="n">
-        <v>100</v>
-      </c>
-      <c r="L30" t="n">
-        <v>249.8</v>
+        <v>250</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>248.9</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1802,31 +1518,23 @@
         <v>248.35</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>251</v>
       </c>
       <c r="K31" t="n">
-        <v>100</v>
-      </c>
-      <c r="L31" t="n">
-        <v>250.1</v>
+        <v>250</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>249.05</v>
-      </c>
-      <c r="N31" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1853,31 +1561,23 @@
         <v>248.4166666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="K32" t="n">
-        <v>100</v>
-      </c>
-      <c r="L32" t="n">
-        <v>250.4</v>
+        <v>250</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>249.25</v>
-      </c>
-      <c r="N32" t="n">
-        <v>248.8333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1904,31 +1604,23 @@
         <v>248.5</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>252</v>
       </c>
       <c r="K33" t="n">
-        <v>100</v>
-      </c>
-      <c r="L33" t="n">
-        <v>250.7</v>
+        <v>250</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="N33" t="n">
-        <v>249</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1955,31 +1647,23 @@
         <v>248.6166666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>7</v>
+        <v>255</v>
       </c>
       <c r="K34" t="n">
-        <v>100</v>
-      </c>
-      <c r="L34" t="n">
-        <v>251.2</v>
+        <v>250</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>249.85</v>
-      </c>
-      <c r="N34" t="n">
-        <v>249.2333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,31 +1690,23 @@
         <v>248.7666666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>9</v>
+        <v>257</v>
       </c>
       <c r="K35" t="n">
-        <v>100</v>
-      </c>
-      <c r="L35" t="n">
-        <v>251.9</v>
+        <v>250</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>250.3</v>
-      </c>
-      <c r="N35" t="n">
-        <v>249.5333333333333</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2060,28 +1736,18 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>100</v>
-      </c>
-      <c r="L36" t="n">
-        <v>252.6</v>
+        <v>250</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>250.75</v>
-      </c>
-      <c r="N36" t="n">
-        <v>249.8333333333333</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2111,28 +1777,18 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>9</v>
-      </c>
-      <c r="J37" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>100</v>
-      </c>
-      <c r="L37" t="n">
-        <v>253.3</v>
+        <v>250</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="N37" t="n">
-        <v>250.1333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2162,28 +1818,18 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>9</v>
-      </c>
-      <c r="J38" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>100</v>
-      </c>
-      <c r="L38" t="n">
-        <v>254</v>
+        <v>250</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>251.65</v>
-      </c>
-      <c r="N38" t="n">
-        <v>250.4333333333333</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2213,28 +1859,18 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>9</v>
-      </c>
-      <c r="J39" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>100</v>
-      </c>
-      <c r="L39" t="n">
-        <v>254.7</v>
+        <v>250</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="N39" t="n">
-        <v>250.7333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2264,28 +1900,18 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L40" t="n">
-        <v>255</v>
+        <v>250</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>252.4</v>
-      </c>
-      <c r="N40" t="n">
-        <v>250.9333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2315,28 +1941,18 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>11</v>
-      </c>
-      <c r="J41" t="n">
-        <v>17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>53.84615384615385</v>
-      </c>
-      <c r="L41" t="n">
-        <v>255.8</v>
+        <v>250</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>252.95</v>
-      </c>
-      <c r="N41" t="n">
-        <v>251.3</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2366,29 +1982,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>22</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L42" t="n">
-        <v>256</v>
+        <v>250</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>253.2</v>
-      </c>
-      <c r="N42" t="n">
-        <v>251.5</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
-        <v>1</v>
+        <v>1.011</v>
       </c>
     </row>
     <row r="43">
@@ -2417,28 +2023,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
-      </c>
-      <c r="J43" t="n">
-        <v>22</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L43" t="n">
-        <v>256.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>253.4</v>
-      </c>
-      <c r="N43" t="n">
-        <v>251.7</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2468,28 +2058,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>7</v>
-      </c>
-      <c r="J44" t="n">
-        <v>23</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L44" t="n">
-        <v>256.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>253.65</v>
-      </c>
-      <c r="N44" t="n">
-        <v>251.9333333333333</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2519,28 +2093,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10</v>
-      </c>
-      <c r="J45" t="n">
-        <v>26</v>
-      </c>
-      <c r="K45" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L45" t="n">
-        <v>256.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>254.05</v>
-      </c>
-      <c r="N45" t="n">
-        <v>252.2666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2570,28 +2128,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>12</v>
-      </c>
-      <c r="J46" t="n">
-        <v>28</v>
-      </c>
-      <c r="K46" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="L46" t="n">
-        <v>256.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>254.55</v>
-      </c>
-      <c r="N46" t="n">
-        <v>252.6666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2621,28 +2163,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>32</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L47" t="n">
-        <v>256.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>254.85</v>
-      </c>
-      <c r="N47" t="n">
-        <v>252.9333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2672,28 +2198,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>8</v>
-      </c>
-      <c r="J48" t="n">
-        <v>32</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L48" t="n">
-        <v>256.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>255.15</v>
-      </c>
-      <c r="N48" t="n">
-        <v>253.2</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,28 +2233,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>8</v>
-      </c>
-      <c r="J49" t="n">
-        <v>32</v>
-      </c>
-      <c r="K49" t="n">
-        <v>10</v>
-      </c>
-      <c r="L49" t="n">
-        <v>256.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>255.45</v>
-      </c>
-      <c r="N49" t="n">
-        <v>253.4666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,28 +2268,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>7</v>
-      </c>
-      <c r="J50" t="n">
-        <v>33</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L50" t="n">
-        <v>256.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>255.65</v>
-      </c>
-      <c r="N50" t="n">
-        <v>253.7</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2825,28 +2303,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>7</v>
-      </c>
-      <c r="J51" t="n">
-        <v>33</v>
-      </c>
-      <c r="K51" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L51" t="n">
-        <v>255.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>255.85</v>
-      </c>
-      <c r="N51" t="n">
-        <v>253.9333333333333</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2876,28 +2338,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>7</v>
-      </c>
-      <c r="J52" t="n">
-        <v>33</v>
-      </c>
-      <c r="K52" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L52" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>256</v>
-      </c>
-      <c r="N52" t="n">
-        <v>254.1333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2927,28 +2373,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>7</v>
-      </c>
-      <c r="J53" t="n">
-        <v>33</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>256.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>256.1</v>
-      </c>
-      <c r="N53" t="n">
-        <v>254.3</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2978,28 +2408,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
-      </c>
-      <c r="J54" t="n">
-        <v>37</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-63.63636363636363</v>
-      </c>
-      <c r="L54" t="n">
-        <v>255.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>255.9</v>
-      </c>
-      <c r="N54" t="n">
-        <v>254.3333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3029,28 +2443,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>4</v>
-      </c>
-      <c r="J55" t="n">
-        <v>38</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-80</v>
-      </c>
-      <c r="L55" t="n">
-        <v>255.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>255.65</v>
-      </c>
-      <c r="N55" t="n">
-        <v>254.4</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3080,28 +2478,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>6</v>
-      </c>
-      <c r="J56" t="n">
-        <v>40</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L56" t="n">
-        <v>254.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>255.5</v>
-      </c>
-      <c r="N56" t="n">
-        <v>254.5333333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3131,28 +2513,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
-      </c>
-      <c r="J57" t="n">
-        <v>41</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L57" t="n">
-        <v>254.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="N57" t="n">
-        <v>254.6333333333333</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3182,28 +2548,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
-      </c>
-      <c r="J58" t="n">
-        <v>41</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L58" t="n">
-        <v>253.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>255.1</v>
-      </c>
-      <c r="N58" t="n">
-        <v>254.7333333333333</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3233,28 +2583,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>41</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L59" t="n">
-        <v>253.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>254.9</v>
-      </c>
-      <c r="N59" t="n">
-        <v>254.8333333333333</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3284,28 +2618,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>41</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L60" t="n">
-        <v>253.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>254.85</v>
-      </c>
-      <c r="N60" t="n">
-        <v>254.9</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3335,28 +2653,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>5</v>
-      </c>
-      <c r="J61" t="n">
-        <v>41</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L61" t="n">
-        <v>253.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>254.55</v>
-      </c>
-      <c r="N61" t="n">
-        <v>254.9666666666667</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3386,28 +2688,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
-      </c>
-      <c r="J62" t="n">
-        <v>41</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L62" t="n">
-        <v>253</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>254.5</v>
-      </c>
-      <c r="N62" t="n">
-        <v>255</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3437,28 +2723,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>11</v>
-      </c>
-      <c r="J63" t="n">
-        <v>47</v>
-      </c>
-      <c r="K63" t="n">
-        <v>80</v>
-      </c>
-      <c r="L63" t="n">
-        <v>253.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>254.75</v>
-      </c>
-      <c r="N63" t="n">
-        <v>255.2</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3488,28 +2758,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>6</v>
-      </c>
-      <c r="J64" t="n">
-        <v>52</v>
-      </c>
-      <c r="K64" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L64" t="n">
-        <v>253.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>254.7</v>
-      </c>
-      <c r="N64" t="n">
-        <v>255.1666666666667</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3539,28 +2793,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>9</v>
-      </c>
-      <c r="J65" t="n">
-        <v>55</v>
-      </c>
-      <c r="K65" t="n">
-        <v>20</v>
-      </c>
-      <c r="L65" t="n">
-        <v>254.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>254.65</v>
-      </c>
-      <c r="N65" t="n">
-        <v>255.1666666666667</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3590,28 +2828,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>9</v>
-      </c>
-      <c r="J66" t="n">
-        <v>55</v>
-      </c>
-      <c r="K66" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L66" t="n">
-        <v>254.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>254.5</v>
-      </c>
-      <c r="N66" t="n">
-        <v>255.1666666666667</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3641,28 +2863,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>11</v>
-      </c>
-      <c r="J67" t="n">
-        <v>57</v>
-      </c>
-      <c r="K67" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="L67" t="n">
-        <v>255.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>254.65</v>
-      </c>
-      <c r="N67" t="n">
-        <v>255.2333333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3692,28 +2898,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>11</v>
-      </c>
-      <c r="J68" t="n">
-        <v>57</v>
-      </c>
-      <c r="K68" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="L68" t="n">
-        <v>255.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>254.8</v>
-      </c>
-      <c r="N68" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3743,28 +2933,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>11</v>
-      </c>
-      <c r="J69" t="n">
-        <v>57</v>
-      </c>
-      <c r="K69" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="L69" t="n">
-        <v>256.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>254.95</v>
-      </c>
-      <c r="N69" t="n">
-        <v>255.3666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3794,28 +2968,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>11</v>
-      </c>
-      <c r="J70" t="n">
-        <v>57</v>
-      </c>
-      <c r="K70" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="L70" t="n">
-        <v>256.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>255.15</v>
-      </c>
-      <c r="N70" t="n">
-        <v>255.5333333333333</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3845,28 +3003,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>62</v>
-      </c>
-      <c r="K71" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L71" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>255.1</v>
-      </c>
-      <c r="N71" t="n">
-        <v>255.3666666666667</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,28 +3038,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
-      </c>
-      <c r="J72" t="n">
-        <v>65</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-44.44444444444444</v>
-      </c>
-      <c r="L72" t="n">
-        <v>256.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>254.9</v>
-      </c>
-      <c r="N72" t="n">
-        <v>255.2666666666667</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3947,28 +3073,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>7</v>
-      </c>
-      <c r="J73" t="n">
-        <v>69</v>
-      </c>
-      <c r="K73" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L73" t="n">
-        <v>256.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>254.9</v>
-      </c>
-      <c r="N73" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3998,28 +3108,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>7</v>
-      </c>
-      <c r="J74" t="n">
-        <v>69</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L74" t="n">
-        <v>256.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>255.1</v>
-      </c>
-      <c r="N74" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4049,28 +3143,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>7</v>
-      </c>
-      <c r="J75" t="n">
-        <v>69</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L75" t="n">
-        <v>256.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>255.25</v>
-      </c>
-      <c r="N75" t="n">
-        <v>255.2</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4100,28 +3178,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>69</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L76" t="n">
-        <v>256.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="N76" t="n">
-        <v>255.0333333333333</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4151,28 +3213,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>7</v>
-      </c>
-      <c r="J77" t="n">
-        <v>69</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L77" t="n">
-        <v>255.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>255.4</v>
-      </c>
-      <c r="N77" t="n">
-        <v>255</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4202,28 +3248,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>10</v>
-      </c>
-      <c r="J78" t="n">
-        <v>72</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L78" t="n">
-        <v>255.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>255.65</v>
-      </c>
-      <c r="N78" t="n">
-        <v>255.0666666666667</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4253,28 +3283,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
-      </c>
-      <c r="J79" t="n">
-        <v>80</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-39.1304347826087</v>
-      </c>
-      <c r="L79" t="n">
-        <v>254.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>255.5</v>
-      </c>
-      <c r="N79" t="n">
-        <v>254.8666666666667</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4304,28 +3318,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>6</v>
-      </c>
-      <c r="J80" t="n">
-        <v>84</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>254.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>255.55</v>
-      </c>
-      <c r="N80" t="n">
-        <v>254.8333333333333</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4355,28 +3353,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>7</v>
-      </c>
-      <c r="J81" t="n">
-        <v>85</v>
-      </c>
-      <c r="K81" t="n">
-        <v>20</v>
-      </c>
-      <c r="L81" t="n">
-        <v>254.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>255.65</v>
-      </c>
-      <c r="N81" t="n">
-        <v>254.8333333333333</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4406,28 +3388,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>7</v>
-      </c>
-      <c r="J82" t="n">
-        <v>85</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>254.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>255.75</v>
-      </c>
-      <c r="N82" t="n">
-        <v>254.8333333333333</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4457,28 +3423,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>6</v>
-      </c>
-      <c r="J83" t="n">
-        <v>86</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L83" t="n">
-        <v>254.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>255.5</v>
-      </c>
-      <c r="N83" t="n">
-        <v>254.8</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,28 +3458,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>87</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>254.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>255.55</v>
-      </c>
-      <c r="N84" t="n">
-        <v>254.9333333333333</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,28 +3493,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>7</v>
-      </c>
-      <c r="J85" t="n">
-        <v>87</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>254.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>255.45</v>
-      </c>
-      <c r="N85" t="n">
-        <v>255.0333333333333</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4610,28 +3528,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>9</v>
-      </c>
-      <c r="J86" t="n">
-        <v>89</v>
-      </c>
-      <c r="K86" t="n">
-        <v>10</v>
-      </c>
-      <c r="L86" t="n">
-        <v>254.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>255.45</v>
-      </c>
-      <c r="N86" t="n">
-        <v>255.1333333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4661,28 +3563,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>9</v>
-      </c>
-      <c r="J87" t="n">
-        <v>89</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L87" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>255.35</v>
-      </c>
-      <c r="N87" t="n">
-        <v>255.2666666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4712,28 +3598,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>9</v>
-      </c>
-      <c r="J88" t="n">
-        <v>89</v>
-      </c>
-      <c r="K88" t="n">
-        <v>77.77777777777779</v>
-      </c>
-      <c r="L88" t="n">
-        <v>254.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>255.25</v>
-      </c>
-      <c r="N88" t="n">
-        <v>255.4</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4763,28 +3633,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>9</v>
-      </c>
-      <c r="J89" t="n">
-        <v>89</v>
-      </c>
-      <c r="K89" t="n">
-        <v>60</v>
-      </c>
-      <c r="L89" t="n">
-        <v>255.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>255.15</v>
-      </c>
-      <c r="N89" t="n">
-        <v>255.5333333333333</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4814,28 +3668,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>8</v>
-      </c>
-      <c r="J90" t="n">
-        <v>90</v>
-      </c>
-      <c r="K90" t="n">
-        <v>20</v>
-      </c>
-      <c r="L90" t="n">
-        <v>255.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>255</v>
-      </c>
-      <c r="N90" t="n">
-        <v>255.6333333333333</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4865,28 +3703,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>10</v>
-      </c>
-      <c r="J91" t="n">
-        <v>92</v>
-      </c>
-      <c r="K91" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L91" t="n">
-        <v>256.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>255.2</v>
-      </c>
-      <c r="N91" t="n">
-        <v>255.8</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4916,28 +3738,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>8</v>
-      </c>
-      <c r="J92" t="n">
-        <v>94</v>
-      </c>
-      <c r="K92" t="n">
-        <v>25</v>
-      </c>
-      <c r="L92" t="n">
-        <v>256.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>255.45</v>
-      </c>
-      <c r="N92" t="n">
-        <v>255.9</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4967,28 +3773,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>95</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>256.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>255.45</v>
-      </c>
-      <c r="N93" t="n">
-        <v>255.7666666666667</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5018,28 +3808,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>7</v>
-      </c>
-      <c r="J94" t="n">
-        <v>95</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>256.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>255.45</v>
-      </c>
-      <c r="N94" t="n">
-        <v>255.8</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5069,28 +3843,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>7</v>
-      </c>
-      <c r="J95" t="n">
-        <v>95</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L95" t="n">
-        <v>256.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>255.45</v>
-      </c>
-      <c r="N95" t="n">
-        <v>255.7333333333333</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5120,28 +3878,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>7</v>
-      </c>
-      <c r="J96" t="n">
-        <v>95</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L96" t="n">
-        <v>256.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>255.45</v>
-      </c>
-      <c r="N96" t="n">
-        <v>255.6666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5171,28 +3913,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>9</v>
-      </c>
-      <c r="J97" t="n">
-        <v>97</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>256.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>255.55</v>
-      </c>
-      <c r="N97" t="n">
-        <v>255.6</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5222,28 +3948,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>10</v>
-      </c>
-      <c r="J98" t="n">
-        <v>98</v>
-      </c>
-      <c r="K98" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L98" t="n">
-        <v>256.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>255.55</v>
-      </c>
-      <c r="N98" t="n">
-        <v>255.5666666666667</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5273,28 +3983,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>9</v>
-      </c>
-      <c r="J99" t="n">
-        <v>99</v>
-      </c>
-      <c r="K99" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L99" t="n">
-        <v>256.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>255.9</v>
-      </c>
-      <c r="N99" t="n">
-        <v>255.5</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5324,28 +4018,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>9</v>
-      </c>
-      <c r="J100" t="n">
-        <v>99</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L100" t="n">
-        <v>256.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>256.05</v>
-      </c>
-      <c r="N100" t="n">
-        <v>255.4333333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5375,28 +4053,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>9</v>
-      </c>
-      <c r="J101" t="n">
-        <v>99</v>
-      </c>
-      <c r="K101" t="n">
-        <v>20</v>
-      </c>
-      <c r="L101" t="n">
-        <v>256.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>256.15</v>
-      </c>
-      <c r="N101" t="n">
-        <v>255.5333333333333</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5426,28 +4088,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>9</v>
-      </c>
-      <c r="J102" t="n">
-        <v>99</v>
-      </c>
-      <c r="K102" t="n">
-        <v>50</v>
-      </c>
-      <c r="L102" t="n">
-        <v>256.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>256.25</v>
-      </c>
-      <c r="N102" t="n">
-        <v>255.7333333333333</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5477,28 +4123,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>9</v>
-      </c>
-      <c r="J103" t="n">
-        <v>99</v>
-      </c>
-      <c r="K103" t="n">
-        <v>50</v>
-      </c>
-      <c r="L103" t="n">
-        <v>256.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>256.4</v>
-      </c>
-      <c r="N103" t="n">
-        <v>255.8</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5528,28 +4158,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>9</v>
-      </c>
-      <c r="J104" t="n">
-        <v>99</v>
-      </c>
-      <c r="K104" t="n">
-        <v>50</v>
-      </c>
-      <c r="L104" t="n">
-        <v>256.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>256.5</v>
-      </c>
-      <c r="N104" t="n">
-        <v>255.8666666666667</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5579,28 +4193,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>9</v>
-      </c>
-      <c r="J105" t="n">
-        <v>99</v>
-      </c>
-      <c r="K105" t="n">
-        <v>50</v>
-      </c>
-      <c r="L105" t="n">
-        <v>256.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>256.6</v>
-      </c>
-      <c r="N105" t="n">
-        <v>255.9333333333333</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5630,28 +4228,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>9</v>
-      </c>
-      <c r="J106" t="n">
-        <v>99</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>257.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>256.6</v>
-      </c>
-      <c r="N106" t="n">
-        <v>256</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5681,28 +4263,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>9</v>
-      </c>
-      <c r="J107" t="n">
-        <v>99</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L107" t="n">
-        <v>257.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>256.6</v>
-      </c>
-      <c r="N107" t="n">
-        <v>256.0666666666667</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5732,28 +4298,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>11</v>
-      </c>
-      <c r="J108" t="n">
-        <v>101</v>
-      </c>
-      <c r="K108" t="n">
-        <v>100</v>
-      </c>
-      <c r="L108" t="n">
-        <v>257.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>256.7</v>
-      </c>
-      <c r="N108" t="n">
-        <v>256.1</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5783,28 +4333,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>10</v>
-      </c>
-      <c r="J109" t="n">
-        <v>102</v>
-      </c>
-      <c r="K109" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L109" t="n">
-        <v>257.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>256.75</v>
-      </c>
-      <c r="N109" t="n">
-        <v>256.3666666666667</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5834,28 +4368,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>11</v>
-      </c>
-      <c r="J110" t="n">
-        <v>103</v>
-      </c>
-      <c r="K110" t="n">
-        <v>50</v>
-      </c>
-      <c r="L110" t="n">
-        <v>257.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>256.9</v>
-      </c>
-      <c r="N110" t="n">
-        <v>256.5333333333334</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5885,28 +4403,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>13</v>
-      </c>
-      <c r="J111" t="n">
-        <v>105</v>
-      </c>
-      <c r="K111" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L111" t="n">
-        <v>257.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>257.05</v>
-      </c>
-      <c r="N111" t="n">
-        <v>256.7333333333333</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5936,28 +4438,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>11</v>
-      </c>
-      <c r="J112" t="n">
-        <v>107</v>
-      </c>
-      <c r="K112" t="n">
-        <v>25</v>
-      </c>
-      <c r="L112" t="n">
-        <v>258.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>257.2</v>
-      </c>
-      <c r="N112" t="n">
-        <v>256.8666666666667</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5987,28 +4473,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>11</v>
-      </c>
-      <c r="J113" t="n">
-        <v>107</v>
-      </c>
-      <c r="K113" t="n">
-        <v>25</v>
-      </c>
-      <c r="L113" t="n">
-        <v>258.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>257.4</v>
-      </c>
-      <c r="N113" t="n">
-        <v>257.0333333333334</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6038,28 +4508,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>12</v>
-      </c>
-      <c r="J114" t="n">
-        <v>108</v>
-      </c>
-      <c r="K114" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L114" t="n">
-        <v>258.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>257.65</v>
-      </c>
-      <c r="N114" t="n">
-        <v>257.2</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6089,28 +4543,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>11</v>
-      </c>
-      <c r="J115" t="n">
-        <v>109</v>
-      </c>
-      <c r="K115" t="n">
-        <v>20</v>
-      </c>
-      <c r="L115" t="n">
-        <v>258.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>257.85</v>
-      </c>
-      <c r="N115" t="n">
-        <v>257.3333333333333</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6140,28 +4578,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>9</v>
-      </c>
-      <c r="J116" t="n">
-        <v>111</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>258.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>257.95</v>
-      </c>
-      <c r="N116" t="n">
-        <v>257.3333333333333</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6191,28 +4613,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>12</v>
-      </c>
-      <c r="J117" t="n">
-        <v>114</v>
-      </c>
-      <c r="K117" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L117" t="n">
-        <v>259.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>258.1</v>
-      </c>
-      <c r="N117" t="n">
-        <v>257.4333333333333</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6242,28 +4648,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>12</v>
-      </c>
-      <c r="J118" t="n">
-        <v>114</v>
-      </c>
-      <c r="K118" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L118" t="n">
-        <v>259.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>258.2</v>
-      </c>
-      <c r="N118" t="n">
-        <v>257.5333333333334</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,28 +4683,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>12</v>
-      </c>
-      <c r="J119" t="n">
-        <v>114</v>
-      </c>
-      <c r="K119" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L119" t="n">
-        <v>259.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>258.35</v>
-      </c>
-      <c r="N119" t="n">
-        <v>257.6333333333333</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6344,28 +4718,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>13</v>
-      </c>
-      <c r="J120" t="n">
-        <v>115</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>259.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>258.55</v>
-      </c>
-      <c r="N120" t="n">
-        <v>257.8</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6395,28 +4753,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>12</v>
-      </c>
-      <c r="J121" t="n">
-        <v>116</v>
-      </c>
-      <c r="K121" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L121" t="n">
-        <v>259.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>258.7</v>
-      </c>
-      <c r="N121" t="n">
-        <v>257.8666666666667</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6446,28 +4788,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>10</v>
-      </c>
-      <c r="J122" t="n">
-        <v>118</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L122" t="n">
-        <v>259.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>258.75</v>
-      </c>
-      <c r="N122" t="n">
-        <v>257.9333333333333</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6497,28 +4823,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>8</v>
-      </c>
-      <c r="J123" t="n">
-        <v>120</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L123" t="n">
-        <v>259.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>258.7</v>
-      </c>
-      <c r="N123" t="n">
-        <v>257.9666666666666</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6548,28 +4858,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>13</v>
-      </c>
-      <c r="J124" t="n">
-        <v>125</v>
-      </c>
-      <c r="K124" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L124" t="n">
-        <v>259.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>258.9</v>
-      </c>
-      <c r="N124" t="n">
-        <v>258.1666666666667</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6599,28 +4893,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>12</v>
-      </c>
-      <c r="J125" t="n">
-        <v>126</v>
-      </c>
-      <c r="K125" t="n">
-        <v>20</v>
-      </c>
-      <c r="L125" t="n">
-        <v>259.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>259.05</v>
-      </c>
-      <c r="N125" t="n">
-        <v>258.3333333333333</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6650,28 +4928,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>12</v>
-      </c>
-      <c r="J126" t="n">
-        <v>126</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0</v>
-      </c>
-      <c r="L126" t="n">
-        <v>259.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>259.2</v>
-      </c>
-      <c r="N126" t="n">
-        <v>258.5</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6701,28 +4963,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>12</v>
-      </c>
-      <c r="J127" t="n">
-        <v>126</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" t="n">
-        <v>259.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>259.35</v>
-      </c>
-      <c r="N127" t="n">
-        <v>258.6</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6752,28 +4998,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>12</v>
-      </c>
-      <c r="J128" t="n">
-        <v>126</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>259.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>259.4</v>
-      </c>
-      <c r="N128" t="n">
-        <v>258.6666666666667</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6803,28 +5033,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>12</v>
-      </c>
-      <c r="J129" t="n">
-        <v>126</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L129" t="n">
-        <v>259.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="N129" t="n">
-        <v>258.7666666666667</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6854,28 +5068,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>12</v>
-      </c>
-      <c r="J130" t="n">
-        <v>126</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0</v>
-      </c>
-      <c r="L130" t="n">
-        <v>259.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>259.55</v>
-      </c>
-      <c r="N130" t="n">
-        <v>258.8666666666667</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6905,28 +5103,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>13</v>
-      </c>
-      <c r="J131" t="n">
-        <v>127</v>
-      </c>
-      <c r="K131" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L131" t="n">
-        <v>259.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>259.55</v>
-      </c>
-      <c r="N131" t="n">
-        <v>259</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6956,28 +5138,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>13</v>
-      </c>
-      <c r="J132" t="n">
-        <v>127</v>
-      </c>
-      <c r="K132" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L132" t="n">
-        <v>259.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>259.65</v>
-      </c>
-      <c r="N132" t="n">
-        <v>259.1333333333333</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7007,28 +5173,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>13</v>
-      </c>
-      <c r="J133" t="n">
-        <v>127</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>260.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>259.75</v>
-      </c>
-      <c r="N133" t="n">
-        <v>259.2666666666667</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7058,1099 +5208,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>10</v>
-      </c>
-      <c r="J134" t="n">
-        <v>130</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L134" t="n">
-        <v>260.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>259.65</v>
-      </c>
-      <c r="N134" t="n">
-        <v>259.3</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>258</v>
-      </c>
-      <c r="C135" t="n">
-        <v>252</v>
-      </c>
-      <c r="D135" t="n">
-        <v>258</v>
-      </c>
-      <c r="E135" t="n">
-        <v>252</v>
-      </c>
-      <c r="F135" t="n">
-        <v>29996.6895</v>
-      </c>
-      <c r="G135" t="n">
-        <v>257.5333333333334</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>4</v>
-      </c>
-      <c r="J135" t="n">
-        <v>136</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-80</v>
-      </c>
-      <c r="L135" t="n">
-        <v>259.3</v>
-      </c>
-      <c r="M135" t="n">
-        <v>259.3</v>
-      </c>
-      <c r="N135" t="n">
-        <v>259.1333333333333</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>259</v>
-      </c>
-      <c r="C136" t="n">
-        <v>259</v>
-      </c>
-      <c r="D136" t="n">
-        <v>259</v>
-      </c>
-      <c r="E136" t="n">
-        <v>259</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1</v>
-      </c>
-      <c r="G136" t="n">
-        <v>257.6</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>11</v>
-      </c>
-      <c r="J136" t="n">
-        <v>143</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L136" t="n">
-        <v>259.2</v>
-      </c>
-      <c r="M136" t="n">
-        <v>259.4</v>
-      </c>
-      <c r="N136" t="n">
-        <v>259.2</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>259</v>
-      </c>
-      <c r="C137" t="n">
-        <v>259</v>
-      </c>
-      <c r="D137" t="n">
-        <v>259</v>
-      </c>
-      <c r="E137" t="n">
-        <v>259</v>
-      </c>
-      <c r="F137" t="n">
-        <v>21.0424</v>
-      </c>
-      <c r="G137" t="n">
-        <v>257.6666666666667</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>11</v>
-      </c>
-      <c r="J137" t="n">
-        <v>143</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L137" t="n">
-        <v>259.1</v>
-      </c>
-      <c r="M137" t="n">
-        <v>259.35</v>
-      </c>
-      <c r="N137" t="n">
-        <v>259.2666666666667</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>255</v>
-      </c>
-      <c r="C138" t="n">
-        <v>254</v>
-      </c>
-      <c r="D138" t="n">
-        <v>255</v>
-      </c>
-      <c r="E138" t="n">
-        <v>253</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1827.4304</v>
-      </c>
-      <c r="G138" t="n">
-        <v>257.6</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>6</v>
-      </c>
-      <c r="J138" t="n">
-        <v>148</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L138" t="n">
-        <v>258.5</v>
-      </c>
-      <c r="M138" t="n">
-        <v>259.05</v>
-      </c>
-      <c r="N138" t="n">
-        <v>259.1</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>252</v>
-      </c>
-      <c r="C139" t="n">
-        <v>252</v>
-      </c>
-      <c r="D139" t="n">
-        <v>252</v>
-      </c>
-      <c r="E139" t="n">
-        <v>252</v>
-      </c>
-      <c r="F139" t="n">
-        <v>3236.7585</v>
-      </c>
-      <c r="G139" t="n">
-        <v>257.6333333333333</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>4</v>
-      </c>
-      <c r="J139" t="n">
-        <v>150</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L139" t="n">
-        <v>257.7</v>
-      </c>
-      <c r="M139" t="n">
-        <v>258.65</v>
-      </c>
-      <c r="N139" t="n">
-        <v>258.9</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>253</v>
-      </c>
-      <c r="C140" t="n">
-        <v>252</v>
-      </c>
-      <c r="D140" t="n">
-        <v>253</v>
-      </c>
-      <c r="E140" t="n">
-        <v>252</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1043.762</v>
-      </c>
-      <c r="G140" t="n">
-        <v>257.6</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>4</v>
-      </c>
-      <c r="J140" t="n">
-        <v>150</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-39.1304347826087</v>
-      </c>
-      <c r="L140" t="n">
-        <v>256.9</v>
-      </c>
-      <c r="M140" t="n">
-        <v>258.2</v>
-      </c>
-      <c r="N140" t="n">
-        <v>258.6666666666667</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>255</v>
-      </c>
-      <c r="C141" t="n">
-        <v>255</v>
-      </c>
-      <c r="D141" t="n">
-        <v>255</v>
-      </c>
-      <c r="E141" t="n">
-        <v>255</v>
-      </c>
-      <c r="F141" t="n">
-        <v>4.7603</v>
-      </c>
-      <c r="G141" t="n">
-        <v>257.6</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>7</v>
-      </c>
-      <c r="J141" t="n">
-        <v>153</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L141" t="n">
-        <v>256.3</v>
-      </c>
-      <c r="M141" t="n">
-        <v>257.95</v>
-      </c>
-      <c r="N141" t="n">
-        <v>258.4666666666666</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>255</v>
-      </c>
-      <c r="C142" t="n">
-        <v>255</v>
-      </c>
-      <c r="D142" t="n">
-        <v>255</v>
-      </c>
-      <c r="E142" t="n">
-        <v>255</v>
-      </c>
-      <c r="F142" t="n">
-        <v>189.3992</v>
-      </c>
-      <c r="G142" t="n">
-        <v>257.6</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>7</v>
-      </c>
-      <c r="J142" t="n">
-        <v>153</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L142" t="n">
-        <v>255.7</v>
-      </c>
-      <c r="M142" t="n">
-        <v>257.8</v>
-      </c>
-      <c r="N142" t="n">
-        <v>258.3333333333333</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>258</v>
-      </c>
-      <c r="C143" t="n">
-        <v>258</v>
-      </c>
-      <c r="D143" t="n">
-        <v>258</v>
-      </c>
-      <c r="E143" t="n">
-        <v>258</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2</v>
-      </c>
-      <c r="G143" t="n">
-        <v>257.6666666666667</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>10</v>
-      </c>
-      <c r="J143" t="n">
-        <v>156</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0</v>
-      </c>
-      <c r="L143" t="n">
-        <v>255.4</v>
-      </c>
-      <c r="M143" t="n">
-        <v>257.9</v>
-      </c>
-      <c r="N143" t="n">
-        <v>258.3</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>256</v>
-      </c>
-      <c r="C144" t="n">
-        <v>256</v>
-      </c>
-      <c r="D144" t="n">
-        <v>256</v>
-      </c>
-      <c r="E144" t="n">
-        <v>256</v>
-      </c>
-      <c r="F144" t="n">
-        <v>102.99</v>
-      </c>
-      <c r="G144" t="n">
-        <v>257.6833333333333</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>8</v>
-      </c>
-      <c r="J144" t="n">
-        <v>158</v>
-      </c>
-      <c r="K144" t="n">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="L144" t="n">
-        <v>255.2</v>
-      </c>
-      <c r="M144" t="n">
-        <v>257.65</v>
-      </c>
-      <c r="N144" t="n">
-        <v>258.1666666666667</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>258</v>
-      </c>
-      <c r="C145" t="n">
-        <v>258</v>
-      </c>
-      <c r="D145" t="n">
-        <v>258</v>
-      </c>
-      <c r="E145" t="n">
-        <v>258</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1.0844</v>
-      </c>
-      <c r="G145" t="n">
-        <v>257.7333333333333</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>10</v>
-      </c>
-      <c r="J145" t="n">
-        <v>160</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L145" t="n">
-        <v>255.8</v>
-      </c>
-      <c r="M145" t="n">
-        <v>257.55</v>
-      </c>
-      <c r="N145" t="n">
-        <v>258.1333333333333</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>257</v>
-      </c>
-      <c r="C146" t="n">
-        <v>258</v>
-      </c>
-      <c r="D146" t="n">
-        <v>258</v>
-      </c>
-      <c r="E146" t="n">
-        <v>257</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2.4457</v>
-      </c>
-      <c r="G146" t="n">
-        <v>257.75</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>10</v>
-      </c>
-      <c r="J146" t="n">
-        <v>160</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L146" t="n">
-        <v>255.7</v>
-      </c>
-      <c r="M146" t="n">
-        <v>257.45</v>
-      </c>
-      <c r="N146" t="n">
-        <v>258.1666666666667</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>258</v>
-      </c>
-      <c r="C147" t="n">
-        <v>258</v>
-      </c>
-      <c r="D147" t="n">
-        <v>258</v>
-      </c>
-      <c r="E147" t="n">
-        <v>258</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1</v>
-      </c>
-      <c r="G147" t="n">
-        <v>257.7666666666667</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>10</v>
-      </c>
-      <c r="J147" t="n">
-        <v>160</v>
-      </c>
-      <c r="K147" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L147" t="n">
-        <v>255.6</v>
-      </c>
-      <c r="M147" t="n">
-        <v>257.35</v>
-      </c>
-      <c r="N147" t="n">
-        <v>258.1</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>256</v>
-      </c>
-      <c r="C148" t="n">
-        <v>256</v>
-      </c>
-      <c r="D148" t="n">
-        <v>256</v>
-      </c>
-      <c r="E148" t="n">
-        <v>256</v>
-      </c>
-      <c r="F148" t="n">
-        <v>51.495</v>
-      </c>
-      <c r="G148" t="n">
-        <v>257.75</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>8</v>
-      </c>
-      <c r="J148" t="n">
-        <v>162</v>
-      </c>
-      <c r="K148" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L148" t="n">
-        <v>255.8</v>
-      </c>
-      <c r="M148" t="n">
-        <v>257.15</v>
-      </c>
-      <c r="N148" t="n">
-        <v>257.9666666666666</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>258</v>
-      </c>
-      <c r="C149" t="n">
-        <v>258</v>
-      </c>
-      <c r="D149" t="n">
-        <v>258</v>
-      </c>
-      <c r="E149" t="n">
-        <v>258</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2.2641</v>
-      </c>
-      <c r="G149" t="n">
-        <v>257.7666666666667</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>10</v>
-      </c>
-      <c r="J149" t="n">
-        <v>164</v>
-      </c>
-      <c r="K149" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L149" t="n">
-        <v>256.4</v>
-      </c>
-      <c r="M149" t="n">
-        <v>257.05</v>
-      </c>
-      <c r="N149" t="n">
-        <v>257.9</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>258</v>
-      </c>
-      <c r="C150" t="n">
-        <v>258</v>
-      </c>
-      <c r="D150" t="n">
-        <v>258</v>
-      </c>
-      <c r="E150" t="n">
-        <v>258</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1805.9031</v>
-      </c>
-      <c r="G150" t="n">
-        <v>257.8</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>10</v>
-      </c>
-      <c r="J150" t="n">
-        <v>164</v>
-      </c>
-      <c r="K150" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L150" t="n">
-        <v>257</v>
-      </c>
-      <c r="M150" t="n">
-        <v>256.95</v>
-      </c>
-      <c r="N150" t="n">
-        <v>257.8</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>258</v>
-      </c>
-      <c r="C151" t="n">
-        <v>258</v>
-      </c>
-      <c r="D151" t="n">
-        <v>258</v>
-      </c>
-      <c r="E151" t="n">
-        <v>258</v>
-      </c>
-      <c r="F151" t="n">
-        <v>642.0074</v>
-      </c>
-      <c r="G151" t="n">
-        <v>257.8</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>10</v>
-      </c>
-      <c r="J151" t="n">
-        <v>164</v>
-      </c>
-      <c r="K151" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L151" t="n">
-        <v>257.3</v>
-      </c>
-      <c r="M151" t="n">
-        <v>256.8</v>
-      </c>
-      <c r="N151" t="n">
-        <v>257.7333333333333</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>258</v>
-      </c>
-      <c r="C152" t="n">
-        <v>258</v>
-      </c>
-      <c r="D152" t="n">
-        <v>258</v>
-      </c>
-      <c r="E152" t="n">
-        <v>258</v>
-      </c>
-      <c r="F152" t="n">
-        <v>212.436</v>
-      </c>
-      <c r="G152" t="n">
-        <v>257.8333333333333</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>10</v>
-      </c>
-      <c r="J152" t="n">
-        <v>164</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0</v>
-      </c>
-      <c r="L152" t="n">
-        <v>257.6</v>
-      </c>
-      <c r="M152" t="n">
-        <v>256.65</v>
-      </c>
-      <c r="N152" t="n">
-        <v>257.7333333333333</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>259</v>
-      </c>
-      <c r="C153" t="n">
-        <v>259</v>
-      </c>
-      <c r="D153" t="n">
-        <v>259</v>
-      </c>
-      <c r="E153" t="n">
-        <v>259</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1</v>
-      </c>
-      <c r="G153" t="n">
-        <v>257.9</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>11</v>
-      </c>
-      <c r="J153" t="n">
-        <v>165</v>
-      </c>
-      <c r="K153" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L153" t="n">
-        <v>257.7</v>
-      </c>
-      <c r="M153" t="n">
-        <v>256.55</v>
-      </c>
-      <c r="N153" t="n">
-        <v>257.8333333333333</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>259</v>
-      </c>
-      <c r="C154" t="n">
-        <v>259</v>
-      </c>
-      <c r="D154" t="n">
-        <v>259</v>
-      </c>
-      <c r="E154" t="n">
-        <v>259</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1817.9013</v>
-      </c>
-      <c r="G154" t="n">
-        <v>257.9666666666666</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>11</v>
-      </c>
-      <c r="J154" t="n">
-        <v>165</v>
-      </c>
-      <c r="K154" t="n">
-        <v>20</v>
-      </c>
-      <c r="L154" t="n">
-        <v>258</v>
-      </c>
-      <c r="M154" t="n">
-        <v>256.6</v>
-      </c>
-      <c r="N154" t="n">
-        <v>257.7666666666667</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>259</v>
-      </c>
-      <c r="C155" t="n">
-        <v>255</v>
-      </c>
-      <c r="D155" t="n">
-        <v>259</v>
-      </c>
-      <c r="E155" t="n">
-        <v>255</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1731.1759</v>
-      </c>
-      <c r="G155" t="n">
-        <v>257.9666666666666</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>7</v>
-      </c>
-      <c r="J155" t="n">
-        <v>169</v>
-      </c>
-      <c r="K155" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L155" t="n">
-        <v>257.7</v>
-      </c>
-      <c r="M155" t="n">
-        <v>256.75</v>
-      </c>
-      <c r="N155" t="n">
-        <v>257.6</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-15 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-15 BackTest TRUE.xlsx
@@ -766,17 +766,13 @@
         <v>248.2666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>248</v>
-      </c>
-      <c r="K11" t="n">
-        <v>248</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -811,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>248</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -852,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>248</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -1307,17 +1291,13 @@
         <v>248.15</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>250</v>
-      </c>
-      <c r="K26" t="n">
-        <v>250</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
@@ -1346,22 +1326,14 @@
         <v>248.1833333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>250</v>
-      </c>
-      <c r="K27" t="n">
-        <v>250</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1389,22 +1361,14 @@
         <v>248.2166666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>250</v>
-      </c>
-      <c r="K28" t="n">
-        <v>250</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1432,22 +1396,14 @@
         <v>248.25</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>249</v>
-      </c>
-      <c r="K29" t="n">
-        <v>250</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1475,22 +1431,14 @@
         <v>248.3</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>251</v>
-      </c>
-      <c r="K30" t="n">
-        <v>250</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1466,14 @@
         <v>248.35</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>251</v>
-      </c>
-      <c r="K31" t="n">
-        <v>250</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1561,22 +1501,14 @@
         <v>248.4166666666667</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>252</v>
-      </c>
-      <c r="K32" t="n">
-        <v>250</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1604,22 +1536,14 @@
         <v>248.5</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>252</v>
-      </c>
-      <c r="K33" t="n">
-        <v>250</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1647,22 +1571,14 @@
         <v>248.6166666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>255</v>
-      </c>
-      <c r="K34" t="n">
-        <v>250</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1690,22 +1606,14 @@
         <v>248.7666666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>257</v>
-      </c>
-      <c r="K35" t="n">
-        <v>250</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1739,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>250</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1780,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>250</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1818,17 +1714,11 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>250</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1862,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>250</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1903,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>250</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1944,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>250</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1982,19 +1854,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>250</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>1.011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2093,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2128,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2233,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -3245,13 +3111,17 @@
         <v>254.1333333333333</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>255</v>
+      </c>
+      <c r="K78" t="n">
+        <v>255</v>
+      </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
@@ -3280,14 +3150,22 @@
         <v>254.1666666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>258</v>
+      </c>
+      <c r="K79" t="n">
+        <v>255</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3321,8 +3199,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>255</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3356,8 +3240,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>255</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3281,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>255</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3426,8 +3322,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>255</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3461,8 +3363,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>255</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3490,14 +3398,22 @@
         <v>254.7166666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>255</v>
+      </c>
+      <c r="K85" t="n">
+        <v>255</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3525,14 +3441,22 @@
         <v>254.8333333333333</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>255</v>
+      </c>
+      <c r="K86" t="n">
+        <v>255</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3560,14 +3484,22 @@
         <v>254.95</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>257</v>
+      </c>
+      <c r="K87" t="n">
+        <v>255</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3601,8 +3533,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>255</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3636,8 +3574,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>255</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3671,8 +3615,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>255</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3706,8 +3656,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>255</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3741,8 +3697,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>255</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3776,8 +3738,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>255</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3811,8 +3779,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>255</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3846,8 +3820,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>255</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3881,8 +3861,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>255</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3910,14 +3896,22 @@
         <v>255.4166666666667</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>255</v>
+      </c>
+      <c r="K97" t="n">
+        <v>255</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3951,8 +3945,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>255</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3986,8 +3986,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>255</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4021,8 +4027,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>255</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4056,8 +4068,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>255</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4091,8 +4109,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>255</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4126,8 +4150,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>255</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4161,8 +4191,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>255</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4196,8 +4232,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>255</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4231,8 +4273,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>255</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4266,8 +4314,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>255</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4301,8 +4355,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>255</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4336,8 +4396,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>255</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4371,8 +4437,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>255</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4406,8 +4478,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>255</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4441,8 +4519,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>255</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4476,8 +4560,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>255</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4511,8 +4601,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>255</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4642,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>255</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4581,8 +4683,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>255</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4616,8 +4724,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>255</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4651,8 +4765,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>255</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4686,8 +4806,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>255</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4721,8 +4847,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>255</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4756,8 +4888,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>255</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4791,8 +4929,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>255</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4826,8 +4970,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>255</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4861,8 +5011,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>255</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4896,8 +5052,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>255</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4931,8 +5093,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>255</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4966,8 +5134,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>255</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5001,8 +5175,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>255</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5036,8 +5216,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>255</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5071,8 +5257,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>255</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5106,8 +5298,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>255</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5141,8 +5339,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>255</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5176,8 +5380,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>255</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5211,8 +5421,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>255</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-15 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-15 BackTest TRUE.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:M135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
         <v>2012800</v>
       </c>
       <c r="G2" t="n">
-        <v>248.6666666666667</v>
+        <v>248.7166666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>248</v>
       </c>
       <c r="F3" t="n">
-        <v>2034999</v>
+        <v>2012800</v>
       </c>
       <c r="G3" t="n">
-        <v>248.6166666666667</v>
+        <v>248.6666666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>248</v>
       </c>
       <c r="F4" t="n">
-        <v>1990601</v>
+        <v>2034999</v>
       </c>
       <c r="G4" t="n">
-        <v>248.5666666666667</v>
+        <v>248.6166666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>248</v>
       </c>
       <c r="F5" t="n">
-        <v>2027600</v>
+        <v>1990601</v>
       </c>
       <c r="G5" t="n">
-        <v>248.5166666666667</v>
+        <v>248.5666666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>248</v>
       </c>
       <c r="F6" t="n">
-        <v>2012800</v>
+        <v>2027600</v>
       </c>
       <c r="G6" t="n">
-        <v>248.4666666666667</v>
+        <v>248.5166666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>248</v>
       </c>
       <c r="F7" t="n">
-        <v>554999</v>
+        <v>2012800</v>
       </c>
       <c r="G7" t="n">
-        <v>248.4166666666667</v>
+        <v>248.4666666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>248</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>554999</v>
       </c>
       <c r="G8" t="n">
-        <v>248.3666666666667</v>
+        <v>248.4166666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C9" t="n">
         <v>248</v>
@@ -687,13 +687,13 @@
         <v>248</v>
       </c>
       <c r="E9" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F9" t="n">
-        <v>24818.439</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>248.3333333333333</v>
+        <v>248.3666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10" t="n">
         <v>248</v>
@@ -722,13 +722,13 @@
         <v>248</v>
       </c>
       <c r="E10" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F10" t="n">
-        <v>1749830</v>
+        <v>24818.439</v>
       </c>
       <c r="G10" t="n">
-        <v>248.3</v>
+        <v>248.3333333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>248</v>
       </c>
       <c r="F11" t="n">
-        <v>2046724</v>
+        <v>1749830</v>
       </c>
       <c r="G11" t="n">
-        <v>248.2666666666667</v>
+        <v>248.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>248</v>
       </c>
       <c r="F12" t="n">
-        <v>2042720</v>
+        <v>2046724</v>
       </c>
       <c r="G12" t="n">
-        <v>248.2333333333333</v>
+        <v>248.2666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>2042720</v>
       </c>
       <c r="G13" t="n">
-        <v>248.2</v>
+        <v>248.2333333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>248</v>
       </c>
       <c r="F14" t="n">
-        <v>2035210</v>
+        <v>2042720</v>
       </c>
       <c r="G14" t="n">
-        <v>248.1666666666667</v>
+        <v>248.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>248</v>
       </c>
       <c r="F15" t="n">
-        <v>2029163.724</v>
+        <v>2035210</v>
       </c>
       <c r="G15" t="n">
-        <v>248.1333333333333</v>
+        <v>248.1666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -929,16 +929,16 @@
         <v>248</v>
       </c>
       <c r="D16" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E16" t="n">
         <v>248</v>
       </c>
       <c r="F16" t="n">
-        <v>2048543.717</v>
+        <v>2029163.724</v>
       </c>
       <c r="G16" t="n">
-        <v>248.1166666666667</v>
+        <v>248.1333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -964,16 +964,16 @@
         <v>248</v>
       </c>
       <c r="D17" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E17" t="n">
         <v>248</v>
       </c>
       <c r="F17" t="n">
-        <v>2050230</v>
+        <v>2048543.717</v>
       </c>
       <c r="G17" t="n">
-        <v>248.1</v>
+        <v>248.1166666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -999,16 +999,16 @@
         <v>248</v>
       </c>
       <c r="D18" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E18" t="n">
         <v>248</v>
       </c>
       <c r="F18" t="n">
-        <v>2035210</v>
+        <v>2050230</v>
       </c>
       <c r="G18" t="n">
-        <v>248.0833333333333</v>
+        <v>248.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>248</v>
       </c>
       <c r="F19" t="n">
-        <v>2050230</v>
+        <v>2035210</v>
       </c>
       <c r="G19" t="n">
-        <v>248.0666666666667</v>
+        <v>248.0833333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>248</v>
       </c>
       <c r="F20" t="n">
-        <v>2065250</v>
+        <v>2050230</v>
       </c>
       <c r="G20" t="n">
-        <v>248.05</v>
+        <v>248.0666666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>248</v>
       </c>
       <c r="F21" t="n">
-        <v>1659710</v>
+        <v>2065250</v>
       </c>
       <c r="G21" t="n">
-        <v>248.0333333333333</v>
+        <v>248.05</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C22" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D22" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E22" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F22" t="n">
-        <v>2288.439</v>
+        <v>1659710</v>
       </c>
       <c r="G22" t="n">
         <v>248.0333333333333</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C23" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D23" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E23" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F23" t="n">
-        <v>21.5496</v>
+        <v>2288.439</v>
       </c>
       <c r="G23" t="n">
-        <v>248.05</v>
+        <v>248.0333333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>250</v>
       </c>
       <c r="F24" t="n">
-        <v>10.9856</v>
+        <v>21.5496</v>
       </c>
       <c r="G24" t="n">
-        <v>248.0833333333333</v>
+        <v>248.05</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>250</v>
       </c>
       <c r="F25" t="n">
-        <v>9.8872</v>
+        <v>10.9856</v>
       </c>
       <c r="G25" t="n">
-        <v>248.1166666666667</v>
+        <v>248.0833333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>250</v>
       </c>
       <c r="F26" t="n">
-        <v>4.0543</v>
+        <v>9.8872</v>
       </c>
       <c r="G26" t="n">
-        <v>248.15</v>
+        <v>248.1166666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>250</v>
       </c>
       <c r="F27" t="n">
-        <v>219.543</v>
+        <v>4.0543</v>
       </c>
       <c r="G27" t="n">
-        <v>248.1833333333333</v>
+        <v>248.15</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>250</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0002</v>
+        <v>219.543</v>
       </c>
       <c r="G28" t="n">
-        <v>248.2166666666667</v>
+        <v>248.1833333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C29" t="n">
         <v>250</v>
       </c>
       <c r="D29" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E29" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F29" t="n">
-        <v>56.1435</v>
+        <v>0.0002</v>
       </c>
       <c r="G29" t="n">
-        <v>248.25</v>
+        <v>248.2166666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C30" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D30" t="n">
         <v>251</v>
       </c>
       <c r="E30" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F30" t="n">
-        <v>4000</v>
+        <v>56.1435</v>
       </c>
       <c r="G30" t="n">
-        <v>248.3</v>
+        <v>248.25</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>251</v>
       </c>
       <c r="F31" t="n">
-        <v>3940.0213</v>
+        <v>4000</v>
       </c>
       <c r="G31" t="n">
-        <v>248.35</v>
+        <v>248.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C32" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D32" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E32" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F32" t="n">
-        <v>656.774</v>
+        <v>3940.0213</v>
       </c>
       <c r="G32" t="n">
-        <v>248.4166666666667</v>
+        <v>248.35</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>252</v>
       </c>
       <c r="C33" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D33" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E33" t="n">
         <v>252</v>
       </c>
       <c r="F33" t="n">
-        <v>18740.3917</v>
+        <v>656.774</v>
       </c>
       <c r="G33" t="n">
-        <v>248.5</v>
+        <v>248.4166666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C34" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D34" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E34" t="n">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>18740.3917</v>
       </c>
       <c r="G34" t="n">
-        <v>248.6166666666667</v>
+        <v>248.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C35" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D35" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E35" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F35" t="n">
-        <v>1.9766</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>248.7666666666667</v>
+        <v>248.6166666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>257</v>
       </c>
       <c r="F36" t="n">
-        <v>1374.8132</v>
+        <v>1.9766</v>
       </c>
       <c r="G36" t="n">
-        <v>248.9166666666667</v>
+        <v>248.7666666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>257</v>
       </c>
       <c r="F37" t="n">
-        <v>325.2607</v>
+        <v>1374.8132</v>
       </c>
       <c r="G37" t="n">
-        <v>249.0666666666667</v>
+        <v>248.9166666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,16 +1705,16 @@
         <v>257</v>
       </c>
       <c r="F38" t="n">
-        <v>575.8647</v>
+        <v>325.2607</v>
       </c>
       <c r="G38" t="n">
-        <v>249.2166666666667</v>
+        <v>249.0666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1740,10 +1740,10 @@
         <v>257</v>
       </c>
       <c r="F39" t="n">
-        <v>7945.7548</v>
+        <v>575.8647</v>
       </c>
       <c r="G39" t="n">
-        <v>249.3666666666667</v>
+        <v>249.2166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C40" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D40" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E40" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F40" t="n">
-        <v>3956.4586</v>
+        <v>7945.7548</v>
       </c>
       <c r="G40" t="n">
-        <v>249.4666666666667</v>
+        <v>249.3666666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>258</v>
       </c>
       <c r="C41" t="n">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D41" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E41" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F41" t="n">
-        <v>3833.108393436293</v>
+        <v>3956.4586</v>
       </c>
       <c r="G41" t="n">
-        <v>249.65</v>
+        <v>249.4666666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,28 +1833,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C42" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D42" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E42" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F42" t="n">
-        <v>565.066</v>
+        <v>3833.108393436293</v>
       </c>
       <c r="G42" t="n">
-        <v>249.75</v>
+        <v>249.65</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C43" t="n">
         <v>254</v>
       </c>
       <c r="D43" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E43" t="n">
         <v>254</v>
       </c>
       <c r="F43" t="n">
-        <v>324.4475</v>
+        <v>565.066</v>
       </c>
       <c r="G43" t="n">
-        <v>249.85</v>
+        <v>249.75</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,25 +1906,25 @@
         <v>255</v>
       </c>
       <c r="C44" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D44" t="n">
         <v>255</v>
       </c>
       <c r="E44" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F44" t="n">
-        <v>131.0635</v>
+        <v>324.4475</v>
       </c>
       <c r="G44" t="n">
-        <v>249.9666666666667</v>
+        <v>249.85</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1941,19 +1941,19 @@
         <v>255</v>
       </c>
       <c r="C45" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D45" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E45" t="n">
         <v>255</v>
       </c>
       <c r="F45" t="n">
-        <v>259.6286</v>
+        <v>131.0635</v>
       </c>
       <c r="G45" t="n">
-        <v>250.1333333333333</v>
+        <v>249.9666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C46" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D46" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E46" t="n">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F46" t="n">
-        <v>698</v>
+        <v>259.6286</v>
       </c>
       <c r="G46" t="n">
-        <v>250.3333333333333</v>
+        <v>250.1333333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>259</v>
       </c>
       <c r="C47" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D47" t="n">
+        <v>260</v>
+      </c>
+      <c r="E47" t="n">
         <v>259</v>
       </c>
-      <c r="E47" t="n">
-        <v>256</v>
-      </c>
       <c r="F47" t="n">
-        <v>1148.1739</v>
+        <v>698</v>
       </c>
       <c r="G47" t="n">
-        <v>250.4666666666667</v>
+        <v>250.3333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C48" t="n">
         <v>256</v>
       </c>
       <c r="D48" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E48" t="n">
         <v>256</v>
       </c>
       <c r="F48" t="n">
-        <v>194</v>
+        <v>1148.1739</v>
       </c>
       <c r="G48" t="n">
-        <v>250.6</v>
+        <v>250.4666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>256</v>
       </c>
       <c r="F49" t="n">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="G49" t="n">
-        <v>250.7333333333333</v>
+        <v>250.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2116,19 +2116,19 @@
         <v>256</v>
       </c>
       <c r="C50" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D50" t="n">
         <v>256</v>
       </c>
       <c r="E50" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F50" t="n">
-        <v>163.237</v>
+        <v>57</v>
       </c>
       <c r="G50" t="n">
-        <v>250.85</v>
+        <v>250.7333333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C51" t="n">
         <v>255</v>
       </c>
       <c r="D51" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E51" t="n">
         <v>255</v>
       </c>
       <c r="F51" t="n">
-        <v>269.325</v>
+        <v>163.237</v>
       </c>
       <c r="G51" t="n">
-        <v>250.9666666666667</v>
+        <v>250.85</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>255</v>
       </c>
       <c r="F52" t="n">
-        <v>25</v>
+        <v>269.325</v>
       </c>
       <c r="G52" t="n">
-        <v>251.0833333333333</v>
+        <v>250.9666666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>255</v>
       </c>
       <c r="F53" t="n">
-        <v>145.706</v>
+        <v>25</v>
       </c>
       <c r="G53" t="n">
-        <v>251.2</v>
+        <v>251.0833333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2256,19 @@
         <v>255</v>
       </c>
       <c r="C54" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D54" t="n">
         <v>255</v>
       </c>
       <c r="E54" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F54" t="n">
-        <v>11160.7344</v>
+        <v>145.706</v>
       </c>
       <c r="G54" t="n">
-        <v>251.25</v>
+        <v>251.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C55" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D55" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E55" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F55" t="n">
-        <v>1058.823</v>
+        <v>11160.7344</v>
       </c>
       <c r="G55" t="n">
-        <v>251.3166666666667</v>
+        <v>251.25</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C56" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D56" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E56" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F56" t="n">
-        <v>9777.8734</v>
+        <v>1058.823</v>
       </c>
       <c r="G56" t="n">
-        <v>251.4166666666667</v>
+        <v>251.3166666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C57" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D57" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E57" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F57" t="n">
-        <v>40.0869</v>
+        <v>9777.8734</v>
       </c>
       <c r="G57" t="n">
-        <v>251.5</v>
+        <v>251.4166666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>253</v>
       </c>
       <c r="F58" t="n">
-        <v>297.4911</v>
+        <v>40.0869</v>
       </c>
       <c r="G58" t="n">
-        <v>251.5833333333333</v>
+        <v>251.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>253</v>
       </c>
       <c r="F59" t="n">
-        <v>7292.8418</v>
+        <v>297.4911</v>
       </c>
       <c r="G59" t="n">
-        <v>251.6666666666667</v>
+        <v>251.5833333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>253</v>
       </c>
       <c r="F60" t="n">
-        <v>2130.5059</v>
+        <v>7292.8418</v>
       </c>
       <c r="G60" t="n">
-        <v>251.75</v>
+        <v>251.6666666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>253</v>
       </c>
       <c r="F61" t="n">
-        <v>1389.0609</v>
+        <v>2130.5059</v>
       </c>
       <c r="G61" t="n">
-        <v>251.8333333333333</v>
+        <v>251.75</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,19 +2545,23 @@
         <v>253</v>
       </c>
       <c r="F62" t="n">
-        <v>1351.4387</v>
+        <v>1389.0609</v>
       </c>
       <c r="G62" t="n">
-        <v>251.9166666666667</v>
+        <v>251.8333333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>253</v>
+      </c>
+      <c r="K62" t="n">
+        <v>253</v>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
@@ -2568,32 +2572,40 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C63" t="n">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D63" t="n">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E63" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F63" t="n">
-        <v>4658.8701</v>
+        <v>1351.4387</v>
       </c>
       <c r="G63" t="n">
-        <v>252.1</v>
+        <v>251.9166666666667</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>253</v>
+      </c>
+      <c r="K63" t="n">
+        <v>253</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2615,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C64" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D64" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E64" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F64" t="n">
-        <v>40.899</v>
+        <v>4658.8701</v>
       </c>
       <c r="G64" t="n">
-        <v>252.2</v>
+        <v>252.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2639,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>253</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2656,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C65" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D65" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E65" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>40.899</v>
       </c>
       <c r="G65" t="n">
-        <v>252.35</v>
+        <v>252.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2703,10 @@
         <v>257</v>
       </c>
       <c r="F66" t="n">
-        <v>229.5</v>
+        <v>5</v>
       </c>
       <c r="G66" t="n">
-        <v>252.5</v>
+        <v>252.35</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,19 +2729,19 @@
         <v>257</v>
       </c>
       <c r="C67" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D67" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E67" t="n">
         <v>257</v>
       </c>
       <c r="F67" t="n">
-        <v>3057.6137</v>
+        <v>229.5</v>
       </c>
       <c r="G67" t="n">
-        <v>252.6833333333333</v>
+        <v>252.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,7 +2761,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C68" t="n">
         <v>259</v>
@@ -2752,13 +2770,13 @@
         <v>259</v>
       </c>
       <c r="E68" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F68" t="n">
-        <v>6570.4591</v>
+        <v>3057.6137</v>
       </c>
       <c r="G68" t="n">
-        <v>252.8666666666667</v>
+        <v>252.6833333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2796,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C69" t="n">
         <v>259</v>
       </c>
       <c r="D69" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E69" t="n">
         <v>259</v>
       </c>
       <c r="F69" t="n">
-        <v>21476.6115</v>
+        <v>6570.4591</v>
       </c>
       <c r="G69" t="n">
-        <v>253.05</v>
+        <v>252.8666666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2831,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C70" t="n">
         <v>259</v>
       </c>
       <c r="D70" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E70" t="n">
         <v>259</v>
       </c>
       <c r="F70" t="n">
-        <v>3489.8942</v>
+        <v>21476.6115</v>
       </c>
       <c r="G70" t="n">
-        <v>253.2333333333333</v>
+        <v>253.05</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2851,19 +2869,19 @@
         <v>259</v>
       </c>
       <c r="C71" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D71" t="n">
         <v>259</v>
       </c>
       <c r="E71" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F71" t="n">
-        <v>11447.92</v>
+        <v>3489.8942</v>
       </c>
       <c r="G71" t="n">
-        <v>253.3333333333333</v>
+        <v>253.2333333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2901,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>259</v>
+      </c>
+      <c r="C72" t="n">
         <v>254</v>
       </c>
-      <c r="C72" t="n">
-        <v>251</v>
-      </c>
       <c r="D72" t="n">
+        <v>259</v>
+      </c>
+      <c r="E72" t="n">
         <v>254</v>
       </c>
-      <c r="E72" t="n">
-        <v>251</v>
-      </c>
       <c r="F72" t="n">
-        <v>5326.1194</v>
+        <v>11447.92</v>
       </c>
       <c r="G72" t="n">
-        <v>253.3833333333333</v>
+        <v>253.3333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2939,19 @@
         <v>254</v>
       </c>
       <c r="C73" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D73" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E73" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F73" t="n">
-        <v>1151.0412</v>
+        <v>5326.1194</v>
       </c>
       <c r="G73" t="n">
-        <v>253.5</v>
+        <v>253.3833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,7 +2971,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C74" t="n">
         <v>255</v>
@@ -2962,13 +2980,13 @@
         <v>255</v>
       </c>
       <c r="E74" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F74" t="n">
-        <v>1020.472</v>
+        <v>1151.0412</v>
       </c>
       <c r="G74" t="n">
-        <v>253.6166666666667</v>
+        <v>253.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3018,10 @@
         <v>255</v>
       </c>
       <c r="F75" t="n">
-        <v>503.815</v>
+        <v>1020.472</v>
       </c>
       <c r="G75" t="n">
-        <v>253.7333333333333</v>
+        <v>253.6166666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3053,10 @@
         <v>255</v>
       </c>
       <c r="F76" t="n">
-        <v>48.6054</v>
+        <v>503.815</v>
       </c>
       <c r="G76" t="n">
-        <v>253.85</v>
+        <v>253.7333333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3088,10 @@
         <v>255</v>
       </c>
       <c r="F77" t="n">
-        <v>3581.7222</v>
+        <v>48.6054</v>
       </c>
       <c r="G77" t="n">
-        <v>253.9666666666667</v>
+        <v>253.85</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,35 +3111,31 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C78" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D78" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E78" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>3581.7222</v>
       </c>
       <c r="G78" t="n">
-        <v>254.1333333333333</v>
+        <v>253.9666666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>255</v>
-      </c>
-      <c r="K78" t="n">
-        <v>255</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
@@ -3135,37 +3149,29 @@
         <v>258</v>
       </c>
       <c r="C79" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D79" t="n">
         <v>258</v>
       </c>
       <c r="E79" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F79" t="n">
-        <v>9402.861000000001</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>254.1666666666667</v>
+        <v>254.1333333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>258</v>
-      </c>
-      <c r="K79" t="n">
-        <v>255</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3175,22 +3181,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C80" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D80" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E80" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F80" t="n">
-        <v>1370.123</v>
+        <v>9402.861000000001</v>
       </c>
       <c r="G80" t="n">
-        <v>254.2666666666667</v>
+        <v>254.1666666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3199,14 +3205,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>255</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3216,22 +3216,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C81" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D81" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E81" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F81" t="n">
-        <v>3564.4094</v>
+        <v>1370.123</v>
       </c>
       <c r="G81" t="n">
-        <v>254.3833333333333</v>
+        <v>254.2666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3240,14 +3240,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>255</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3257,22 +3251,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C82" t="n">
         <v>255</v>
       </c>
       <c r="D82" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E82" t="n">
         <v>255</v>
       </c>
       <c r="F82" t="n">
-        <v>49.5478</v>
+        <v>3564.4094</v>
       </c>
       <c r="G82" t="n">
-        <v>254.4833333333333</v>
+        <v>254.3833333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3281,14 +3275,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>255</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3298,22 +3286,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C83" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D83" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E83" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F83" t="n">
-        <v>1179</v>
+        <v>49.5478</v>
       </c>
       <c r="G83" t="n">
-        <v>254.55</v>
+        <v>254.4833333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3322,14 +3310,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>255</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3339,22 +3321,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C84" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D84" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E84" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F84" t="n">
-        <v>135.7099</v>
+        <v>1179</v>
       </c>
       <c r="G84" t="n">
-        <v>254.6333333333333</v>
+        <v>254.55</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3363,14 +3345,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>255</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3392,28 +3368,20 @@
         <v>255</v>
       </c>
       <c r="F85" t="n">
-        <v>4401.9512</v>
+        <v>135.7099</v>
       </c>
       <c r="G85" t="n">
-        <v>254.7166666666667</v>
+        <v>254.6333333333333</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>255</v>
-      </c>
-      <c r="K85" t="n">
-        <v>255</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3423,40 +3391,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C86" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D86" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E86" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F86" t="n">
-        <v>2001.0102</v>
+        <v>4401.9512</v>
       </c>
       <c r="G86" t="n">
-        <v>254.8333333333333</v>
+        <v>254.7166666666667</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>255</v>
-      </c>
-      <c r="K86" t="n">
-        <v>255</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3466,7 +3426,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C87" t="n">
         <v>257</v>
@@ -3475,31 +3435,23 @@
         <v>257</v>
       </c>
       <c r="E87" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F87" t="n">
-        <v>3046.8054</v>
+        <v>2001.0102</v>
       </c>
       <c r="G87" t="n">
-        <v>254.95</v>
+        <v>254.8333333333333</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>257</v>
-      </c>
-      <c r="K87" t="n">
-        <v>255</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3521,10 +3473,10 @@
         <v>257</v>
       </c>
       <c r="F88" t="n">
-        <v>889.4</v>
+        <v>3046.8054</v>
       </c>
       <c r="G88" t="n">
-        <v>255.0666666666667</v>
+        <v>254.95</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3533,14 +3485,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>255</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3550,7 +3496,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C89" t="n">
         <v>257</v>
@@ -3559,13 +3505,13 @@
         <v>257</v>
       </c>
       <c r="E89" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F89" t="n">
-        <v>1050.6962</v>
+        <v>889.4</v>
       </c>
       <c r="G89" t="n">
-        <v>255.1833333333333</v>
+        <v>255.0666666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3574,14 +3520,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>255</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3591,22 +3531,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C90" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E90" t="n">
         <v>256</v>
       </c>
       <c r="F90" t="n">
-        <v>1240.619</v>
+        <v>1050.6962</v>
       </c>
       <c r="G90" t="n">
-        <v>255.2666666666667</v>
+        <v>255.1833333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3615,14 +3555,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>255</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3632,10 +3566,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>258</v>
+      </c>
+      <c r="C91" t="n">
         <v>256</v>
-      </c>
-      <c r="C91" t="n">
-        <v>258</v>
       </c>
       <c r="D91" t="n">
         <v>258</v>
@@ -3644,10 +3578,10 @@
         <v>256</v>
       </c>
       <c r="F91" t="n">
-        <v>1376.09</v>
+        <v>1240.619</v>
       </c>
       <c r="G91" t="n">
-        <v>255.3833333333333</v>
+        <v>255.2666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3656,14 +3590,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>255</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3673,10 +3601,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>256</v>
+      </c>
+      <c r="C92" t="n">
         <v>258</v>
-      </c>
-      <c r="C92" t="n">
-        <v>256</v>
       </c>
       <c r="D92" t="n">
         <v>258</v>
@@ -3685,10 +3613,10 @@
         <v>256</v>
       </c>
       <c r="F92" t="n">
-        <v>301.4138</v>
+        <v>1376.09</v>
       </c>
       <c r="G92" t="n">
-        <v>255.45</v>
+        <v>255.3833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3697,14 +3625,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>255</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3714,22 +3636,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>258</v>
+      </c>
+      <c r="C93" t="n">
         <v>256</v>
       </c>
-      <c r="C93" t="n">
-        <v>255</v>
-      </c>
       <c r="D93" t="n">
+        <v>258</v>
+      </c>
+      <c r="E93" t="n">
         <v>256</v>
       </c>
-      <c r="E93" t="n">
-        <v>255</v>
-      </c>
       <c r="F93" t="n">
-        <v>1945.6915</v>
+        <v>301.4138</v>
       </c>
       <c r="G93" t="n">
-        <v>255.4833333333333</v>
+        <v>255.45</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3738,14 +3660,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>255</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3755,19 +3671,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C94" t="n">
         <v>255</v>
       </c>
       <c r="D94" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E94" t="n">
         <v>255</v>
       </c>
       <c r="F94" t="n">
-        <v>160.649</v>
+        <v>1945.6915</v>
       </c>
       <c r="G94" t="n">
         <v>255.4833333333333</v>
@@ -3779,14 +3695,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>255</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3808,10 +3718,10 @@
         <v>255</v>
       </c>
       <c r="F95" t="n">
-        <v>1171.6507</v>
+        <v>160.649</v>
       </c>
       <c r="G95" t="n">
-        <v>255.45</v>
+        <v>255.4833333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3820,14 +3730,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>255</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3849,10 +3753,10 @@
         <v>255</v>
       </c>
       <c r="F96" t="n">
-        <v>978.5</v>
+        <v>1171.6507</v>
       </c>
       <c r="G96" t="n">
-        <v>255.4166666666667</v>
+        <v>255.45</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3861,14 +3765,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>255</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3878,40 +3776,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C97" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D97" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E97" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F97" t="n">
-        <v>1730.3581</v>
+        <v>978.5</v>
       </c>
       <c r="G97" t="n">
         <v>255.4166666666667</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>255</v>
-      </c>
-      <c r="K97" t="n">
-        <v>255</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3921,22 +3811,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C98" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D98" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E98" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F98" t="n">
-        <v>138</v>
+        <v>1730.3581</v>
       </c>
       <c r="G98" t="n">
-        <v>255.4333333333333</v>
+        <v>255.4166666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3945,14 +3835,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>255</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3962,19 +3846,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C99" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D99" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E99" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F99" t="n">
-        <v>417.9316</v>
+        <v>138</v>
       </c>
       <c r="G99" t="n">
         <v>255.4333333333333</v>
@@ -3986,14 +3870,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>255</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4015,10 +3893,10 @@
         <v>257</v>
       </c>
       <c r="F100" t="n">
-        <v>1200</v>
+        <v>417.9316</v>
       </c>
       <c r="G100" t="n">
-        <v>255.4833333333333</v>
+        <v>255.4333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4027,14 +3905,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>255</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4056,10 +3928,10 @@
         <v>257</v>
       </c>
       <c r="F101" t="n">
-        <v>412.5578</v>
+        <v>1200</v>
       </c>
       <c r="G101" t="n">
-        <v>255.45</v>
+        <v>255.4833333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4068,14 +3940,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>255</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4097,10 +3963,10 @@
         <v>257</v>
       </c>
       <c r="F102" t="n">
-        <v>565</v>
+        <v>412.5578</v>
       </c>
       <c r="G102" t="n">
-        <v>255.5</v>
+        <v>255.45</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4109,14 +3975,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>255</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4138,10 +3998,10 @@
         <v>257</v>
       </c>
       <c r="F103" t="n">
-        <v>1835.2328</v>
+        <v>565</v>
       </c>
       <c r="G103" t="n">
-        <v>255.55</v>
+        <v>255.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4150,14 +4010,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>255</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4179,10 +4033,10 @@
         <v>257</v>
       </c>
       <c r="F104" t="n">
-        <v>6473.8846</v>
+        <v>1835.2328</v>
       </c>
       <c r="G104" t="n">
-        <v>255.5833333333333</v>
+        <v>255.55</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4191,14 +4045,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>255</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4220,10 +4068,10 @@
         <v>257</v>
       </c>
       <c r="F105" t="n">
-        <v>1556.1</v>
+        <v>6473.8846</v>
       </c>
       <c r="G105" t="n">
-        <v>255.5666666666667</v>
+        <v>255.5833333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4232,14 +4080,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>255</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4261,10 +4103,10 @@
         <v>257</v>
       </c>
       <c r="F106" t="n">
-        <v>174.459</v>
+        <v>1556.1</v>
       </c>
       <c r="G106" t="n">
-        <v>255.5166666666667</v>
+        <v>255.5666666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4273,14 +4115,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>255</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4290,22 +4126,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C107" t="n">
         <v>257</v>
       </c>
       <c r="D107" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E107" t="n">
         <v>257</v>
       </c>
       <c r="F107" t="n">
-        <v>205.997</v>
+        <v>174.459</v>
       </c>
       <c r="G107" t="n">
-        <v>255.5333333333333</v>
+        <v>255.5166666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4314,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>255</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4331,22 +4161,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C108" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D108" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E108" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>205.997</v>
       </c>
       <c r="G108" t="n">
-        <v>255.5833333333333</v>
+        <v>255.5333333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4355,14 +4185,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>255</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4375,19 +4199,19 @@
         <v>259</v>
       </c>
       <c r="C109" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D109" t="n">
         <v>259</v>
       </c>
       <c r="E109" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F109" t="n">
-        <v>2263.1039</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>255.6166666666667</v>
+        <v>255.5833333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4396,14 +4220,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>255</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4413,22 +4231,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C110" t="n">
+        <v>258</v>
+      </c>
+      <c r="D110" t="n">
         <v>259</v>
       </c>
-      <c r="D110" t="n">
-        <v>261</v>
-      </c>
       <c r="E110" t="n">
         <v>257</v>
       </c>
       <c r="F110" t="n">
-        <v>4603.6912</v>
+        <v>2263.1039</v>
       </c>
       <c r="G110" t="n">
-        <v>255.6833333333333</v>
+        <v>255.6166666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4437,14 +4255,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>255</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4454,22 +4266,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C111" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D111" t="n">
         <v>261</v>
       </c>
       <c r="E111" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>4603.6912</v>
       </c>
       <c r="G111" t="n">
-        <v>255.7833333333333</v>
+        <v>255.6833333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4478,14 +4290,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>255</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4495,22 +4301,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C112" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D112" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E112" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F112" t="n">
-        <v>3240.9459</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>255.85</v>
+        <v>255.7833333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4519,14 +4325,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>255</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4536,22 +4336,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C113" t="n">
         <v>259</v>
       </c>
       <c r="D113" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E113" t="n">
         <v>255</v>
       </c>
       <c r="F113" t="n">
-        <v>2120.878</v>
+        <v>3240.9459</v>
       </c>
       <c r="G113" t="n">
-        <v>255.9166666666667</v>
+        <v>255.85</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4560,14 +4360,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>255</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4577,22 +4371,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>260</v>
+      </c>
+      <c r="C114" t="n">
         <v>259</v>
-      </c>
-      <c r="C114" t="n">
-        <v>260</v>
       </c>
       <c r="D114" t="n">
         <v>260</v>
       </c>
       <c r="E114" t="n">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F114" t="n">
-        <v>12</v>
+        <v>2120.878</v>
       </c>
       <c r="G114" t="n">
-        <v>256.0666666666667</v>
+        <v>255.9166666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4601,14 +4395,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>255</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4621,19 +4409,19 @@
         <v>259</v>
       </c>
       <c r="C115" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D115" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E115" t="n">
         <v>259</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G115" t="n">
-        <v>256.1833333333333</v>
+        <v>256.0666666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4642,14 +4430,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>255</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4659,22 +4441,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C116" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D116" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E116" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F116" t="n">
-        <v>1897.9152</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>256.2333333333333</v>
+        <v>256.1833333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4683,14 +4465,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>255</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4700,22 +4476,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C117" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D117" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E117" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>1897.9152</v>
       </c>
       <c r="G117" t="n">
-        <v>256.35</v>
+        <v>256.2333333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4724,14 +4500,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>255</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4753,10 +4523,10 @@
         <v>260</v>
       </c>
       <c r="F118" t="n">
-        <v>494.802</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>256.4666666666666</v>
+        <v>256.35</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4765,14 +4535,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>255</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4782,22 +4546,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C119" t="n">
         <v>260</v>
       </c>
       <c r="D119" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E119" t="n">
         <v>260</v>
       </c>
       <c r="F119" t="n">
-        <v>13</v>
+        <v>494.802</v>
       </c>
       <c r="G119" t="n">
-        <v>256.5833333333333</v>
+        <v>256.4666666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4806,14 +4570,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>255</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4826,19 +4584,19 @@
         <v>261</v>
       </c>
       <c r="C120" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D120" t="n">
         <v>261</v>
       </c>
       <c r="E120" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G120" t="n">
-        <v>256.7166666666666</v>
+        <v>256.5833333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4847,14 +4605,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>255</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4864,22 +4616,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C121" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D121" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E121" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F121" t="n">
-        <v>0.2826</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>256.8333333333333</v>
+        <v>256.7166666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4888,14 +4640,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>255</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4905,22 +4651,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C122" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D122" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E122" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F122" t="n">
-        <v>131.304</v>
+        <v>0.2826</v>
       </c>
       <c r="G122" t="n">
-        <v>256.9166666666667</v>
+        <v>256.8333333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4929,14 +4675,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>255</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4949,19 +4689,19 @@
         <v>258</v>
       </c>
       <c r="C123" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D123" t="n">
         <v>258</v>
       </c>
       <c r="E123" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F123" t="n">
-        <v>2446.0536</v>
+        <v>131.304</v>
       </c>
       <c r="G123" t="n">
-        <v>256.8666666666667</v>
+        <v>256.9166666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4970,14 +4710,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>255</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4987,22 +4721,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C124" t="n">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D124" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E124" t="n">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>2446.0536</v>
       </c>
       <c r="G124" t="n">
-        <v>256.9833333333333</v>
+        <v>256.8666666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5011,14 +4745,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>255</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5028,22 +4756,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C125" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D125" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E125" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>257.0333333333334</v>
+        <v>256.9833333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5052,14 +4780,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>255</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5081,10 +4803,10 @@
         <v>260</v>
       </c>
       <c r="F126" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G126" t="n">
-        <v>257.0833333333333</v>
+        <v>257.0333333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5093,14 +4815,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>255</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5122,10 +4838,10 @@
         <v>260</v>
       </c>
       <c r="F127" t="n">
-        <v>1120.5118</v>
+        <v>59</v>
       </c>
       <c r="G127" t="n">
-        <v>257.1</v>
+        <v>257.0833333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5134,14 +4850,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>255</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5163,10 +4873,10 @@
         <v>260</v>
       </c>
       <c r="F128" t="n">
-        <v>417.896</v>
+        <v>1120.5118</v>
       </c>
       <c r="G128" t="n">
-        <v>257.1166666666667</v>
+        <v>257.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5175,14 +4885,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>255</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5204,10 +4908,10 @@
         <v>260</v>
       </c>
       <c r="F129" t="n">
-        <v>370</v>
+        <v>417.896</v>
       </c>
       <c r="G129" t="n">
-        <v>257.1333333333333</v>
+        <v>257.1166666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5216,14 +4920,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>255</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5245,10 +4943,10 @@
         <v>260</v>
       </c>
       <c r="F130" t="n">
-        <v>12833.7998</v>
+        <v>370</v>
       </c>
       <c r="G130" t="n">
-        <v>257.15</v>
+        <v>257.1333333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5257,14 +4955,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>255</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5274,22 +4966,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C131" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D131" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E131" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>12833.7998</v>
       </c>
       <c r="G131" t="n">
-        <v>257.2666666666667</v>
+        <v>257.15</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5298,14 +4990,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>255</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5327,10 +5013,10 @@
         <v>261</v>
       </c>
       <c r="F132" t="n">
-        <v>17.9175</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>257.4333333333333</v>
+        <v>257.2666666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5339,14 +5025,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>255</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5368,10 +5048,10 @@
         <v>261</v>
       </c>
       <c r="F133" t="n">
-        <v>51.6071</v>
+        <v>17.9175</v>
       </c>
       <c r="G133" t="n">
-        <v>257.5333333333334</v>
+        <v>257.4333333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5380,14 +5060,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>255</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5400,36 +5074,65 @@
         <v>261</v>
       </c>
       <c r="C134" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D134" t="n">
         <v>261</v>
       </c>
       <c r="E134" t="n">
+        <v>261</v>
+      </c>
+      <c r="F134" t="n">
+        <v>51.6071</v>
+      </c>
+      <c r="G134" t="n">
+        <v>257.5333333333334</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>261</v>
+      </c>
+      <c r="C135" t="n">
         <v>258</v>
       </c>
-      <c r="F134" t="n">
+      <c r="D135" t="n">
+        <v>261</v>
+      </c>
+      <c r="E135" t="n">
+        <v>258</v>
+      </c>
+      <c r="F135" t="n">
         <v>220.7885</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G135" t="n">
         <v>257.5833333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>255</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-15 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-15 BackTest TRUE.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>2012800</v>
       </c>
       <c r="G2" t="n">
+        <v>248</v>
+      </c>
+      <c r="H2" t="n">
         <v>248.7166666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>2012800</v>
       </c>
       <c r="G3" t="n">
+        <v>248</v>
+      </c>
+      <c r="H3" t="n">
         <v>248.6666666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>2034999</v>
       </c>
       <c r="G4" t="n">
+        <v>248</v>
+      </c>
+      <c r="H4" t="n">
         <v>248.6166666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1990601</v>
       </c>
       <c r="G5" t="n">
+        <v>248</v>
+      </c>
+      <c r="H5" t="n">
         <v>248.5666666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>2027600</v>
       </c>
       <c r="G6" t="n">
+        <v>248</v>
+      </c>
+      <c r="H6" t="n">
         <v>248.5166666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>2012800</v>
       </c>
       <c r="G7" t="n">
+        <v>248</v>
+      </c>
+      <c r="H7" t="n">
         <v>248.4666666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>554999</v>
       </c>
       <c r="G8" t="n">
+        <v>248</v>
+      </c>
+      <c r="H8" t="n">
         <v>248.4166666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
+        <v>248</v>
+      </c>
+      <c r="H9" t="n">
         <v>248.3666666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>24818.439</v>
       </c>
       <c r="G10" t="n">
+        <v>248</v>
+      </c>
+      <c r="H10" t="n">
         <v>248.3333333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1749830</v>
       </c>
       <c r="G11" t="n">
+        <v>248</v>
+      </c>
+      <c r="H11" t="n">
         <v>248.3</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>2046724</v>
       </c>
       <c r="G12" t="n">
+        <v>248</v>
+      </c>
+      <c r="H12" t="n">
         <v>248.2666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>2042720</v>
       </c>
       <c r="G13" t="n">
+        <v>248</v>
+      </c>
+      <c r="H13" t="n">
         <v>248.2333333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>2042720</v>
       </c>
       <c r="G14" t="n">
+        <v>248</v>
+      </c>
+      <c r="H14" t="n">
         <v>248.2</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>2035210</v>
       </c>
       <c r="G15" t="n">
+        <v>248</v>
+      </c>
+      <c r="H15" t="n">
         <v>248.1666666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>2029163.724</v>
       </c>
       <c r="G16" t="n">
+        <v>248</v>
+      </c>
+      <c r="H16" t="n">
         <v>248.1333333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>2048543.717</v>
       </c>
       <c r="G17" t="n">
+        <v>248</v>
+      </c>
+      <c r="H17" t="n">
         <v>248.1166666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>2050230</v>
       </c>
       <c r="G18" t="n">
+        <v>248</v>
+      </c>
+      <c r="H18" t="n">
         <v>248.1</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>2035210</v>
       </c>
       <c r="G19" t="n">
+        <v>248</v>
+      </c>
+      <c r="H19" t="n">
         <v>248.0833333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>2050230</v>
       </c>
       <c r="G20" t="n">
+        <v>248</v>
+      </c>
+      <c r="H20" t="n">
         <v>248.0666666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>2065250</v>
       </c>
       <c r="G21" t="n">
+        <v>248</v>
+      </c>
+      <c r="H21" t="n">
         <v>248.05</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>1659710</v>
       </c>
       <c r="G22" t="n">
+        <v>248</v>
+      </c>
+      <c r="H22" t="n">
         <v>248.0333333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>2288.439</v>
       </c>
       <c r="G23" t="n">
+        <v>248.0666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>248.0333333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>21.5496</v>
       </c>
       <c r="G24" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="H24" t="n">
         <v>248.05</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>10.9856</v>
       </c>
       <c r="G25" t="n">
+        <v>248.3333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>248.0833333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>9.8872</v>
       </c>
       <c r="G26" t="n">
+        <v>248.4666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>248.1166666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>4.0543</v>
       </c>
       <c r="G27" t="n">
+        <v>248.6</v>
+      </c>
+      <c r="H27" t="n">
         <v>248.15</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>219.543</v>
       </c>
       <c r="G28" t="n">
+        <v>248.7333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>248.1833333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>0.0002</v>
       </c>
       <c r="G29" t="n">
+        <v>248.8666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>248.2166666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>56.1435</v>
       </c>
       <c r="G30" t="n">
+        <v>249</v>
+      </c>
+      <c r="H30" t="n">
         <v>248.25</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>4000</v>
       </c>
       <c r="G31" t="n">
+        <v>249.2</v>
+      </c>
+      <c r="H31" t="n">
         <v>248.3</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>3940.0213</v>
       </c>
       <c r="G32" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="H32" t="n">
         <v>248.35</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>656.774</v>
       </c>
       <c r="G33" t="n">
+        <v>249.6666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>248.4166666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>18740.3917</v>
       </c>
       <c r="G34" t="n">
+        <v>250</v>
+      </c>
+      <c r="H34" t="n">
         <v>248.5</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>2</v>
       </c>
       <c r="G35" t="n">
+        <v>250.4666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>248.6166666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>1.9766</v>
       </c>
       <c r="G36" t="n">
+        <v>251.0666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>248.7666666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>1374.8132</v>
       </c>
       <c r="G37" t="n">
+        <v>251.6666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>248.9166666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>325.2607</v>
       </c>
       <c r="G38" t="n">
+        <v>252.2</v>
+      </c>
+      <c r="H38" t="n">
         <v>249.0666666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>575.8647</v>
       </c>
       <c r="G39" t="n">
+        <v>252.6666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>249.2166666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>7945.7548</v>
       </c>
       <c r="G40" t="n">
+        <v>253.1333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>249.3666666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>3956.4586</v>
       </c>
       <c r="G41" t="n">
+        <v>253.4</v>
+      </c>
+      <c r="H41" t="n">
         <v>249.4666666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>3833.108393436293</v>
       </c>
       <c r="G42" t="n">
+        <v>254</v>
+      </c>
+      <c r="H42" t="n">
         <v>249.65</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>565.066</v>
       </c>
       <c r="G43" t="n">
+        <v>254.2666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>249.75</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>324.4475</v>
       </c>
       <c r="G44" t="n">
+        <v>254.5333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>249.85</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>131.0635</v>
       </c>
       <c r="G45" t="n">
+        <v>254.8666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>249.9666666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>259.6286</v>
       </c>
       <c r="G46" t="n">
+        <v>255.3333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>250.1333333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>698</v>
       </c>
       <c r="G47" t="n">
+        <v>255.9333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>250.3333333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>1148.1739</v>
       </c>
       <c r="G48" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="H48" t="n">
         <v>250.4666666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>194</v>
       </c>
       <c r="G49" t="n">
+        <v>256.4</v>
+      </c>
+      <c r="H49" t="n">
         <v>250.6</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>57</v>
       </c>
       <c r="G50" t="n">
+        <v>256.4666666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>250.7333333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>163.237</v>
       </c>
       <c r="G51" t="n">
+        <v>256.3333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>250.85</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>269.325</v>
       </c>
       <c r="G52" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="H52" t="n">
         <v>250.9666666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>25</v>
       </c>
       <c r="G53" t="n">
+        <v>256.0666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>251.0833333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>145.706</v>
       </c>
       <c r="G54" t="n">
+        <v>255.9333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>251.2</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>11160.7344</v>
       </c>
       <c r="G55" t="n">
+        <v>255.5333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>251.25</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>1058.823</v>
       </c>
       <c r="G56" t="n">
+        <v>255.4</v>
+      </c>
+      <c r="H56" t="n">
         <v>251.3166666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>9777.8734</v>
       </c>
       <c r="G57" t="n">
+        <v>255.0666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>251.4166666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>40.0869</v>
       </c>
       <c r="G58" t="n">
+        <v>255</v>
+      </c>
+      <c r="H58" t="n">
         <v>251.5</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>297.4911</v>
       </c>
       <c r="G59" t="n">
+        <v>254.9333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>251.5833333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,25 @@
         <v>7292.8418</v>
       </c>
       <c r="G60" t="n">
+        <v>254.8</v>
+      </c>
+      <c r="H60" t="n">
         <v>251.6666666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>253</v>
+      </c>
+      <c r="L60" t="n">
+        <v>253</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2699,27 @@
         <v>2130.5059</v>
       </c>
       <c r="G61" t="n">
+        <v>254.4666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>251.75</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>253</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,22 +2743,27 @@
         <v>1389.0609</v>
       </c>
       <c r="G62" t="n">
+        <v>254</v>
+      </c>
+      <c r="H62" t="n">
         <v>251.8333333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
         <v>253</v>
       </c>
-      <c r="K62" t="n">
-        <v>253</v>
-      </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2587,872 +2787,953 @@
         <v>1351.4387</v>
       </c>
       <c r="G63" t="n">
+        <v>253.8</v>
+      </c>
+      <c r="H63" t="n">
         <v>251.9166666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>253</v>
-      </c>
-      <c r="K63" t="n">
-        <v>253</v>
-      </c>
-      <c r="L63" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>255</v>
+      </c>
+      <c r="C64" t="n">
+        <v>259</v>
+      </c>
+      <c r="D64" t="n">
+        <v>259</v>
+      </c>
+      <c r="E64" t="n">
+        <v>255</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4658.8701</v>
+      </c>
+      <c r="G64" t="n">
+        <v>254</v>
+      </c>
+      <c r="H64" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>254</v>
+      </c>
+      <c r="C65" t="n">
+        <v>254</v>
+      </c>
+      <c r="D65" t="n">
+        <v>254</v>
+      </c>
+      <c r="E65" t="n">
+        <v>254</v>
+      </c>
+      <c r="F65" t="n">
+        <v>40.899</v>
+      </c>
+      <c r="G65" t="n">
+        <v>253.8666666666667</v>
+      </c>
+      <c r="H65" t="n">
+        <v>252.2</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>257</v>
+      </c>
+      <c r="C66" t="n">
+        <v>257</v>
+      </c>
+      <c r="D66" t="n">
+        <v>257</v>
+      </c>
+      <c r="E66" t="n">
+        <v>257</v>
+      </c>
+      <c r="F66" t="n">
+        <v>5</v>
+      </c>
+      <c r="G66" t="n">
+        <v>254</v>
+      </c>
+      <c r="H66" t="n">
+        <v>252.35</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>257</v>
+      </c>
+      <c r="C67" t="n">
+        <v>257</v>
+      </c>
+      <c r="D67" t="n">
+        <v>257</v>
+      </c>
+      <c r="E67" t="n">
+        <v>257</v>
+      </c>
+      <c r="F67" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="G67" t="n">
+        <v>254.1333333333333</v>
+      </c>
+      <c r="H67" t="n">
+        <v>252.5</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>257</v>
+      </c>
+      <c r="C68" t="n">
+        <v>259</v>
+      </c>
+      <c r="D68" t="n">
+        <v>259</v>
+      </c>
+      <c r="E68" t="n">
+        <v>257</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3057.6137</v>
+      </c>
+      <c r="G68" t="n">
+        <v>254.4</v>
+      </c>
+      <c r="H68" t="n">
+        <v>252.6833333333333</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>259</v>
+      </c>
+      <c r="C69" t="n">
+        <v>259</v>
+      </c>
+      <c r="D69" t="n">
+        <v>259</v>
+      </c>
+      <c r="E69" t="n">
+        <v>259</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6570.4591</v>
+      </c>
+      <c r="G69" t="n">
+        <v>254.6666666666667</v>
+      </c>
+      <c r="H69" t="n">
+        <v>252.8666666666667</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>260</v>
+      </c>
+      <c r="C70" t="n">
+        <v>259</v>
+      </c>
+      <c r="D70" t="n">
+        <v>260</v>
+      </c>
+      <c r="E70" t="n">
+        <v>259</v>
+      </c>
+      <c r="F70" t="n">
+        <v>21476.6115</v>
+      </c>
+      <c r="G70" t="n">
+        <v>255.2</v>
+      </c>
+      <c r="H70" t="n">
+        <v>253.05</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>259</v>
+      </c>
+      <c r="C71" t="n">
+        <v>259</v>
+      </c>
+      <c r="D71" t="n">
+        <v>259</v>
+      </c>
+      <c r="E71" t="n">
+        <v>259</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3489.8942</v>
+      </c>
+      <c r="G71" t="n">
+        <v>255.6666666666667</v>
+      </c>
+      <c r="H71" t="n">
+        <v>253.2333333333333</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>259</v>
+      </c>
+      <c r="C72" t="n">
+        <v>254</v>
+      </c>
+      <c r="D72" t="n">
+        <v>259</v>
+      </c>
+      <c r="E72" t="n">
+        <v>254</v>
+      </c>
+      <c r="F72" t="n">
+        <v>11447.92</v>
+      </c>
+      <c r="G72" t="n">
+        <v>255.6666666666667</v>
+      </c>
+      <c r="H72" t="n">
+        <v>253.3333333333333</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>254</v>
+      </c>
+      <c r="C73" t="n">
+        <v>251</v>
+      </c>
+      <c r="D73" t="n">
+        <v>254</v>
+      </c>
+      <c r="E73" t="n">
+        <v>251</v>
+      </c>
+      <c r="F73" t="n">
+        <v>5326.1194</v>
+      </c>
+      <c r="G73" t="n">
+        <v>255.5333333333333</v>
+      </c>
+      <c r="H73" t="n">
+        <v>253.3833333333333</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>254</v>
+      </c>
+      <c r="C74" t="n">
+        <v>255</v>
+      </c>
+      <c r="D74" t="n">
+        <v>255</v>
+      </c>
+      <c r="E74" t="n">
+        <v>254</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1151.0412</v>
+      </c>
+      <c r="G74" t="n">
+        <v>255.6666666666667</v>
+      </c>
+      <c r="H74" t="n">
+        <v>253.5</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>255</v>
+      </c>
+      <c r="C75" t="n">
+        <v>255</v>
+      </c>
+      <c r="D75" t="n">
+        <v>255</v>
+      </c>
+      <c r="E75" t="n">
+        <v>255</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1020.472</v>
+      </c>
+      <c r="G75" t="n">
+        <v>255.8</v>
+      </c>
+      <c r="H75" t="n">
+        <v>253.6166666666667</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>255</v>
+      </c>
+      <c r="C76" t="n">
+        <v>255</v>
+      </c>
+      <c r="D76" t="n">
+        <v>255</v>
+      </c>
+      <c r="E76" t="n">
+        <v>255</v>
+      </c>
+      <c r="F76" t="n">
+        <v>503.815</v>
+      </c>
+      <c r="G76" t="n">
+        <v>255.9333333333333</v>
+      </c>
+      <c r="H76" t="n">
+        <v>253.7333333333333</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>255</v>
+      </c>
+      <c r="C77" t="n">
+        <v>255</v>
+      </c>
+      <c r="D77" t="n">
+        <v>255</v>
+      </c>
+      <c r="E77" t="n">
+        <v>255</v>
+      </c>
+      <c r="F77" t="n">
+        <v>48.6054</v>
+      </c>
+      <c r="G77" t="n">
+        <v>256.0666666666667</v>
+      </c>
+      <c r="H77" t="n">
+        <v>253.85</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>255</v>
+      </c>
+      <c r="C78" t="n">
+        <v>255</v>
+      </c>
+      <c r="D78" t="n">
+        <v>255</v>
+      </c>
+      <c r="E78" t="n">
+        <v>255</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3581.7222</v>
+      </c>
+      <c r="G78" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="H78" t="n">
+        <v>253.9666666666667</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>258</v>
+      </c>
+      <c r="C79" t="n">
+        <v>258</v>
+      </c>
+      <c r="D79" t="n">
+        <v>258</v>
+      </c>
+      <c r="E79" t="n">
+        <v>258</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>256.1333333333333</v>
+      </c>
+      <c r="H79" t="n">
+        <v>254.1333333333333</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>258</v>
+      </c>
+      <c r="C80" t="n">
+        <v>250</v>
+      </c>
+      <c r="D80" t="n">
+        <v>258</v>
+      </c>
+      <c r="E80" t="n">
+        <v>250</v>
+      </c>
+      <c r="F80" t="n">
+        <v>9402.861000000001</v>
+      </c>
+      <c r="G80" t="n">
+        <v>255.8666666666667</v>
+      </c>
+      <c r="H80" t="n">
+        <v>254.1666666666667</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>254</v>
+      </c>
+      <c r="C81" t="n">
+        <v>254</v>
+      </c>
+      <c r="D81" t="n">
+        <v>254</v>
+      </c>
+      <c r="E81" t="n">
+        <v>254</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1370.123</v>
+      </c>
+      <c r="G81" t="n">
+        <v>255.6666666666667</v>
+      </c>
+      <c r="H81" t="n">
+        <v>254.2666666666667</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>256</v>
+      </c>
+      <c r="C82" t="n">
+        <v>255</v>
+      </c>
+      <c r="D82" t="n">
+        <v>256</v>
+      </c>
+      <c r="E82" t="n">
+        <v>255</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3564.4094</v>
+      </c>
+      <c r="G82" t="n">
+        <v>255.5333333333333</v>
+      </c>
+      <c r="H82" t="n">
+        <v>254.3833333333333</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>255</v>
+      </c>
+      <c r="C83" t="n">
+        <v>255</v>
+      </c>
+      <c r="D83" t="n">
+        <v>255</v>
+      </c>
+      <c r="E83" t="n">
+        <v>255</v>
+      </c>
+      <c r="F83" t="n">
+        <v>49.5478</v>
+      </c>
+      <c r="G83" t="n">
+        <v>255.2666666666667</v>
+      </c>
+      <c r="H83" t="n">
+        <v>254.4833333333333</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>254</v>
+      </c>
+      <c r="C84" t="n">
+        <v>254</v>
+      </c>
+      <c r="D84" t="n">
+        <v>254</v>
+      </c>
+      <c r="E84" t="n">
+        <v>254</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1179</v>
+      </c>
+      <c r="G84" t="n">
+        <v>254.9333333333333</v>
+      </c>
+      <c r="H84" t="n">
+        <v>254.55</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>255</v>
+      </c>
+      <c r="C85" t="n">
+        <v>255</v>
+      </c>
+      <c r="D85" t="n">
+        <v>255</v>
+      </c>
+      <c r="E85" t="n">
+        <v>255</v>
+      </c>
+      <c r="F85" t="n">
+        <v>135.7099</v>
+      </c>
+      <c r="G85" t="n">
+        <v>254.6666666666667</v>
+      </c>
+      <c r="H85" t="n">
+        <v>254.6333333333333</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>254</v>
+      </c>
+      <c r="L85" t="n">
+        <v>254</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>255</v>
+      </c>
+      <c r="C86" t="n">
+        <v>255</v>
+      </c>
+      <c r="D86" t="n">
+        <v>255</v>
+      </c>
+      <c r="E86" t="n">
+        <v>255</v>
+      </c>
+      <c r="F86" t="n">
+        <v>4401.9512</v>
+      </c>
+      <c r="G86" t="n">
+        <v>254.4</v>
+      </c>
+      <c r="H86" t="n">
+        <v>254.7166666666667</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>255</v>
+      </c>
+      <c r="L86" t="n">
+        <v>254</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>255</v>
-      </c>
-      <c r="C64" t="n">
-        <v>259</v>
-      </c>
-      <c r="D64" t="n">
-        <v>259</v>
-      </c>
-      <c r="E64" t="n">
-        <v>255</v>
-      </c>
-      <c r="F64" t="n">
-        <v>4658.8701</v>
-      </c>
-      <c r="G64" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>253</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>256</v>
+      </c>
+      <c r="C87" t="n">
+        <v>257</v>
+      </c>
+      <c r="D87" t="n">
+        <v>257</v>
+      </c>
+      <c r="E87" t="n">
+        <v>256</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2001.0102</v>
+      </c>
+      <c r="G87" t="n">
+        <v>254.6</v>
+      </c>
+      <c r="H87" t="n">
+        <v>254.8333333333333</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>255</v>
+      </c>
+      <c r="L87" t="n">
+        <v>254</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>254</v>
-      </c>
-      <c r="C65" t="n">
-        <v>254</v>
-      </c>
-      <c r="D65" t="n">
-        <v>254</v>
-      </c>
-      <c r="E65" t="n">
-        <v>254</v>
-      </c>
-      <c r="F65" t="n">
-        <v>40.899</v>
-      </c>
-      <c r="G65" t="n">
-        <v>252.2</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>257</v>
-      </c>
-      <c r="C66" t="n">
-        <v>257</v>
-      </c>
-      <c r="D66" t="n">
-        <v>257</v>
-      </c>
-      <c r="E66" t="n">
-        <v>257</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5</v>
-      </c>
-      <c r="G66" t="n">
-        <v>252.35</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>257</v>
-      </c>
-      <c r="C67" t="n">
-        <v>257</v>
-      </c>
-      <c r="D67" t="n">
-        <v>257</v>
-      </c>
-      <c r="E67" t="n">
-        <v>257</v>
-      </c>
-      <c r="F67" t="n">
-        <v>229.5</v>
-      </c>
-      <c r="G67" t="n">
-        <v>252.5</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>257</v>
-      </c>
-      <c r="C68" t="n">
-        <v>259</v>
-      </c>
-      <c r="D68" t="n">
-        <v>259</v>
-      </c>
-      <c r="E68" t="n">
-        <v>257</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3057.6137</v>
-      </c>
-      <c r="G68" t="n">
-        <v>252.6833333333333</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>259</v>
-      </c>
-      <c r="C69" t="n">
-        <v>259</v>
-      </c>
-      <c r="D69" t="n">
-        <v>259</v>
-      </c>
-      <c r="E69" t="n">
-        <v>259</v>
-      </c>
-      <c r="F69" t="n">
-        <v>6570.4591</v>
-      </c>
-      <c r="G69" t="n">
-        <v>252.8666666666667</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>260</v>
-      </c>
-      <c r="C70" t="n">
-        <v>259</v>
-      </c>
-      <c r="D70" t="n">
-        <v>260</v>
-      </c>
-      <c r="E70" t="n">
-        <v>259</v>
-      </c>
-      <c r="F70" t="n">
-        <v>21476.6115</v>
-      </c>
-      <c r="G70" t="n">
-        <v>253.05</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>259</v>
-      </c>
-      <c r="C71" t="n">
-        <v>259</v>
-      </c>
-      <c r="D71" t="n">
-        <v>259</v>
-      </c>
-      <c r="E71" t="n">
-        <v>259</v>
-      </c>
-      <c r="F71" t="n">
-        <v>3489.8942</v>
-      </c>
-      <c r="G71" t="n">
-        <v>253.2333333333333</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>259</v>
-      </c>
-      <c r="C72" t="n">
-        <v>254</v>
-      </c>
-      <c r="D72" t="n">
-        <v>259</v>
-      </c>
-      <c r="E72" t="n">
-        <v>254</v>
-      </c>
-      <c r="F72" t="n">
-        <v>11447.92</v>
-      </c>
-      <c r="G72" t="n">
-        <v>253.3333333333333</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>254</v>
-      </c>
-      <c r="C73" t="n">
-        <v>251</v>
-      </c>
-      <c r="D73" t="n">
-        <v>254</v>
-      </c>
-      <c r="E73" t="n">
-        <v>251</v>
-      </c>
-      <c r="F73" t="n">
-        <v>5326.1194</v>
-      </c>
-      <c r="G73" t="n">
-        <v>253.3833333333333</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>254</v>
-      </c>
-      <c r="C74" t="n">
-        <v>255</v>
-      </c>
-      <c r="D74" t="n">
-        <v>255</v>
-      </c>
-      <c r="E74" t="n">
-        <v>254</v>
-      </c>
-      <c r="F74" t="n">
-        <v>1151.0412</v>
-      </c>
-      <c r="G74" t="n">
-        <v>253.5</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>255</v>
-      </c>
-      <c r="C75" t="n">
-        <v>255</v>
-      </c>
-      <c r="D75" t="n">
-        <v>255</v>
-      </c>
-      <c r="E75" t="n">
-        <v>255</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1020.472</v>
-      </c>
-      <c r="G75" t="n">
-        <v>253.6166666666667</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>255</v>
-      </c>
-      <c r="C76" t="n">
-        <v>255</v>
-      </c>
-      <c r="D76" t="n">
-        <v>255</v>
-      </c>
-      <c r="E76" t="n">
-        <v>255</v>
-      </c>
-      <c r="F76" t="n">
-        <v>503.815</v>
-      </c>
-      <c r="G76" t="n">
-        <v>253.7333333333333</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>255</v>
-      </c>
-      <c r="C77" t="n">
-        <v>255</v>
-      </c>
-      <c r="D77" t="n">
-        <v>255</v>
-      </c>
-      <c r="E77" t="n">
-        <v>255</v>
-      </c>
-      <c r="F77" t="n">
-        <v>48.6054</v>
-      </c>
-      <c r="G77" t="n">
-        <v>253.85</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>255</v>
-      </c>
-      <c r="C78" t="n">
-        <v>255</v>
-      </c>
-      <c r="D78" t="n">
-        <v>255</v>
-      </c>
-      <c r="E78" t="n">
-        <v>255</v>
-      </c>
-      <c r="F78" t="n">
-        <v>3581.7222</v>
-      </c>
-      <c r="G78" t="n">
-        <v>253.9666666666667</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>258</v>
-      </c>
-      <c r="C79" t="n">
-        <v>258</v>
-      </c>
-      <c r="D79" t="n">
-        <v>258</v>
-      </c>
-      <c r="E79" t="n">
-        <v>258</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" t="n">
-        <v>254.1333333333333</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>258</v>
-      </c>
-      <c r="C80" t="n">
-        <v>250</v>
-      </c>
-      <c r="D80" t="n">
-        <v>258</v>
-      </c>
-      <c r="E80" t="n">
-        <v>250</v>
-      </c>
-      <c r="F80" t="n">
-        <v>9402.861000000001</v>
-      </c>
-      <c r="G80" t="n">
-        <v>254.1666666666667</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>254</v>
-      </c>
-      <c r="C81" t="n">
-        <v>254</v>
-      </c>
-      <c r="D81" t="n">
-        <v>254</v>
-      </c>
-      <c r="E81" t="n">
-        <v>254</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1370.123</v>
-      </c>
-      <c r="G81" t="n">
-        <v>254.2666666666667</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>256</v>
-      </c>
-      <c r="C82" t="n">
-        <v>255</v>
-      </c>
-      <c r="D82" t="n">
-        <v>256</v>
-      </c>
-      <c r="E82" t="n">
-        <v>255</v>
-      </c>
-      <c r="F82" t="n">
-        <v>3564.4094</v>
-      </c>
-      <c r="G82" t="n">
-        <v>254.3833333333333</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>255</v>
-      </c>
-      <c r="C83" t="n">
-        <v>255</v>
-      </c>
-      <c r="D83" t="n">
-        <v>255</v>
-      </c>
-      <c r="E83" t="n">
-        <v>255</v>
-      </c>
-      <c r="F83" t="n">
-        <v>49.5478</v>
-      </c>
-      <c r="G83" t="n">
-        <v>254.4833333333333</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>254</v>
-      </c>
-      <c r="C84" t="n">
-        <v>254</v>
-      </c>
-      <c r="D84" t="n">
-        <v>254</v>
-      </c>
-      <c r="E84" t="n">
-        <v>254</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1179</v>
-      </c>
-      <c r="G84" t="n">
-        <v>254.55</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>255</v>
-      </c>
-      <c r="C85" t="n">
-        <v>255</v>
-      </c>
-      <c r="D85" t="n">
-        <v>255</v>
-      </c>
-      <c r="E85" t="n">
-        <v>255</v>
-      </c>
-      <c r="F85" t="n">
-        <v>135.7099</v>
-      </c>
-      <c r="G85" t="n">
-        <v>254.6333333333333</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>255</v>
-      </c>
-      <c r="C86" t="n">
-        <v>255</v>
-      </c>
-      <c r="D86" t="n">
-        <v>255</v>
-      </c>
-      <c r="E86" t="n">
-        <v>255</v>
-      </c>
-      <c r="F86" t="n">
-        <v>4401.9512</v>
-      </c>
-      <c r="G86" t="n">
-        <v>254.7166666666667</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>256</v>
-      </c>
-      <c r="C87" t="n">
-        <v>257</v>
-      </c>
-      <c r="D87" t="n">
-        <v>257</v>
-      </c>
-      <c r="E87" t="n">
-        <v>256</v>
-      </c>
-      <c r="F87" t="n">
-        <v>2001.0102</v>
-      </c>
-      <c r="G87" t="n">
-        <v>254.8333333333333</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,18 +3757,25 @@
         <v>3046.8054</v>
       </c>
       <c r="G88" t="n">
+        <v>255</v>
+      </c>
+      <c r="H88" t="n">
         <v>254.95</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>257</v>
+      </c>
+      <c r="L88" t="n">
+        <v>257</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3511,18 +3799,27 @@
         <v>889.4</v>
       </c>
       <c r="G89" t="n">
+        <v>255.1333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>255.0666666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>257</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3546,18 +3843,27 @@
         <v>1050.6962</v>
       </c>
       <c r="G90" t="n">
+        <v>255.2666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>255.1833333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>257</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3581,18 +3887,27 @@
         <v>1240.619</v>
       </c>
       <c r="G91" t="n">
+        <v>255.3333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>255.2666666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>257</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3616,18 +3931,27 @@
         <v>1376.09</v>
       </c>
       <c r="G92" t="n">
+        <v>255.5333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>255.3833333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>257</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3651,18 +3975,27 @@
         <v>301.4138</v>
       </c>
       <c r="G93" t="n">
+        <v>255.6</v>
+      </c>
+      <c r="H93" t="n">
         <v>255.45</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>257</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,18 +4019,27 @@
         <v>1945.6915</v>
       </c>
       <c r="G94" t="n">
+        <v>255.4</v>
+      </c>
+      <c r="H94" t="n">
         <v>255.4833333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>257</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3721,18 +4063,27 @@
         <v>160.649</v>
       </c>
       <c r="G95" t="n">
+        <v>255.7333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>255.4833333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>257</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3756,18 +4107,27 @@
         <v>1171.6507</v>
       </c>
       <c r="G96" t="n">
+        <v>255.8</v>
+      </c>
+      <c r="H96" t="n">
         <v>255.45</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>257</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3791,18 +4151,27 @@
         <v>978.5</v>
       </c>
       <c r="G97" t="n">
+        <v>255.8</v>
+      </c>
+      <c r="H97" t="n">
         <v>255.4166666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>257</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3826,18 +4195,29 @@
         <v>1730.3581</v>
       </c>
       <c r="G98" t="n">
+        <v>255.9333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>255.4166666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>255</v>
+      </c>
+      <c r="L98" t="n">
+        <v>257</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,18 +4241,27 @@
         <v>138</v>
       </c>
       <c r="G99" t="n">
+        <v>256.2</v>
+      </c>
+      <c r="H99" t="n">
         <v>255.4333333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>257</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,18 +4285,27 @@
         <v>417.9316</v>
       </c>
       <c r="G100" t="n">
+        <v>256.3333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>255.4333333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>257</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,18 +4329,27 @@
         <v>1200</v>
       </c>
       <c r="G101" t="n">
+        <v>256.4666666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>255.4833333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>257</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,18 +4373,27 @@
         <v>412.5578</v>
       </c>
       <c r="G102" t="n">
+        <v>256.4666666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>255.45</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>257</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4001,18 +4417,27 @@
         <v>565</v>
       </c>
       <c r="G103" t="n">
+        <v>256.4666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>255.5</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>257</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,18 +4461,27 @@
         <v>1835.2328</v>
       </c>
       <c r="G104" t="n">
+        <v>256.4666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>255.55</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>257</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4071,18 +4505,27 @@
         <v>6473.8846</v>
       </c>
       <c r="G105" t="n">
+        <v>256.4666666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>255.5833333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>257</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,18 +4549,27 @@
         <v>1556.1</v>
       </c>
       <c r="G106" t="n">
+        <v>256.5333333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>255.5666666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>257</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4141,18 +4593,27 @@
         <v>174.459</v>
       </c>
       <c r="G107" t="n">
+        <v>256.4666666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>255.5166666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>257</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,18 +4637,27 @@
         <v>205.997</v>
       </c>
       <c r="G108" t="n">
+        <v>256.5333333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>255.5333333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>257</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,18 +4681,27 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
+        <v>256.8</v>
+      </c>
+      <c r="H109" t="n">
         <v>255.5833333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>257</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,18 +4725,27 @@
         <v>2263.1039</v>
       </c>
       <c r="G110" t="n">
+        <v>257</v>
+      </c>
+      <c r="H110" t="n">
         <v>255.6166666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>257</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4281,18 +4769,27 @@
         <v>4603.6912</v>
       </c>
       <c r="G111" t="n">
+        <v>257.2666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>255.6833333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>257</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,18 +4813,27 @@
         <v>1</v>
       </c>
       <c r="G112" t="n">
+        <v>257.6666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>255.7833333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>257</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4351,18 +4857,27 @@
         <v>3240.9459</v>
       </c>
       <c r="G113" t="n">
+        <v>257.8</v>
+      </c>
+      <c r="H113" t="n">
         <v>255.85</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>257</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,18 +4901,27 @@
         <v>2120.878</v>
       </c>
       <c r="G114" t="n">
+        <v>257.8666666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>255.9166666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>257</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4421,18 +4945,27 @@
         <v>12</v>
       </c>
       <c r="G115" t="n">
+        <v>258.0666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>256.0666666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>257</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,18 +4989,27 @@
         <v>1</v>
       </c>
       <c r="G116" t="n">
+        <v>258.2</v>
+      </c>
+      <c r="H116" t="n">
         <v>256.1833333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>257</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,18 +5033,27 @@
         <v>1897.9152</v>
       </c>
       <c r="G117" t="n">
+        <v>258.2</v>
+      </c>
+      <c r="H117" t="n">
         <v>256.2333333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>257</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,18 +5077,27 @@
         <v>1</v>
       </c>
       <c r="G118" t="n">
+        <v>258.4</v>
+      </c>
+      <c r="H118" t="n">
         <v>256.35</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>257</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4561,18 +5121,27 @@
         <v>494.802</v>
       </c>
       <c r="G119" t="n">
+        <v>258.6</v>
+      </c>
+      <c r="H119" t="n">
         <v>256.4666666666666</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>257</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,18 +5165,27 @@
         <v>13</v>
       </c>
       <c r="G120" t="n">
+        <v>258.8</v>
+      </c>
+      <c r="H120" t="n">
         <v>256.5833333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>257</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4631,18 +5209,27 @@
         <v>1</v>
       </c>
       <c r="G121" t="n">
+        <v>259.0666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>256.7166666666666</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>257</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,18 +5253,27 @@
         <v>0.2826</v>
       </c>
       <c r="G122" t="n">
+        <v>259.2666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>256.8333333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>257</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4701,18 +5297,27 @@
         <v>131.304</v>
       </c>
       <c r="G123" t="n">
+        <v>259.3333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>256.9166666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>257</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,18 +5341,27 @@
         <v>2446.0536</v>
       </c>
       <c r="G124" t="n">
+        <v>259.1333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>256.8666666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>257</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4771,19 +5385,28 @@
         <v>1</v>
       </c>
       <c r="G125" t="n">
+        <v>259.3333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>256.9833333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
+      <c r="L125" t="n">
+        <v>257</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>1.01056420233463</v>
       </c>
     </row>
     <row r="126">
@@ -4806,18 +5429,21 @@
         <v>2</v>
       </c>
       <c r="G126" t="n">
+        <v>259.4</v>
+      </c>
+      <c r="H126" t="n">
         <v>257.0333333333334</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,18 +5467,21 @@
         <v>59</v>
       </c>
       <c r="G127" t="n">
+        <v>259.3333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>257.0833333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4876,18 +5505,21 @@
         <v>1120.5118</v>
       </c>
       <c r="G128" t="n">
+        <v>259.4</v>
+      </c>
+      <c r="H128" t="n">
         <v>257.1</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4911,18 +5543,21 @@
         <v>417.896</v>
       </c>
       <c r="G129" t="n">
+        <v>259.4666666666666</v>
+      </c>
+      <c r="H129" t="n">
         <v>257.1166666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,18 +5581,21 @@
         <v>370</v>
       </c>
       <c r="G130" t="n">
+        <v>259.4666666666666</v>
+      </c>
+      <c r="H130" t="n">
         <v>257.1333333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,18 +5619,21 @@
         <v>12833.7998</v>
       </c>
       <c r="G131" t="n">
+        <v>259.5333333333334</v>
+      </c>
+      <c r="H131" t="n">
         <v>257.15</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,18 +5657,21 @@
         <v>1</v>
       </c>
       <c r="G132" t="n">
+        <v>259.8</v>
+      </c>
+      <c r="H132" t="n">
         <v>257.2666666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5051,18 +5695,21 @@
         <v>17.9175</v>
       </c>
       <c r="G133" t="n">
+        <v>259.8666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>257.4333333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,18 +5733,21 @@
         <v>51.6071</v>
       </c>
       <c r="G134" t="n">
+        <v>259.9333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>257.5333333333334</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5121,18 +5771,401 @@
         <v>220.7885</v>
       </c>
       <c r="G135" t="n">
+        <v>259.8</v>
+      </c>
+      <c r="H135" t="n">
         <v>257.5833333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>258</v>
+      </c>
+      <c r="C136" t="n">
+        <v>252</v>
+      </c>
+      <c r="D136" t="n">
+        <v>258</v>
+      </c>
+      <c r="E136" t="n">
+        <v>252</v>
+      </c>
+      <c r="F136" t="n">
+        <v>29996.6895</v>
+      </c>
+      <c r="G136" t="n">
+        <v>259.2</v>
+      </c>
+      <c r="H136" t="n">
+        <v>257.5333333333334</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>259</v>
+      </c>
+      <c r="C137" t="n">
+        <v>259</v>
+      </c>
+      <c r="D137" t="n">
+        <v>259</v>
+      </c>
+      <c r="E137" t="n">
+        <v>259</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>259.1333333333333</v>
+      </c>
+      <c r="H137" t="n">
+        <v>257.6</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>259</v>
+      </c>
+      <c r="C138" t="n">
+        <v>259</v>
+      </c>
+      <c r="D138" t="n">
+        <v>259</v>
+      </c>
+      <c r="E138" t="n">
+        <v>259</v>
+      </c>
+      <c r="F138" t="n">
+        <v>21.0424</v>
+      </c>
+      <c r="G138" t="n">
+        <v>259.2</v>
+      </c>
+      <c r="H138" t="n">
+        <v>257.6666666666667</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>255</v>
+      </c>
+      <c r="C139" t="n">
+        <v>254</v>
+      </c>
+      <c r="D139" t="n">
+        <v>255</v>
+      </c>
+      <c r="E139" t="n">
+        <v>253</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1827.4304</v>
+      </c>
+      <c r="G139" t="n">
+        <v>259.0666666666667</v>
+      </c>
+      <c r="H139" t="n">
+        <v>257.6</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>252</v>
+      </c>
+      <c r="C140" t="n">
+        <v>252</v>
+      </c>
+      <c r="D140" t="n">
+        <v>252</v>
+      </c>
+      <c r="E140" t="n">
+        <v>252</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3236.7585</v>
+      </c>
+      <c r="G140" t="n">
+        <v>258.4666666666666</v>
+      </c>
+      <c r="H140" t="n">
+        <v>257.6333333333333</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>253</v>
+      </c>
+      <c r="C141" t="n">
+        <v>252</v>
+      </c>
+      <c r="D141" t="n">
+        <v>253</v>
+      </c>
+      <c r="E141" t="n">
+        <v>252</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1043.762</v>
+      </c>
+      <c r="G141" t="n">
+        <v>257.9333333333333</v>
+      </c>
+      <c r="H141" t="n">
+        <v>257.6</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>255</v>
+      </c>
+      <c r="C142" t="n">
+        <v>255</v>
+      </c>
+      <c r="D142" t="n">
+        <v>255</v>
+      </c>
+      <c r="E142" t="n">
+        <v>255</v>
+      </c>
+      <c r="F142" t="n">
+        <v>4.7603</v>
+      </c>
+      <c r="G142" t="n">
+        <v>257.6</v>
+      </c>
+      <c r="H142" t="n">
+        <v>257.6</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>255</v>
+      </c>
+      <c r="C143" t="n">
+        <v>255</v>
+      </c>
+      <c r="D143" t="n">
+        <v>255</v>
+      </c>
+      <c r="E143" t="n">
+        <v>255</v>
+      </c>
+      <c r="F143" t="n">
+        <v>189.3992</v>
+      </c>
+      <c r="G143" t="n">
+        <v>257.2666666666667</v>
+      </c>
+      <c r="H143" t="n">
+        <v>257.6</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>258</v>
+      </c>
+      <c r="C144" t="n">
+        <v>258</v>
+      </c>
+      <c r="D144" t="n">
+        <v>258</v>
+      </c>
+      <c r="E144" t="n">
+        <v>258</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2</v>
+      </c>
+      <c r="G144" t="n">
+        <v>257.1333333333333</v>
+      </c>
+      <c r="H144" t="n">
+        <v>257.6666666666667</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>256</v>
+      </c>
+      <c r="C145" t="n">
+        <v>256</v>
+      </c>
+      <c r="D145" t="n">
+        <v>256</v>
+      </c>
+      <c r="E145" t="n">
+        <v>256</v>
+      </c>
+      <c r="F145" t="n">
+        <v>102.99</v>
+      </c>
+      <c r="G145" t="n">
+        <v>256.8666666666667</v>
+      </c>
+      <c r="H145" t="n">
+        <v>257.6833333333333</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-15 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-15 BackTest TRUE.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M174"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -445,13 +450,13 @@
         <v>248</v>
       </c>
       <c r="F2" t="n">
-        <v>1972500</v>
+        <v>2035210</v>
       </c>
       <c r="G2" t="n">
         <v>-2603289.6692</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -480,7 +486,7 @@
         <v>248</v>
       </c>
       <c r="F3" t="n">
-        <v>1980000</v>
+        <v>2029163.724</v>
       </c>
       <c r="G3" t="n">
         <v>-2603289.6692</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -509,29 +516,36 @@
         <v>248</v>
       </c>
       <c r="D4" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E4" t="n">
         <v>248</v>
       </c>
       <c r="F4" t="n">
-        <v>407725.9516</v>
+        <v>2048543.717</v>
       </c>
       <c r="G4" t="n">
         <v>-2603289.6692</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>248</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -544,13 +558,13 @@
         <v>248</v>
       </c>
       <c r="D5" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E5" t="n">
         <v>248</v>
       </c>
       <c r="F5" t="n">
-        <v>22785</v>
+        <v>2050230</v>
       </c>
       <c r="G5" t="n">
         <v>-2603289.6692</v>
@@ -563,10 +577,15 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -585,7 +604,7 @@
         <v>248</v>
       </c>
       <c r="F6" t="n">
-        <v>1672400.6976</v>
+        <v>2035210</v>
       </c>
       <c r="G6" t="n">
         <v>-2603289.6692</v>
@@ -598,10 +617,15 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,7 +644,7 @@
         <v>248</v>
       </c>
       <c r="F7" t="n">
-        <v>1620599.3024</v>
+        <v>2050230</v>
       </c>
       <c r="G7" t="n">
         <v>-2603289.6692</v>
@@ -633,10 +657,15 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -655,7 +684,7 @@
         <v>248</v>
       </c>
       <c r="F8" t="n">
-        <v>1517000</v>
+        <v>2065250</v>
       </c>
       <c r="G8" t="n">
         <v>-2603289.6692</v>
@@ -668,10 +697,15 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -690,7 +724,7 @@
         <v>248</v>
       </c>
       <c r="F9" t="n">
-        <v>1998000</v>
+        <v>1659710</v>
       </c>
       <c r="G9" t="n">
         <v>-2603289.6692</v>
@@ -703,32 +737,37 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C10" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D10" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E10" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F10" t="n">
-        <v>1990600</v>
+        <v>2288.439</v>
       </c>
       <c r="G10" t="n">
-        <v>-2603289.6692</v>
+        <v>-2601001.2302</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -738,32 +777,37 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C11" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D11" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E11" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F11" t="n">
-        <v>1975800</v>
+        <v>21.5496</v>
       </c>
       <c r="G11" t="n">
-        <v>-2603289.6692</v>
+        <v>-2600979.6806</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -773,32 +817,37 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C12" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D12" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E12" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F12" t="n">
-        <v>1990600</v>
+        <v>10.9856</v>
       </c>
       <c r="G12" t="n">
-        <v>-2603289.6692</v>
+        <v>-2600979.6806</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -808,32 +857,37 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C13" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D13" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E13" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F13" t="n">
-        <v>2005400</v>
+        <v>9.8872</v>
       </c>
       <c r="G13" t="n">
-        <v>-2603289.6692</v>
+        <v>-2600979.6806</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -843,32 +897,37 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C14" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D14" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E14" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F14" t="n">
-        <v>1953600</v>
+        <v>4.0543</v>
       </c>
       <c r="G14" t="n">
-        <v>-2603289.6692</v>
+        <v>-2600979.6806</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -878,32 +937,37 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C15" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D15" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E15" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F15" t="n">
-        <v>1961000</v>
+        <v>219.543</v>
       </c>
       <c r="G15" t="n">
-        <v>-2603289.6692</v>
+        <v>-2600979.6806</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -913,32 +977,37 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C16" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D16" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E16" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F16" t="n">
-        <v>1968400</v>
+        <v>0.0002</v>
       </c>
       <c r="G16" t="n">
-        <v>-2603289.6692</v>
+        <v>-2600979.6806</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -948,32 +1017,37 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C17" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D17" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E17" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F17" t="n">
-        <v>1975800</v>
+        <v>56.1435</v>
       </c>
       <c r="G17" t="n">
-        <v>-2603289.6692</v>
+        <v>-2600979.6806</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -983,32 +1057,37 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C18" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D18" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E18" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F18" t="n">
-        <v>1983200</v>
+        <v>4000</v>
       </c>
       <c r="G18" t="n">
-        <v>-2603289.6692</v>
+        <v>-2596979.6806</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,32 +1097,37 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C19" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D19" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E19" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F19" t="n">
-        <v>1998000</v>
+        <v>3940.0213</v>
       </c>
       <c r="G19" t="n">
-        <v>-2603289.6692</v>
+        <v>-2596979.6806</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,32 +1137,37 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C20" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D20" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E20" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F20" t="n">
-        <v>1998000</v>
+        <v>656.774</v>
       </c>
       <c r="G20" t="n">
-        <v>-2603289.6692</v>
+        <v>-2596322.9066</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,32 +1177,37 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C21" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D21" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E21" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F21" t="n">
-        <v>2020201</v>
+        <v>18740.3917</v>
       </c>
       <c r="G21" t="n">
-        <v>-2603289.6692</v>
+        <v>-2577582.5149</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,32 +1217,37 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C22" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D22" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E22" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F22" t="n">
-        <v>2027600</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>-2603289.6692</v>
+        <v>-2577580.5149</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,32 +1257,37 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C23" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D23" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E23" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F23" t="n">
-        <v>2005400</v>
+        <v>1.9766</v>
       </c>
       <c r="G23" t="n">
-        <v>-2603289.6692</v>
+        <v>-2577578.5383</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,32 +1297,37 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C24" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D24" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E24" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F24" t="n">
-        <v>2020200</v>
+        <v>1374.8132</v>
       </c>
       <c r="G24" t="n">
-        <v>-2603289.6692</v>
+        <v>-2577578.5383</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,32 +1337,37 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C25" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D25" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E25" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F25" t="n">
-        <v>2027600</v>
+        <v>325.2607</v>
       </c>
       <c r="G25" t="n">
-        <v>-2603289.6692</v>
+        <v>-2577578.5383</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,32 +1377,37 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C26" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D26" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E26" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F26" t="n">
-        <v>2027600</v>
+        <v>575.8647</v>
       </c>
       <c r="G26" t="n">
-        <v>-2603289.6692</v>
+        <v>-2577578.5383</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,32 +1417,37 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C27" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D27" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E27" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F27" t="n">
-        <v>2012800</v>
+        <v>7945.7548</v>
       </c>
       <c r="G27" t="n">
-        <v>-2603289.6692</v>
+        <v>-2577578.5383</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,32 +1457,37 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C28" t="n">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D28" t="n">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="E28" t="n">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F28" t="n">
-        <v>2006899</v>
+        <v>3956.4586</v>
       </c>
       <c r="G28" t="n">
-        <v>-2603289.6692</v>
+        <v>-2581534.9969</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,32 +1497,37 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C29" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D29" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="E29" t="n">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F29" t="n">
-        <v>2012801</v>
+        <v>3833.108393436293</v>
       </c>
       <c r="G29" t="n">
-        <v>-2603289.6692</v>
+        <v>-2577701.888506563</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,32 +1537,37 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C30" t="n">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D30" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E30" t="n">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F30" t="n">
-        <v>2020200</v>
+        <v>565.066</v>
       </c>
       <c r="G30" t="n">
-        <v>-2603289.6692</v>
+        <v>-2578266.954506563</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,32 +1577,37 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C31" t="n">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D31" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E31" t="n">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F31" t="n">
-        <v>2012800</v>
+        <v>324.4475</v>
       </c>
       <c r="G31" t="n">
-        <v>-2603289.6692</v>
+        <v>-2578266.954506563</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,32 +1617,37 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C32" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D32" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E32" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F32" t="n">
-        <v>2012800</v>
+        <v>131.0635</v>
       </c>
       <c r="G32" t="n">
-        <v>-2603289.6692</v>
+        <v>-2578135.891006563</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,32 +1657,37 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C33" t="n">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="D33" t="n">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="E33" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F33" t="n">
-        <v>2034999</v>
+        <v>259.6286</v>
       </c>
       <c r="G33" t="n">
-        <v>-2603289.6692</v>
+        <v>-2577876.262406563</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,32 +1697,37 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C34" t="n">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D34" t="n">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E34" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="F34" t="n">
-        <v>1990601</v>
+        <v>698</v>
       </c>
       <c r="G34" t="n">
-        <v>-2603289.6692</v>
+        <v>-2577178.262406563</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,32 +1737,37 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C35" t="n">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D35" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="E35" t="n">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F35" t="n">
-        <v>2027600</v>
+        <v>1148.1739</v>
       </c>
       <c r="G35" t="n">
-        <v>-2603289.6692</v>
+        <v>-2578326.436306563</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,32 +1777,37 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C36" t="n">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D36" t="n">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E36" t="n">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F36" t="n">
-        <v>2012800</v>
+        <v>194</v>
       </c>
       <c r="G36" t="n">
-        <v>-2603289.6692</v>
+        <v>-2578326.436306563</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,32 +1817,37 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C37" t="n">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D37" t="n">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E37" t="n">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F37" t="n">
-        <v>554999</v>
+        <v>57</v>
       </c>
       <c r="G37" t="n">
-        <v>-2603289.6692</v>
+        <v>-2578326.436306563</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,32 +1857,37 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C38" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D38" t="n">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="E38" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>163.237</v>
       </c>
       <c r="G38" t="n">
-        <v>-2603289.6692</v>
+        <v>-2578489.673306563</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,32 +1897,37 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C39" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D39" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E39" t="n">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F39" t="n">
-        <v>24818.439</v>
+        <v>269.325</v>
       </c>
       <c r="G39" t="n">
-        <v>-2603289.6692</v>
+        <v>-2578489.673306563</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,32 +1937,37 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C40" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D40" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E40" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F40" t="n">
-        <v>1749830</v>
+        <v>25</v>
       </c>
       <c r="G40" t="n">
-        <v>-2603289.6692</v>
+        <v>-2578489.673306563</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,32 +1977,37 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C41" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D41" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E41" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F41" t="n">
-        <v>2046724</v>
+        <v>145.706</v>
       </c>
       <c r="G41" t="n">
-        <v>-2603289.6692</v>
+        <v>-2578489.673306563</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,32 +2017,37 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C42" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D42" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E42" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F42" t="n">
-        <v>2042720</v>
+        <v>11160.7344</v>
       </c>
       <c r="G42" t="n">
-        <v>-2603289.6692</v>
+        <v>-2589650.407706563</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,32 +2057,37 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C43" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D43" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E43" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F43" t="n">
-        <v>2042720</v>
+        <v>1058.823</v>
       </c>
       <c r="G43" t="n">
-        <v>-2603289.6692</v>
+        <v>-2588591.584706564</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,32 +2097,37 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C44" t="n">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D44" t="n">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E44" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F44" t="n">
-        <v>2035210</v>
+        <v>9777.8734</v>
       </c>
       <c r="G44" t="n">
-        <v>-2603289.6692</v>
+        <v>-2578813.711306564</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,32 +2137,37 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C45" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D45" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E45" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F45" t="n">
-        <v>2029163.724</v>
+        <v>40.0869</v>
       </c>
       <c r="G45" t="n">
-        <v>-2603289.6692</v>
+        <v>-2578853.798206564</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,32 +2177,37 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C46" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D46" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E46" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F46" t="n">
-        <v>2048543.717</v>
+        <v>297.4911</v>
       </c>
       <c r="G46" t="n">
-        <v>-2603289.6692</v>
+        <v>-2578853.798206564</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,32 +2217,37 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C47" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D47" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E47" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F47" t="n">
-        <v>2050230</v>
+        <v>7292.8418</v>
       </c>
       <c r="G47" t="n">
-        <v>-2603289.6692</v>
+        <v>-2578853.798206564</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,32 +2257,37 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C48" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D48" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E48" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F48" t="n">
-        <v>2035210</v>
+        <v>2130.5059</v>
       </c>
       <c r="G48" t="n">
-        <v>-2603289.6692</v>
+        <v>-2578853.798206564</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,67 +2297,79 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C49" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D49" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E49" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F49" t="n">
-        <v>2050230</v>
+        <v>1389.0609</v>
       </c>
       <c r="G49" t="n">
-        <v>-2603289.6692</v>
+        <v>-2578853.798206564</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>253</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C50" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D50" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E50" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F50" t="n">
-        <v>2065250</v>
+        <v>1351.4387</v>
       </c>
       <c r="G50" t="n">
-        <v>-2603289.6692</v>
+        <v>-2578853.798206564</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,67 +2379,79 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C51" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D51" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="E51" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F51" t="n">
-        <v>1659710</v>
+        <v>4658.8701</v>
       </c>
       <c r="G51" t="n">
-        <v>-2603289.6692</v>
+        <v>-2574194.928106564</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>253</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C52" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D52" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E52" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F52" t="n">
-        <v>2288.439</v>
+        <v>40.899</v>
       </c>
       <c r="G52" t="n">
-        <v>-2601001.2302</v>
+        <v>-2574235.827106564</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,32 +2461,37 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C53" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D53" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E53" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F53" t="n">
-        <v>21.5496</v>
+        <v>5</v>
       </c>
       <c r="G53" t="n">
-        <v>-2600979.6806</v>
+        <v>-2574230.827106564</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,32 +2501,37 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C54" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D54" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E54" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F54" t="n">
-        <v>10.9856</v>
+        <v>229.5</v>
       </c>
       <c r="G54" t="n">
-        <v>-2600979.6806</v>
+        <v>-2574230.827106564</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,32 +2541,37 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C55" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D55" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E55" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F55" t="n">
-        <v>9.8872</v>
+        <v>3057.6137</v>
       </c>
       <c r="G55" t="n">
-        <v>-2600979.6806</v>
+        <v>-2571173.213406564</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,32 +2581,37 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C56" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D56" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E56" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F56" t="n">
-        <v>4.0543</v>
+        <v>6570.4591</v>
       </c>
       <c r="G56" t="n">
-        <v>-2600979.6806</v>
+        <v>-2571173.213406564</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,32 +2621,37 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C57" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D57" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E57" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F57" t="n">
-        <v>219.543</v>
+        <v>21476.6115</v>
       </c>
       <c r="G57" t="n">
-        <v>-2600979.6806</v>
+        <v>-2571173.213406564</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,32 +2661,37 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C58" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D58" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E58" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0002</v>
+        <v>3489.8942</v>
       </c>
       <c r="G58" t="n">
-        <v>-2600979.6806</v>
+        <v>-2571173.213406564</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,32 +2701,37 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C59" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D59" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E59" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F59" t="n">
-        <v>56.1435</v>
+        <v>11447.92</v>
       </c>
       <c r="G59" t="n">
-        <v>-2600979.6806</v>
+        <v>-2582621.133406564</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,32 +2741,37 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C60" t="n">
         <v>251</v>
       </c>
       <c r="D60" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E60" t="n">
         <v>251</v>
       </c>
       <c r="F60" t="n">
-        <v>4000</v>
+        <v>5326.1194</v>
       </c>
       <c r="G60" t="n">
-        <v>-2596979.6806</v>
+        <v>-2587947.252806564</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,32 +2781,37 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C61" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D61" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E61" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F61" t="n">
-        <v>3940.0213</v>
+        <v>1151.0412</v>
       </c>
       <c r="G61" t="n">
-        <v>-2596979.6806</v>
+        <v>-2586796.211606564</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,32 +2821,37 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C62" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D62" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E62" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F62" t="n">
-        <v>656.774</v>
+        <v>1020.472</v>
       </c>
       <c r="G62" t="n">
-        <v>-2596322.9066</v>
+        <v>-2586796.211606564</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,32 +2861,37 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C63" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D63" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E63" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F63" t="n">
-        <v>18740.3917</v>
+        <v>503.815</v>
       </c>
       <c r="G63" t="n">
-        <v>-2577582.5149</v>
+        <v>-2586796.211606564</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,10 +2901,15 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2615,10 +2928,10 @@
         <v>255</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>48.6054</v>
       </c>
       <c r="G64" t="n">
-        <v>-2577580.5149</v>
+        <v>-2586796.211606564</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,32 +2941,37 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C65" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D65" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E65" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F65" t="n">
-        <v>1.9766</v>
+        <v>3581.7222</v>
       </c>
       <c r="G65" t="n">
-        <v>-2577578.5383</v>
+        <v>-2586796.211606564</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,32 +2981,37 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C66" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D66" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E66" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F66" t="n">
-        <v>1374.8132</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>-2577578.5383</v>
+        <v>-2586795.211606564</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,32 +3021,37 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C67" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D67" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E67" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F67" t="n">
-        <v>325.2607</v>
+        <v>9402.861000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>-2577578.5383</v>
+        <v>-2596198.072606564</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,32 +3061,37 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C68" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D68" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E68" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F68" t="n">
-        <v>575.8647</v>
+        <v>1370.123</v>
       </c>
       <c r="G68" t="n">
-        <v>-2577578.5383</v>
+        <v>-2594827.949606564</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,32 +3101,37 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C69" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D69" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E69" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F69" t="n">
-        <v>7945.7548</v>
+        <v>3564.4094</v>
       </c>
       <c r="G69" t="n">
-        <v>-2577578.5383</v>
+        <v>-2591263.540206564</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,32 +3141,37 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C70" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D70" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E70" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F70" t="n">
-        <v>3956.4586</v>
+        <v>49.5478</v>
       </c>
       <c r="G70" t="n">
-        <v>-2581534.9969</v>
+        <v>-2591263.540206564</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,32 +3181,37 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C71" t="n">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D71" t="n">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E71" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F71" t="n">
-        <v>3833.108393436293</v>
+        <v>1179</v>
       </c>
       <c r="G71" t="n">
-        <v>-2577701.888506563</v>
+        <v>-2592442.540206564</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,32 +3221,37 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C72" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D72" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E72" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F72" t="n">
-        <v>565.066</v>
+        <v>135.7099</v>
       </c>
       <c r="G72" t="n">
-        <v>-2578266.954506563</v>
+        <v>-2592306.830306564</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,10 +3261,15 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2921,19 +3279,19 @@
         <v>255</v>
       </c>
       <c r="C73" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D73" t="n">
         <v>255</v>
       </c>
       <c r="E73" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F73" t="n">
-        <v>324.4475</v>
+        <v>4401.9512</v>
       </c>
       <c r="G73" t="n">
-        <v>-2578266.954506563</v>
+        <v>-2592306.830306564</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,32 +3301,37 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C74" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D74" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E74" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F74" t="n">
-        <v>131.0635</v>
+        <v>2001.0102</v>
       </c>
       <c r="G74" t="n">
-        <v>-2578135.891006563</v>
+        <v>-2590305.820106564</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,32 +3341,37 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C75" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D75" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E75" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F75" t="n">
-        <v>259.6286</v>
+        <v>3046.8054</v>
       </c>
       <c r="G75" t="n">
-        <v>-2577876.262406563</v>
+        <v>-2590305.820106564</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,32 +3381,37 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C76" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D76" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E76" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F76" t="n">
-        <v>698</v>
+        <v>889.4</v>
       </c>
       <c r="G76" t="n">
-        <v>-2577178.262406563</v>
+        <v>-2590305.820106564</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,32 +3421,37 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C77" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D77" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E77" t="n">
         <v>256</v>
       </c>
       <c r="F77" t="n">
-        <v>1148.1739</v>
+        <v>1050.6962</v>
       </c>
       <c r="G77" t="n">
-        <v>-2578326.436306563</v>
+        <v>-2590305.820106564</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,32 +3461,37 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C78" t="n">
         <v>256</v>
       </c>
       <c r="D78" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E78" t="n">
         <v>256</v>
       </c>
       <c r="F78" t="n">
-        <v>194</v>
+        <v>1240.619</v>
       </c>
       <c r="G78" t="n">
-        <v>-2578326.436306563</v>
+        <v>-2591546.439106564</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,10 +3501,15 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3131,19 +3519,19 @@
         <v>256</v>
       </c>
       <c r="C79" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D79" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E79" t="n">
         <v>256</v>
       </c>
       <c r="F79" t="n">
-        <v>57</v>
+        <v>1376.09</v>
       </c>
       <c r="G79" t="n">
-        <v>-2578326.436306563</v>
+        <v>-2590170.349106564</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,32 +3541,37 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>258</v>
+      </c>
+      <c r="C80" t="n">
         <v>256</v>
       </c>
-      <c r="C80" t="n">
-        <v>255</v>
-      </c>
       <c r="D80" t="n">
+        <v>258</v>
+      </c>
+      <c r="E80" t="n">
         <v>256</v>
       </c>
-      <c r="E80" t="n">
-        <v>255</v>
-      </c>
       <c r="F80" t="n">
-        <v>163.237</v>
+        <v>301.4138</v>
       </c>
       <c r="G80" t="n">
-        <v>-2578489.673306563</v>
+        <v>-2590471.762906564</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,32 +3581,37 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C81" t="n">
         <v>255</v>
       </c>
       <c r="D81" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E81" t="n">
         <v>255</v>
       </c>
       <c r="F81" t="n">
-        <v>269.325</v>
+        <v>1945.6915</v>
       </c>
       <c r="G81" t="n">
-        <v>-2578489.673306563</v>
+        <v>-2592417.454406565</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,10 +3621,15 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3245,10 +3648,10 @@
         <v>255</v>
       </c>
       <c r="F82" t="n">
-        <v>25</v>
+        <v>160.649</v>
       </c>
       <c r="G82" t="n">
-        <v>-2578489.673306563</v>
+        <v>-2592417.454406565</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,10 +3661,15 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3280,10 +3688,10 @@
         <v>255</v>
       </c>
       <c r="F83" t="n">
-        <v>145.706</v>
+        <v>1171.6507</v>
       </c>
       <c r="G83" t="n">
-        <v>-2578489.673306563</v>
+        <v>-2592417.454406565</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,10 +3701,15 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3306,89 +3719,103 @@
         <v>255</v>
       </c>
       <c r="C84" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D84" t="n">
         <v>255</v>
       </c>
       <c r="E84" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F84" t="n">
-        <v>11160.7344</v>
+        <v>978.5</v>
       </c>
       <c r="G84" t="n">
-        <v>-2589650.407706563</v>
+        <v>-2592417.454406565</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>255</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C85" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D85" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E85" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F85" t="n">
-        <v>1058.823</v>
+        <v>1730.3581</v>
       </c>
       <c r="G85" t="n">
-        <v>-2588591.584706564</v>
+        <v>-2590687.096306565</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>255</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C86" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D86" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E86" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F86" t="n">
-        <v>9777.8734</v>
+        <v>138</v>
       </c>
       <c r="G86" t="n">
-        <v>-2578813.711306564</v>
+        <v>-2590549.096306565</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,32 +3825,37 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C87" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D87" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E87" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F87" t="n">
-        <v>40.0869</v>
+        <v>417.9316</v>
       </c>
       <c r="G87" t="n">
-        <v>-2578853.798206564</v>
+        <v>-2590967.027906565</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,32 +3865,37 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C88" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D88" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E88" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F88" t="n">
-        <v>297.4911</v>
+        <v>1200</v>
       </c>
       <c r="G88" t="n">
-        <v>-2578853.798206564</v>
+        <v>-2590967.027906565</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,32 +3905,37 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C89" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D89" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E89" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F89" t="n">
-        <v>7292.8418</v>
+        <v>412.5578</v>
       </c>
       <c r="G89" t="n">
-        <v>-2578853.798206564</v>
+        <v>-2590967.027906565</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,32 +3945,37 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C90" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D90" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E90" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F90" t="n">
-        <v>2130.5059</v>
+        <v>565</v>
       </c>
       <c r="G90" t="n">
-        <v>-2578853.798206564</v>
+        <v>-2590967.027906565</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,32 +3985,37 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C91" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D91" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E91" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F91" t="n">
-        <v>1389.0609</v>
+        <v>1835.2328</v>
       </c>
       <c r="G91" t="n">
-        <v>-2578853.798206564</v>
+        <v>-2590967.027906565</v>
       </c>
       <c r="H91" t="n">
         <v>1</v>
@@ -3572,37 +4024,40 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>253</v>
-      </c>
-      <c r="K91" t="n">
-        <v>253</v>
-      </c>
-      <c r="L91" t="inlineStr"/>
+        <v>257</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C92" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D92" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E92" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F92" t="n">
-        <v>1351.4387</v>
+        <v>6473.8846</v>
       </c>
       <c r="G92" t="n">
-        <v>-2578853.798206564</v>
+        <v>-2590967.027906565</v>
       </c>
       <c r="H92" t="n">
         <v>1</v>
@@ -3611,41 +4066,40 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>253</v>
-      </c>
-      <c r="K92" t="n">
-        <v>253</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C93" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D93" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E93" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F93" t="n">
-        <v>4658.8701</v>
+        <v>1556.1</v>
       </c>
       <c r="G93" t="n">
-        <v>-2574194.928106564</v>
+        <v>-2590967.027906565</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
@@ -3654,76 +4108,82 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>253</v>
-      </c>
-      <c r="K93" t="n">
-        <v>253</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C94" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D94" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E94" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F94" t="n">
-        <v>40.899</v>
+        <v>174.459</v>
       </c>
       <c r="G94" t="n">
-        <v>-2574235.827106564</v>
+        <v>-2590967.027906565</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>257</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C95" t="n">
         <v>257</v>
       </c>
       <c r="D95" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E95" t="n">
         <v>257</v>
       </c>
       <c r="F95" t="n">
-        <v>5</v>
+        <v>205.997</v>
       </c>
       <c r="G95" t="n">
-        <v>-2574230.827106564</v>
+        <v>-2590967.027906565</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3733,32 +4193,37 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C96" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D96" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E96" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F96" t="n">
-        <v>229.5</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>-2574230.827106564</v>
+        <v>-2590966.027906565</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3768,20 +4233,25 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C97" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D97" t="n">
         <v>259</v>
@@ -3790,45 +4260,52 @@
         <v>257</v>
       </c>
       <c r="F97" t="n">
-        <v>3057.6137</v>
+        <v>2263.1039</v>
       </c>
       <c r="G97" t="n">
-        <v>-2571173.213406564</v>
+        <v>-2593229.131806565</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>259</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C98" t="n">
         <v>259</v>
       </c>
       <c r="D98" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E98" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F98" t="n">
-        <v>6570.4591</v>
+        <v>4603.6912</v>
       </c>
       <c r="G98" t="n">
-        <v>-2571173.213406564</v>
+        <v>-2588625.440606565</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3838,32 +4315,37 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C99" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D99" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E99" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F99" t="n">
-        <v>21476.6115</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>-2571173.213406564</v>
+        <v>-2588624.440606565</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3873,10 +4355,15 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3892,13 +4379,13 @@
         <v>259</v>
       </c>
       <c r="E100" t="n">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F100" t="n">
-        <v>3489.8942</v>
+        <v>3240.9459</v>
       </c>
       <c r="G100" t="n">
-        <v>-2571173.213406564</v>
+        <v>-2591865.386506565</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3908,32 +4395,37 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>260</v>
+      </c>
+      <c r="C101" t="n">
         <v>259</v>
       </c>
-      <c r="C101" t="n">
-        <v>254</v>
-      </c>
       <c r="D101" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E101" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F101" t="n">
-        <v>11447.92</v>
+        <v>2120.878</v>
       </c>
       <c r="G101" t="n">
-        <v>-2582621.133406564</v>
+        <v>-2591865.386506565</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3943,32 +4435,37 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C102" t="n">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D102" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E102" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F102" t="n">
-        <v>5326.1194</v>
+        <v>12</v>
       </c>
       <c r="G102" t="n">
-        <v>-2587947.252806564</v>
+        <v>-2591853.386506565</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3978,32 +4475,37 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C103" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D103" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E103" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F103" t="n">
-        <v>1151.0412</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>-2586796.211606564</v>
+        <v>-2591854.386506565</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4013,32 +4515,37 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C104" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D104" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E104" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F104" t="n">
-        <v>1020.472</v>
+        <v>1897.9152</v>
       </c>
       <c r="G104" t="n">
-        <v>-2586796.211606564</v>
+        <v>-2593752.301706565</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4048,102 +4555,121 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C105" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D105" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E105" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F105" t="n">
-        <v>503.815</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>-2586796.211606564</v>
+        <v>-2593751.301706565</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>257</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C106" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D106" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E106" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F106" t="n">
-        <v>48.6054</v>
+        <v>494.802</v>
       </c>
       <c r="G106" t="n">
-        <v>-2586796.211606564</v>
+        <v>-2593751.301706565</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>260</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C107" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D107" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E107" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F107" t="n">
-        <v>3581.7222</v>
+        <v>13</v>
       </c>
       <c r="G107" t="n">
-        <v>-2586796.211606564</v>
+        <v>-2593751.301706565</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4153,32 +4679,37 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C108" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D108" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E108" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F108" t="n">
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>-2586795.211606564</v>
+        <v>-2593750.301706565</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4188,207 +4719,253 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C109" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D109" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E109" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F109" t="n">
-        <v>9402.861000000001</v>
+        <v>0.2826</v>
       </c>
       <c r="G109" t="n">
-        <v>-2596198.072606564</v>
+        <v>-2593750.584306565</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>261</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C110" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D110" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E110" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F110" t="n">
-        <v>1370.123</v>
+        <v>131.304</v>
       </c>
       <c r="G110" t="n">
-        <v>-2594827.949606564</v>
+        <v>-2593881.888306565</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>260</v>
+      </c>
+      <c r="K110" t="n">
+        <v>261</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>258</v>
+      </c>
+      <c r="C111" t="n">
         <v>256</v>
       </c>
-      <c r="C111" t="n">
-        <v>255</v>
-      </c>
       <c r="D111" t="n">
+        <v>258</v>
+      </c>
+      <c r="E111" t="n">
         <v>256</v>
       </c>
-      <c r="E111" t="n">
-        <v>255</v>
-      </c>
       <c r="F111" t="n">
-        <v>3564.4094</v>
+        <v>2446.0536</v>
       </c>
       <c r="G111" t="n">
-        <v>-2591263.540206564</v>
+        <v>-2596327.941906565</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>258</v>
+      </c>
+      <c r="K111" t="n">
+        <v>261</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C112" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D112" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E112" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F112" t="n">
-        <v>49.5478</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>-2591263.540206564</v>
+        <v>-2596326.941906565</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>256</v>
+      </c>
+      <c r="K112" t="n">
+        <v>261</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C113" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D113" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E113" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F113" t="n">
-        <v>1179</v>
+        <v>2</v>
       </c>
       <c r="G113" t="n">
-        <v>-2592442.540206564</v>
+        <v>-2596328.941906565</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>261</v>
+      </c>
+      <c r="K113" t="n">
+        <v>261</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C114" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D114" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E114" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F114" t="n">
-        <v>135.7099</v>
+        <v>59</v>
       </c>
       <c r="G114" t="n">
-        <v>-2592306.830306564</v>
+        <v>-2596328.941906565</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4397,223 +4974,261 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>261</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C115" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D115" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E115" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F115" t="n">
-        <v>4401.9512</v>
+        <v>1120.5118</v>
       </c>
       <c r="G115" t="n">
-        <v>-2592306.830306564</v>
+        <v>-2596328.941906565</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>261</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C116" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D116" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E116" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F116" t="n">
-        <v>2001.0102</v>
+        <v>417.896</v>
       </c>
       <c r="G116" t="n">
-        <v>-2590305.820106564</v>
+        <v>-2596328.941906565</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>261</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C117" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D117" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E117" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F117" t="n">
-        <v>3046.8054</v>
+        <v>370</v>
       </c>
       <c r="G117" t="n">
-        <v>-2590305.820106564</v>
+        <v>-2596328.941906565</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>261</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C118" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D118" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E118" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F118" t="n">
-        <v>889.4</v>
+        <v>12833.7998</v>
       </c>
       <c r="G118" t="n">
-        <v>-2590305.820106564</v>
+        <v>-2596328.941906565</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>261</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C119" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D119" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E119" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F119" t="n">
-        <v>1050.6962</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>-2590305.820106564</v>
+        <v>-2596327.941906565</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>257</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>261</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C120" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D120" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E120" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F120" t="n">
-        <v>1240.619</v>
+        <v>17.9175</v>
       </c>
       <c r="G120" t="n">
-        <v>-2591546.439106564</v>
+        <v>-2596327.941906565</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>261</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4622,39 +5237,40 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C121" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D121" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E121" t="n">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F121" t="n">
-        <v>1376.09</v>
+        <v>51.6071</v>
       </c>
       <c r="G121" t="n">
-        <v>-2590170.349106564</v>
+        <v>-2596327.941906565</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>256</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>261</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4663,164 +5279,157 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>261</v>
+      </c>
+      <c r="C122" t="n">
         <v>258</v>
       </c>
-      <c r="C122" t="n">
-        <v>256</v>
-      </c>
       <c r="D122" t="n">
+        <v>261</v>
+      </c>
+      <c r="E122" t="n">
         <v>258</v>
       </c>
-      <c r="E122" t="n">
-        <v>256</v>
-      </c>
       <c r="F122" t="n">
-        <v>301.4138</v>
+        <v>220.7885</v>
       </c>
       <c r="G122" t="n">
-        <v>-2590471.762906564</v>
+        <v>-2596548.730406565</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>258</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>261</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>1</v>
-      </c>
+        <v>0.9835057471264368</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C123" t="n">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D123" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E123" t="n">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F123" t="n">
-        <v>1945.6915</v>
+        <v>29996.6895</v>
       </c>
       <c r="G123" t="n">
-        <v>-2592417.454406565</v>
+        <v>-2626545.419906565</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C124" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D124" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E124" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F124" t="n">
-        <v>160.649</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>-2592417.454406565</v>
+        <v>-2626544.419906565</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C125" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D125" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E125" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F125" t="n">
-        <v>1171.6507</v>
+        <v>21.0424</v>
       </c>
       <c r="G125" t="n">
-        <v>-2592417.454406565</v>
+        <v>-2626544.419906565</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4830,101 +5439,91 @@
         <v>255</v>
       </c>
       <c r="C126" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D126" t="n">
         <v>255</v>
       </c>
       <c r="E126" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F126" t="n">
-        <v>978.5</v>
+        <v>1827.4304</v>
       </c>
       <c r="G126" t="n">
-        <v>-2592417.454406565</v>
+        <v>-2628371.850306565</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>255</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C127" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D127" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E127" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F127" t="n">
-        <v>1730.3581</v>
+        <v>3236.7585</v>
       </c>
       <c r="G127" t="n">
-        <v>-2590687.096306565</v>
+        <v>-2631608.608806565</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>255</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C128" t="n">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D128" t="n">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E128" t="n">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F128" t="n">
-        <v>138</v>
+        <v>1043.762</v>
       </c>
       <c r="G128" t="n">
-        <v>-2590549.096306565</v>
+        <v>-2631608.608806565</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4934,36 +5533,33 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C129" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D129" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E129" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F129" t="n">
-        <v>417.9316</v>
+        <v>4.7603</v>
       </c>
       <c r="G129" t="n">
-        <v>-2590967.027906565</v>
+        <v>-2631603.848506565</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4973,36 +5569,33 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C130" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D130" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E130" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F130" t="n">
-        <v>1200</v>
+        <v>189.3992</v>
       </c>
       <c r="G130" t="n">
-        <v>-2590967.027906565</v>
+        <v>-2631603.848506565</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5012,1600 +5605,95 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C131" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D131" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E131" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F131" t="n">
-        <v>412.5578</v>
+        <v>2</v>
       </c>
       <c r="G131" t="n">
-        <v>-2590967.027906565</v>
+        <v>-2631601.848506565</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="n">
+        <v>255</v>
+      </c>
+      <c r="K131" t="n">
+        <v>255</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C132" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D132" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E132" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F132" t="n">
-        <v>565</v>
+        <v>102.99</v>
       </c>
       <c r="G132" t="n">
-        <v>-2590967.027906565</v>
+        <v>-2631704.838506565</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>258</v>
+      </c>
+      <c r="K132" t="n">
+        <v>255</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>257</v>
-      </c>
-      <c r="C133" t="n">
-        <v>257</v>
-      </c>
-      <c r="D133" t="n">
-        <v>257</v>
-      </c>
-      <c r="E133" t="n">
-        <v>257</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1835.2328</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-2590967.027906565</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>257</v>
-      </c>
-      <c r="C134" t="n">
-        <v>257</v>
-      </c>
-      <c r="D134" t="n">
-        <v>257</v>
-      </c>
-      <c r="E134" t="n">
-        <v>257</v>
-      </c>
-      <c r="F134" t="n">
-        <v>6473.8846</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-2590967.027906565</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>257</v>
-      </c>
-      <c r="C135" t="n">
-        <v>257</v>
-      </c>
-      <c r="D135" t="n">
-        <v>257</v>
-      </c>
-      <c r="E135" t="n">
-        <v>257</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1556.1</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-2590967.027906565</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>257</v>
-      </c>
-      <c r="C136" t="n">
-        <v>257</v>
-      </c>
-      <c r="D136" t="n">
-        <v>257</v>
-      </c>
-      <c r="E136" t="n">
-        <v>257</v>
-      </c>
-      <c r="F136" t="n">
-        <v>174.459</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-2590967.027906565</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>258</v>
-      </c>
-      <c r="C137" t="n">
-        <v>257</v>
-      </c>
-      <c r="D137" t="n">
-        <v>258</v>
-      </c>
-      <c r="E137" t="n">
-        <v>257</v>
-      </c>
-      <c r="F137" t="n">
-        <v>205.997</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-2590967.027906565</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>259</v>
-      </c>
-      <c r="C138" t="n">
-        <v>259</v>
-      </c>
-      <c r="D138" t="n">
-        <v>259</v>
-      </c>
-      <c r="E138" t="n">
-        <v>259</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-2590966.027906565</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>259</v>
-      </c>
-      <c r="C139" t="n">
-        <v>258</v>
-      </c>
-      <c r="D139" t="n">
-        <v>259</v>
-      </c>
-      <c r="E139" t="n">
-        <v>257</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2263.1039</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-2593229.131806565</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>260</v>
-      </c>
-      <c r="C140" t="n">
-        <v>259</v>
-      </c>
-      <c r="D140" t="n">
-        <v>261</v>
-      </c>
-      <c r="E140" t="n">
-        <v>257</v>
-      </c>
-      <c r="F140" t="n">
-        <v>4603.6912</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-2588625.440606565</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>261</v>
-      </c>
-      <c r="C141" t="n">
-        <v>261</v>
-      </c>
-      <c r="D141" t="n">
-        <v>261</v>
-      </c>
-      <c r="E141" t="n">
-        <v>261</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-2588624.440606565</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>259</v>
-      </c>
-      <c r="C142" t="n">
-        <v>259</v>
-      </c>
-      <c r="D142" t="n">
-        <v>259</v>
-      </c>
-      <c r="E142" t="n">
-        <v>255</v>
-      </c>
-      <c r="F142" t="n">
-        <v>3240.9459</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-2591865.386506565</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>260</v>
-      </c>
-      <c r="C143" t="n">
-        <v>259</v>
-      </c>
-      <c r="D143" t="n">
-        <v>260</v>
-      </c>
-      <c r="E143" t="n">
-        <v>255</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2120.878</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-2591865.386506565</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>259</v>
-      </c>
-      <c r="C144" t="n">
-        <v>260</v>
-      </c>
-      <c r="D144" t="n">
-        <v>260</v>
-      </c>
-      <c r="E144" t="n">
-        <v>259</v>
-      </c>
-      <c r="F144" t="n">
-        <v>12</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-2591853.386506565</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>259</v>
-      </c>
-      <c r="C145" t="n">
-        <v>259</v>
-      </c>
-      <c r="D145" t="n">
-        <v>259</v>
-      </c>
-      <c r="E145" t="n">
-        <v>259</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-2591854.386506565</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>257</v>
-      </c>
-      <c r="C146" t="n">
-        <v>257</v>
-      </c>
-      <c r="D146" t="n">
-        <v>257</v>
-      </c>
-      <c r="E146" t="n">
-        <v>257</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1897.9152</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-2593752.301706565</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>260</v>
-      </c>
-      <c r="C147" t="n">
-        <v>260</v>
-      </c>
-      <c r="D147" t="n">
-        <v>260</v>
-      </c>
-      <c r="E147" t="n">
-        <v>260</v>
-      </c>
-      <c r="F147" t="n">
-        <v>1</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-2593751.301706565</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>260</v>
-      </c>
-      <c r="C148" t="n">
-        <v>260</v>
-      </c>
-      <c r="D148" t="n">
-        <v>260</v>
-      </c>
-      <c r="E148" t="n">
-        <v>260</v>
-      </c>
-      <c r="F148" t="n">
-        <v>494.802</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-2593751.301706565</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>261</v>
-      </c>
-      <c r="C149" t="n">
-        <v>260</v>
-      </c>
-      <c r="D149" t="n">
-        <v>261</v>
-      </c>
-      <c r="E149" t="n">
-        <v>260</v>
-      </c>
-      <c r="F149" t="n">
-        <v>13</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-2593751.301706565</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>261</v>
-      </c>
-      <c r="C150" t="n">
-        <v>261</v>
-      </c>
-      <c r="D150" t="n">
-        <v>261</v>
-      </c>
-      <c r="E150" t="n">
-        <v>261</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-2593750.301706565</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>260</v>
-      </c>
-      <c r="C151" t="n">
-        <v>260</v>
-      </c>
-      <c r="D151" t="n">
-        <v>260</v>
-      </c>
-      <c r="E151" t="n">
-        <v>260</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0.2826</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-2593750.584306565</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>258</v>
-      </c>
-      <c r="C152" t="n">
-        <v>258</v>
-      </c>
-      <c r="D152" t="n">
-        <v>258</v>
-      </c>
-      <c r="E152" t="n">
-        <v>258</v>
-      </c>
-      <c r="F152" t="n">
-        <v>131.304</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-2593881.888306565</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>258</v>
-      </c>
-      <c r="C153" t="n">
-        <v>256</v>
-      </c>
-      <c r="D153" t="n">
-        <v>258</v>
-      </c>
-      <c r="E153" t="n">
-        <v>256</v>
-      </c>
-      <c r="F153" t="n">
-        <v>2446.0536</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-2596327.941906565</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>261</v>
-      </c>
-      <c r="C154" t="n">
-        <v>261</v>
-      </c>
-      <c r="D154" t="n">
-        <v>261</v>
-      </c>
-      <c r="E154" t="n">
-        <v>261</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-2596326.941906565</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>260</v>
-      </c>
-      <c r="C155" t="n">
-        <v>260</v>
-      </c>
-      <c r="D155" t="n">
-        <v>260</v>
-      </c>
-      <c r="E155" t="n">
-        <v>260</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-2596328.941906565</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>260</v>
-      </c>
-      <c r="C156" t="n">
-        <v>260</v>
-      </c>
-      <c r="D156" t="n">
-        <v>260</v>
-      </c>
-      <c r="E156" t="n">
-        <v>260</v>
-      </c>
-      <c r="F156" t="n">
-        <v>59</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-2596328.941906565</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>260</v>
-      </c>
-      <c r="C157" t="n">
-        <v>260</v>
-      </c>
-      <c r="D157" t="n">
-        <v>260</v>
-      </c>
-      <c r="E157" t="n">
-        <v>260</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1120.5118</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-2596328.941906565</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>260</v>
-      </c>
-      <c r="C158" t="n">
-        <v>260</v>
-      </c>
-      <c r="D158" t="n">
-        <v>260</v>
-      </c>
-      <c r="E158" t="n">
-        <v>260</v>
-      </c>
-      <c r="F158" t="n">
-        <v>417.896</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-2596328.941906565</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>260</v>
-      </c>
-      <c r="C159" t="n">
-        <v>260</v>
-      </c>
-      <c r="D159" t="n">
-        <v>260</v>
-      </c>
-      <c r="E159" t="n">
-        <v>260</v>
-      </c>
-      <c r="F159" t="n">
-        <v>370</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-2596328.941906565</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>260</v>
-      </c>
-      <c r="C160" t="n">
-        <v>260</v>
-      </c>
-      <c r="D160" t="n">
-        <v>260</v>
-      </c>
-      <c r="E160" t="n">
-        <v>260</v>
-      </c>
-      <c r="F160" t="n">
-        <v>12833.7998</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-2596328.941906565</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>261</v>
-      </c>
-      <c r="C161" t="n">
-        <v>261</v>
-      </c>
-      <c r="D161" t="n">
-        <v>261</v>
-      </c>
-      <c r="E161" t="n">
-        <v>261</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-2596327.941906565</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>261</v>
-      </c>
-      <c r="C162" t="n">
-        <v>261</v>
-      </c>
-      <c r="D162" t="n">
-        <v>261</v>
-      </c>
-      <c r="E162" t="n">
-        <v>261</v>
-      </c>
-      <c r="F162" t="n">
-        <v>17.9175</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-2596327.941906565</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>261</v>
-      </c>
-      <c r="C163" t="n">
-        <v>261</v>
-      </c>
-      <c r="D163" t="n">
-        <v>261</v>
-      </c>
-      <c r="E163" t="n">
-        <v>261</v>
-      </c>
-      <c r="F163" t="n">
-        <v>51.6071</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-2596327.941906565</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>261</v>
-      </c>
-      <c r="C164" t="n">
-        <v>258</v>
-      </c>
-      <c r="D164" t="n">
-        <v>261</v>
-      </c>
-      <c r="E164" t="n">
-        <v>258</v>
-      </c>
-      <c r="F164" t="n">
-        <v>220.7885</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-2596548.730406565</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>258</v>
-      </c>
-      <c r="C165" t="n">
-        <v>252</v>
-      </c>
-      <c r="D165" t="n">
-        <v>258</v>
-      </c>
-      <c r="E165" t="n">
-        <v>252</v>
-      </c>
-      <c r="F165" t="n">
-        <v>29996.6895</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-2626545.419906565</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>259</v>
-      </c>
-      <c r="C166" t="n">
-        <v>259</v>
-      </c>
-      <c r="D166" t="n">
-        <v>259</v>
-      </c>
-      <c r="E166" t="n">
-        <v>259</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-2626544.419906565</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>259</v>
-      </c>
-      <c r="C167" t="n">
-        <v>259</v>
-      </c>
-      <c r="D167" t="n">
-        <v>259</v>
-      </c>
-      <c r="E167" t="n">
-        <v>259</v>
-      </c>
-      <c r="F167" t="n">
-        <v>21.0424</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-2626544.419906565</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>255</v>
-      </c>
-      <c r="C168" t="n">
-        <v>254</v>
-      </c>
-      <c r="D168" t="n">
-        <v>255</v>
-      </c>
-      <c r="E168" t="n">
-        <v>253</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1827.4304</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-2628371.850306565</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>252</v>
-      </c>
-      <c r="C169" t="n">
-        <v>252</v>
-      </c>
-      <c r="D169" t="n">
-        <v>252</v>
-      </c>
-      <c r="E169" t="n">
-        <v>252</v>
-      </c>
-      <c r="F169" t="n">
-        <v>3236.7585</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-2631608.608806565</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>253</v>
-      </c>
-      <c r="C170" t="n">
-        <v>252</v>
-      </c>
-      <c r="D170" t="n">
-        <v>253</v>
-      </c>
-      <c r="E170" t="n">
-        <v>252</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1043.762</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-2631608.608806565</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>255</v>
-      </c>
-      <c r="C171" t="n">
-        <v>255</v>
-      </c>
-      <c r="D171" t="n">
-        <v>255</v>
-      </c>
-      <c r="E171" t="n">
-        <v>255</v>
-      </c>
-      <c r="F171" t="n">
-        <v>4.7603</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-2631603.848506565</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>255</v>
-      </c>
-      <c r="C172" t="n">
-        <v>255</v>
-      </c>
-      <c r="D172" t="n">
-        <v>255</v>
-      </c>
-      <c r="E172" t="n">
-        <v>255</v>
-      </c>
-      <c r="F172" t="n">
-        <v>189.3992</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-2631603.848506565</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>258</v>
-      </c>
-      <c r="C173" t="n">
-        <v>258</v>
-      </c>
-      <c r="D173" t="n">
-        <v>258</v>
-      </c>
-      <c r="E173" t="n">
-        <v>258</v>
-      </c>
-      <c r="F173" t="n">
-        <v>2</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-2631601.848506565</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>256</v>
-      </c>
-      <c r="C174" t="n">
-        <v>256</v>
-      </c>
-      <c r="D174" t="n">
-        <v>256</v>
-      </c>
-      <c r="E174" t="n">
-        <v>256</v>
-      </c>
-      <c r="F174" t="n">
-        <v>102.99</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-2631704.838506565</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
+      <c r="N132" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-15 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-15 BackTest TRUE.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N132"/>
+  <dimension ref="A1:N203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C2" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D2" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E2" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F2" t="n">
-        <v>2035210</v>
+        <v>822400</v>
       </c>
       <c r="G2" t="n">
-        <v>-2603289.6692</v>
+        <v>244547.5915</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C3" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D3" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E3" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F3" t="n">
-        <v>2029163.724</v>
+        <v>822400</v>
       </c>
       <c r="G3" t="n">
-        <v>-2603289.6692</v>
+        <v>244547.5915</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,38 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C4" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D4" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E4" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F4" t="n">
-        <v>2048543.717</v>
+        <v>704472.1</v>
       </c>
       <c r="G4" t="n">
-        <v>-2603289.6692</v>
+        <v>244547.5915</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>248</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -552,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C5" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D5" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E5" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F5" t="n">
-        <v>2050230</v>
+        <v>910737.745</v>
       </c>
       <c r="G5" t="n">
-        <v>-2603289.6692</v>
+        <v>244547.5915</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -577,11 +571,7 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -592,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C6" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D6" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E6" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F6" t="n">
-        <v>2035210</v>
+        <v>939549.916</v>
       </c>
       <c r="G6" t="n">
-        <v>-2603289.6692</v>
+        <v>244547.5915</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -617,11 +607,7 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -632,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C7" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D7" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E7" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F7" t="n">
-        <v>2050230</v>
+        <v>955314.061</v>
       </c>
       <c r="G7" t="n">
-        <v>-2603289.6692</v>
+        <v>244547.5915</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -657,11 +643,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -672,36 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C8" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D8" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E8" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F8" t="n">
-        <v>2065250</v>
+        <v>582572.839</v>
       </c>
       <c r="G8" t="n">
-        <v>-2603289.6692</v>
+        <v>-338025.2475000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -712,36 +690,36 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C9" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D9" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E9" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F9" t="n">
-        <v>1659710</v>
+        <v>1957500</v>
       </c>
       <c r="G9" t="n">
-        <v>-2603289.6692</v>
+        <v>-338025.2475000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="n">
+        <v>250</v>
+      </c>
+      <c r="K9" t="n">
+        <v>250</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -752,34 +730,36 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C10" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D10" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E10" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F10" t="n">
-        <v>2288.439</v>
+        <v>1948457.7315</v>
       </c>
       <c r="G10" t="n">
-        <v>-2601001.2302</v>
+        <v>-338025.2475000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>250</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -804,22 +784,26 @@
         <v>250</v>
       </c>
       <c r="F11" t="n">
-        <v>21.5496</v>
+        <v>1899342.2685</v>
       </c>
       <c r="G11" t="n">
-        <v>-2600979.6806</v>
+        <v>-338025.2475000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>250</v>
+      </c>
+      <c r="K11" t="n">
+        <v>250</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -844,24 +828,24 @@
         <v>250</v>
       </c>
       <c r="F12" t="n">
-        <v>10.9856</v>
+        <v>1925657.7315</v>
       </c>
       <c r="G12" t="n">
-        <v>-2600979.6806</v>
+        <v>-338025.2475000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>250</v>
+      </c>
+      <c r="K12" t="n">
+        <v>250</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -884,22 +868,26 @@
         <v>250</v>
       </c>
       <c r="F13" t="n">
-        <v>9.8872</v>
+        <v>1953113.2449</v>
       </c>
       <c r="G13" t="n">
-        <v>-2600979.6806</v>
+        <v>-338025.2475000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>250</v>
+      </c>
+      <c r="K13" t="n">
+        <v>250</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -924,22 +912,26 @@
         <v>250</v>
       </c>
       <c r="F14" t="n">
-        <v>4.0543</v>
+        <v>1541886.7551</v>
       </c>
       <c r="G14" t="n">
-        <v>-2600979.6806</v>
+        <v>-338025.2475000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>250</v>
+      </c>
+      <c r="K14" t="n">
+        <v>250</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -952,36 +944,36 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>249</v>
+      </c>
+      <c r="C15" t="n">
+        <v>249</v>
+      </c>
+      <c r="D15" t="n">
+        <v>249</v>
+      </c>
+      <c r="E15" t="n">
+        <v>249</v>
+      </c>
+      <c r="F15" t="n">
+        <v>517596.924</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-855622.1715000001</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
         <v>250</v>
       </c>
-      <c r="C15" t="n">
+      <c r="K15" t="n">
         <v>250</v>
       </c>
-      <c r="D15" t="n">
-        <v>250</v>
-      </c>
-      <c r="E15" t="n">
-        <v>250</v>
-      </c>
-      <c r="F15" t="n">
-        <v>219.543</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-2600979.6806</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -992,34 +984,38 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>249</v>
+      </c>
+      <c r="C16" t="n">
+        <v>249</v>
+      </c>
+      <c r="D16" t="n">
+        <v>249</v>
+      </c>
+      <c r="E16" t="n">
+        <v>249</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1920000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-855622.1715000001</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>249</v>
+      </c>
+      <c r="K16" t="n">
         <v>250</v>
       </c>
-      <c r="C16" t="n">
-        <v>250</v>
-      </c>
-      <c r="D16" t="n">
-        <v>250</v>
-      </c>
-      <c r="E16" t="n">
-        <v>250</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-2600979.6806</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -1035,31 +1031,35 @@
         <v>249</v>
       </c>
       <c r="C17" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D17" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E17" t="n">
         <v>249</v>
       </c>
       <c r="F17" t="n">
-        <v>56.1435</v>
+        <v>1942500</v>
       </c>
       <c r="G17" t="n">
-        <v>-2600979.6806</v>
+        <v>-855622.1715000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>249</v>
+      </c>
+      <c r="K17" t="n">
+        <v>250</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1072,36 +1072,36 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C18" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D18" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E18" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F18" t="n">
-        <v>4000</v>
+        <v>1927500</v>
       </c>
       <c r="G18" t="n">
-        <v>-2596979.6806</v>
+        <v>-855622.1715000001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>249</v>
+      </c>
+      <c r="K18" t="n">
+        <v>249</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1112,34 +1112,38 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C19" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D19" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E19" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F19" t="n">
-        <v>3940.0213</v>
+        <v>1965000</v>
       </c>
       <c r="G19" t="n">
-        <v>-2596979.6806</v>
+        <v>-855622.1715000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>249</v>
+      </c>
+      <c r="K19" t="n">
+        <v>249</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1152,34 +1156,38 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C20" t="n">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D20" t="n">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E20" t="n">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F20" t="n">
-        <v>656.774</v>
+        <v>1942790.772</v>
       </c>
       <c r="G20" t="n">
-        <v>-2596322.9066</v>
+        <v>-855622.1715000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>249</v>
+      </c>
+      <c r="K20" t="n">
+        <v>249</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -1192,36 +1200,36 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C21" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D21" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E21" t="n">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F21" t="n">
-        <v>18740.3917</v>
+        <v>1950000</v>
       </c>
       <c r="G21" t="n">
-        <v>-2577582.5149</v>
+        <v>-855622.1715000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>249</v>
+      </c>
+      <c r="K21" t="n">
+        <v>249</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1232,34 +1240,38 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C22" t="n">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D22" t="n">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E22" t="n">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>812743.2561</v>
       </c>
       <c r="G22" t="n">
-        <v>-2577580.5149</v>
+        <v>-855622.1715000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>249</v>
+      </c>
+      <c r="K22" t="n">
+        <v>249</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M22" t="n">
@@ -1272,34 +1284,38 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C23" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D23" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E23" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F23" t="n">
-        <v>1.9766</v>
+        <v>1747667.4977</v>
       </c>
       <c r="G23" t="n">
-        <v>-2577578.5383</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>249</v>
+      </c>
+      <c r="K23" t="n">
+        <v>249</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M23" t="n">
@@ -1312,36 +1328,36 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C24" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D24" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E24" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F24" t="n">
-        <v>1374.8132</v>
+        <v>719697.4054</v>
       </c>
       <c r="G24" t="n">
-        <v>-2577578.5383</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="n">
+        <v>248</v>
+      </c>
+      <c r="K24" t="n">
+        <v>248</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1352,34 +1368,38 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C25" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D25" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E25" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F25" t="n">
-        <v>325.2607</v>
+        <v>1980000</v>
       </c>
       <c r="G25" t="n">
-        <v>-2577578.5383</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>248</v>
+      </c>
+      <c r="K25" t="n">
+        <v>248</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -1392,34 +1412,38 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C26" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D26" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E26" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F26" t="n">
-        <v>575.8647</v>
+        <v>1965467</v>
       </c>
       <c r="G26" t="n">
-        <v>-2577578.5383</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>248</v>
+      </c>
+      <c r="K26" t="n">
+        <v>248</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1432,22 +1456,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C27" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D27" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E27" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F27" t="n">
-        <v>7945.7548</v>
+        <v>1950000</v>
       </c>
       <c r="G27" t="n">
-        <v>-2577578.5383</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1457,11 +1481,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1472,22 +1492,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C28" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D28" t="n">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E28" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F28" t="n">
-        <v>3956.4586</v>
+        <v>1995000</v>
       </c>
       <c r="G28" t="n">
-        <v>-2581534.9969</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1497,11 +1517,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1512,22 +1528,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C29" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D29" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E29" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F29" t="n">
-        <v>3833.108393436293</v>
+        <v>1957500</v>
       </c>
       <c r="G29" t="n">
-        <v>-2577701.888506563</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1537,11 +1553,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1552,22 +1564,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C30" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D30" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E30" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F30" t="n">
-        <v>565.066</v>
+        <v>1935000</v>
       </c>
       <c r="G30" t="n">
-        <v>-2578266.954506563</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1577,11 +1589,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1592,22 +1600,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C31" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D31" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E31" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F31" t="n">
-        <v>324.4475</v>
+        <v>1972500</v>
       </c>
       <c r="G31" t="n">
-        <v>-2578266.954506563</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1617,11 +1625,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1632,22 +1636,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C32" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D32" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E32" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F32" t="n">
-        <v>131.0635</v>
+        <v>1980000</v>
       </c>
       <c r="G32" t="n">
-        <v>-2578135.891006563</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1657,11 +1661,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1672,22 +1672,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C33" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D33" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E33" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F33" t="n">
-        <v>259.6286</v>
+        <v>407725.9516</v>
       </c>
       <c r="G33" t="n">
-        <v>-2577876.262406563</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1697,11 +1697,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1712,22 +1708,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C34" t="n">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D34" t="n">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E34" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F34" t="n">
-        <v>698</v>
+        <v>22785</v>
       </c>
       <c r="G34" t="n">
-        <v>-2577178.262406563</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1737,11 +1733,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1752,22 +1744,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C35" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D35" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E35" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F35" t="n">
-        <v>1148.1739</v>
+        <v>1672400.6976</v>
       </c>
       <c r="G35" t="n">
-        <v>-2578326.436306563</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1777,11 +1769,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1792,22 +1780,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C36" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D36" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E36" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F36" t="n">
-        <v>194</v>
+        <v>1620599.3024</v>
       </c>
       <c r="G36" t="n">
-        <v>-2578326.436306563</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1817,11 +1805,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1832,22 +1816,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C37" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D37" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E37" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F37" t="n">
-        <v>57</v>
+        <v>1517000</v>
       </c>
       <c r="G37" t="n">
-        <v>-2578326.436306563</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1857,11 +1841,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1872,22 +1852,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C38" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D38" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E38" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F38" t="n">
-        <v>163.237</v>
+        <v>1998000</v>
       </c>
       <c r="G38" t="n">
-        <v>-2578489.673306563</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1897,11 +1877,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1912,22 +1888,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C39" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D39" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E39" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F39" t="n">
-        <v>269.325</v>
+        <v>1990600</v>
       </c>
       <c r="G39" t="n">
-        <v>-2578489.673306563</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1937,11 +1913,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1952,22 +1924,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C40" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D40" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E40" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F40" t="n">
-        <v>25</v>
+        <v>1975800</v>
       </c>
       <c r="G40" t="n">
-        <v>-2578489.673306563</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1977,11 +1949,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1992,22 +1960,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C41" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D41" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E41" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F41" t="n">
-        <v>145.706</v>
+        <v>1990600</v>
       </c>
       <c r="G41" t="n">
-        <v>-2578489.673306563</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2017,11 +1985,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2032,22 +1996,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C42" t="n">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D42" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E42" t="n">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F42" t="n">
-        <v>11160.7344</v>
+        <v>2005400</v>
       </c>
       <c r="G42" t="n">
-        <v>-2589650.407706563</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2057,11 +2021,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2072,22 +2032,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C43" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D43" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E43" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F43" t="n">
-        <v>1058.823</v>
+        <v>1953600</v>
       </c>
       <c r="G43" t="n">
-        <v>-2588591.584706564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2097,11 +2057,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2112,22 +2068,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C44" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D44" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E44" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F44" t="n">
-        <v>9777.8734</v>
+        <v>1961000</v>
       </c>
       <c r="G44" t="n">
-        <v>-2578813.711306564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2137,11 +2093,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2152,22 +2104,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C45" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D45" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E45" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F45" t="n">
-        <v>40.0869</v>
+        <v>1968400</v>
       </c>
       <c r="G45" t="n">
-        <v>-2578853.798206564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2177,11 +2129,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2192,22 +2140,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C46" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D46" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E46" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F46" t="n">
-        <v>297.4911</v>
+        <v>1975800</v>
       </c>
       <c r="G46" t="n">
-        <v>-2578853.798206564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2217,11 +2165,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2232,22 +2176,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C47" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D47" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E47" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F47" t="n">
-        <v>7292.8418</v>
+        <v>1983200</v>
       </c>
       <c r="G47" t="n">
-        <v>-2578853.798206564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2257,11 +2201,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2272,22 +2212,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C48" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D48" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E48" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F48" t="n">
-        <v>2130.5059</v>
+        <v>1998000</v>
       </c>
       <c r="G48" t="n">
-        <v>-2578853.798206564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2297,11 +2237,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2312,38 +2248,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C49" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D49" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E49" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F49" t="n">
-        <v>1389.0609</v>
+        <v>1998000</v>
       </c>
       <c r="G49" t="n">
-        <v>-2578853.798206564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>253</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2354,22 +2284,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C50" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D50" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E50" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F50" t="n">
-        <v>1351.4387</v>
+        <v>2020201</v>
       </c>
       <c r="G50" t="n">
-        <v>-2578853.798206564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2379,11 +2309,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2394,38 +2320,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C51" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D51" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E51" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F51" t="n">
-        <v>4658.8701</v>
+        <v>2027600</v>
       </c>
       <c r="G51" t="n">
-        <v>-2574194.928106564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>253</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2436,22 +2356,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C52" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D52" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E52" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F52" t="n">
-        <v>40.899</v>
+        <v>2005400</v>
       </c>
       <c r="G52" t="n">
-        <v>-2574235.827106564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2461,11 +2381,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2476,22 +2392,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C53" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D53" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E53" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>2020200</v>
       </c>
       <c r="G53" t="n">
-        <v>-2574230.827106564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2501,11 +2417,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2516,22 +2428,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C54" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D54" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E54" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F54" t="n">
-        <v>229.5</v>
+        <v>2027600</v>
       </c>
       <c r="G54" t="n">
-        <v>-2574230.827106564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2541,11 +2453,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2556,22 +2464,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C55" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D55" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E55" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F55" t="n">
-        <v>3057.6137</v>
+        <v>2027600</v>
       </c>
       <c r="G55" t="n">
-        <v>-2571173.213406564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2581,11 +2489,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2596,22 +2500,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C56" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D56" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E56" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F56" t="n">
-        <v>6570.4591</v>
+        <v>2012800</v>
       </c>
       <c r="G56" t="n">
-        <v>-2571173.213406564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2621,11 +2525,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2636,22 +2536,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C57" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D57" t="n">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E57" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F57" t="n">
-        <v>21476.6115</v>
+        <v>2006899</v>
       </c>
       <c r="G57" t="n">
-        <v>-2571173.213406564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2661,11 +2561,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2676,22 +2572,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C58" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D58" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E58" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F58" t="n">
-        <v>3489.8942</v>
+        <v>2012801</v>
       </c>
       <c r="G58" t="n">
-        <v>-2571173.213406564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2701,11 +2597,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2716,22 +2608,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C59" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D59" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E59" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F59" t="n">
-        <v>11447.92</v>
+        <v>2020200</v>
       </c>
       <c r="G59" t="n">
-        <v>-2582621.133406564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2741,11 +2633,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2756,22 +2644,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C60" t="n">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D60" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E60" t="n">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F60" t="n">
-        <v>5326.1194</v>
+        <v>2012800</v>
       </c>
       <c r="G60" t="n">
-        <v>-2587947.252806564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2781,11 +2669,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2796,22 +2680,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C61" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D61" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E61" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F61" t="n">
-        <v>1151.0412</v>
+        <v>2012800</v>
       </c>
       <c r="G61" t="n">
-        <v>-2586796.211606564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2821,11 +2705,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2836,22 +2716,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C62" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D62" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E62" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F62" t="n">
-        <v>1020.472</v>
+        <v>2034999</v>
       </c>
       <c r="G62" t="n">
-        <v>-2586796.211606564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2861,11 +2741,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2876,22 +2752,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C63" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D63" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E63" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F63" t="n">
-        <v>503.815</v>
+        <v>1990601</v>
       </c>
       <c r="G63" t="n">
-        <v>-2586796.211606564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2901,11 +2777,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2916,22 +2788,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C64" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D64" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E64" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F64" t="n">
-        <v>48.6054</v>
+        <v>2027600</v>
       </c>
       <c r="G64" t="n">
-        <v>-2586796.211606564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2941,11 +2813,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2956,22 +2824,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C65" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D65" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E65" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F65" t="n">
-        <v>3581.7222</v>
+        <v>2012800</v>
       </c>
       <c r="G65" t="n">
-        <v>-2586796.211606564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2981,11 +2849,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2996,22 +2860,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C66" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D66" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E66" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>554999</v>
       </c>
       <c r="G66" t="n">
-        <v>-2586795.211606564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3021,11 +2885,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3036,22 +2896,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C67" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D67" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E67" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F67" t="n">
-        <v>9402.861000000001</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>-2596198.072606564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3061,11 +2921,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3076,22 +2932,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C68" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D68" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E68" t="n">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F68" t="n">
-        <v>1370.123</v>
+        <v>24818.439</v>
       </c>
       <c r="G68" t="n">
-        <v>-2594827.949606564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3101,11 +2957,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3116,22 +2968,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C69" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D69" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E69" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F69" t="n">
-        <v>3564.4094</v>
+        <v>1749830</v>
       </c>
       <c r="G69" t="n">
-        <v>-2591263.540206564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3141,11 +2993,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3156,22 +3004,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C70" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D70" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E70" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F70" t="n">
-        <v>49.5478</v>
+        <v>2046724</v>
       </c>
       <c r="G70" t="n">
-        <v>-2591263.540206564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3181,11 +3029,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3196,22 +3040,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C71" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D71" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E71" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F71" t="n">
-        <v>1179</v>
+        <v>2042720</v>
       </c>
       <c r="G71" t="n">
-        <v>-2592442.540206564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3221,11 +3065,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3236,22 +3076,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C72" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D72" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E72" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F72" t="n">
-        <v>135.7099</v>
+        <v>2042720</v>
       </c>
       <c r="G72" t="n">
-        <v>-2592306.830306564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3261,11 +3101,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3276,22 +3112,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C73" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D73" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E73" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F73" t="n">
-        <v>4401.9512</v>
+        <v>2035210</v>
       </c>
       <c r="G73" t="n">
-        <v>-2592306.830306564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3301,11 +3137,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3316,22 +3148,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C74" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D74" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E74" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F74" t="n">
-        <v>2001.0102</v>
+        <v>2029163.724</v>
       </c>
       <c r="G74" t="n">
-        <v>-2590305.820106564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3341,11 +3173,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3356,22 +3184,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C75" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D75" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E75" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F75" t="n">
-        <v>3046.8054</v>
+        <v>2048543.717</v>
       </c>
       <c r="G75" t="n">
-        <v>-2590305.820106564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3381,11 +3209,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3396,22 +3220,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C76" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D76" t="n">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E76" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F76" t="n">
-        <v>889.4</v>
+        <v>2050230</v>
       </c>
       <c r="G76" t="n">
-        <v>-2590305.820106564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3421,11 +3245,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3436,22 +3256,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C77" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D77" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E77" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F77" t="n">
-        <v>1050.6962</v>
+        <v>2035210</v>
       </c>
       <c r="G77" t="n">
-        <v>-2590305.820106564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3461,11 +3281,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3476,22 +3292,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C78" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D78" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E78" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F78" t="n">
-        <v>1240.619</v>
+        <v>2050230</v>
       </c>
       <c r="G78" t="n">
-        <v>-2591546.439106564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3501,11 +3317,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3516,22 +3328,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C79" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D79" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E79" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F79" t="n">
-        <v>1376.09</v>
+        <v>2065250</v>
       </c>
       <c r="G79" t="n">
-        <v>-2590170.349106564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3541,11 +3353,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3556,22 +3364,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C80" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D80" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E80" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F80" t="n">
-        <v>301.4138</v>
+        <v>1659710</v>
       </c>
       <c r="G80" t="n">
-        <v>-2590471.762906564</v>
+        <v>-2603289.6692</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3581,11 +3389,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3596,22 +3400,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C81" t="n">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D81" t="n">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E81" t="n">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F81" t="n">
-        <v>1945.6915</v>
+        <v>2288.439</v>
       </c>
       <c r="G81" t="n">
-        <v>-2592417.454406565</v>
+        <v>-2601001.2302</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3621,11 +3425,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3636,22 +3436,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C82" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D82" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E82" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F82" t="n">
-        <v>160.649</v>
+        <v>21.5496</v>
       </c>
       <c r="G82" t="n">
-        <v>-2592417.454406565</v>
+        <v>-2600979.6806</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3661,11 +3461,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3676,22 +3472,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C83" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D83" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E83" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F83" t="n">
-        <v>1171.6507</v>
+        <v>10.9856</v>
       </c>
       <c r="G83" t="n">
-        <v>-2592417.454406565</v>
+        <v>-2600979.6806</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3701,11 +3497,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3716,38 +3508,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C84" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D84" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E84" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F84" t="n">
-        <v>978.5</v>
+        <v>9.8872</v>
       </c>
       <c r="G84" t="n">
-        <v>-2592417.454406565</v>
+        <v>-2600979.6806</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>255</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3758,38 +3544,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C85" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D85" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E85" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F85" t="n">
-        <v>1730.3581</v>
+        <v>4.0543</v>
       </c>
       <c r="G85" t="n">
-        <v>-2590687.096306565</v>
+        <v>-2600979.6806</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>255</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3800,22 +3580,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C86" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D86" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E86" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F86" t="n">
-        <v>138</v>
+        <v>219.543</v>
       </c>
       <c r="G86" t="n">
-        <v>-2590549.096306565</v>
+        <v>-2600979.6806</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3825,11 +3605,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3840,22 +3616,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C87" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D87" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E87" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F87" t="n">
-        <v>417.9316</v>
+        <v>0.0002</v>
       </c>
       <c r="G87" t="n">
-        <v>-2590967.027906565</v>
+        <v>-2600979.6806</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3865,11 +3641,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3880,22 +3652,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C88" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D88" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E88" t="n">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F88" t="n">
-        <v>1200</v>
+        <v>56.1435</v>
       </c>
       <c r="G88" t="n">
-        <v>-2590967.027906565</v>
+        <v>-2600979.6806</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3905,11 +3677,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3920,22 +3688,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C89" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D89" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E89" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F89" t="n">
-        <v>412.5578</v>
+        <v>4000</v>
       </c>
       <c r="G89" t="n">
-        <v>-2590967.027906565</v>
+        <v>-2596979.6806</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3945,11 +3713,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3960,22 +3724,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C90" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D90" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E90" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F90" t="n">
-        <v>565</v>
+        <v>3940.0213</v>
       </c>
       <c r="G90" t="n">
-        <v>-2590967.027906565</v>
+        <v>-2596979.6806</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3985,11 +3749,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4000,38 +3760,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C91" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D91" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E91" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F91" t="n">
-        <v>1835.2328</v>
+        <v>656.774</v>
       </c>
       <c r="G91" t="n">
-        <v>-2590967.027906565</v>
+        <v>-2596322.9066</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>257</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4042,38 +3796,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C92" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D92" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E92" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F92" t="n">
-        <v>6473.8846</v>
+        <v>18740.3917</v>
       </c>
       <c r="G92" t="n">
-        <v>-2590967.027906565</v>
+        <v>-2577582.5149</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>257</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4084,38 +3832,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C93" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D93" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E93" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F93" t="n">
-        <v>1556.1</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>-2590967.027906565</v>
+        <v>-2577580.5149</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>257</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4138,26 +3880,20 @@
         <v>257</v>
       </c>
       <c r="F94" t="n">
-        <v>174.459</v>
+        <v>1.9766</v>
       </c>
       <c r="G94" t="n">
-        <v>-2590967.027906565</v>
+        <v>-2577578.5383</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>257</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4168,22 +3904,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C95" t="n">
         <v>257</v>
       </c>
       <c r="D95" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E95" t="n">
         <v>257</v>
       </c>
       <c r="F95" t="n">
-        <v>205.997</v>
+        <v>1374.8132</v>
       </c>
       <c r="G95" t="n">
-        <v>-2590967.027906565</v>
+        <v>-2577578.5383</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4193,11 +3929,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4208,22 +3940,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C96" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D96" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E96" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>325.2607</v>
       </c>
       <c r="G96" t="n">
-        <v>-2590966.027906565</v>
+        <v>-2577578.5383</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4233,11 +3965,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4248,38 +3976,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C97" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D97" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E97" t="n">
         <v>257</v>
       </c>
       <c r="F97" t="n">
-        <v>2263.1039</v>
+        <v>575.8647</v>
       </c>
       <c r="G97" t="n">
-        <v>-2593229.131806565</v>
+        <v>-2577578.5383</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>259</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4290,22 +4012,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C98" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D98" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E98" t="n">
         <v>257</v>
       </c>
       <c r="F98" t="n">
-        <v>4603.6912</v>
+        <v>7945.7548</v>
       </c>
       <c r="G98" t="n">
-        <v>-2588625.440606565</v>
+        <v>-2577578.5383</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4315,11 +4037,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4330,22 +4048,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C99" t="n">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D99" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E99" t="n">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>3956.4586</v>
       </c>
       <c r="G99" t="n">
-        <v>-2588624.440606565</v>
+        <v>-2581534.9969</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4355,11 +4073,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4370,7 +4084,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C100" t="n">
         <v>259</v>
@@ -4379,13 +4093,13 @@
         <v>259</v>
       </c>
       <c r="E100" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F100" t="n">
-        <v>3240.9459</v>
+        <v>3833.108393436293</v>
       </c>
       <c r="G100" t="n">
-        <v>-2591865.386506565</v>
+        <v>-2577701.888506563</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4395,11 +4109,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4410,22 +4120,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C101" t="n">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D101" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E101" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F101" t="n">
-        <v>2120.878</v>
+        <v>565.066</v>
       </c>
       <c r="G101" t="n">
-        <v>-2591865.386506565</v>
+        <v>-2578266.954506563</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4435,11 +4145,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4450,22 +4156,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C102" t="n">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D102" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E102" t="n">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F102" t="n">
-        <v>12</v>
+        <v>324.4475</v>
       </c>
       <c r="G102" t="n">
-        <v>-2591853.386506565</v>
+        <v>-2578266.954506563</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4475,11 +4181,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4490,22 +4192,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C103" t="n">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D103" t="n">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E103" t="n">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>131.0635</v>
       </c>
       <c r="G103" t="n">
-        <v>-2591854.386506565</v>
+        <v>-2578135.891006563</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4515,11 +4217,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4530,22 +4228,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C104" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D104" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E104" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F104" t="n">
-        <v>1897.9152</v>
+        <v>259.6286</v>
       </c>
       <c r="G104" t="n">
-        <v>-2593752.301706565</v>
+        <v>-2577876.262406563</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4555,11 +4253,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4570,7 +4264,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C105" t="n">
         <v>260</v>
@@ -4579,29 +4273,23 @@
         <v>260</v>
       </c>
       <c r="E105" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>698</v>
       </c>
       <c r="G105" t="n">
-        <v>-2593751.301706565</v>
+        <v>-2577178.262406563</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>257</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4612,38 +4300,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C106" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D106" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E106" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F106" t="n">
-        <v>494.802</v>
+        <v>1148.1739</v>
       </c>
       <c r="G106" t="n">
-        <v>-2593751.301706565</v>
+        <v>-2578326.436306563</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>260</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4654,22 +4336,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C107" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D107" t="n">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E107" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F107" t="n">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="G107" t="n">
-        <v>-2593751.301706565</v>
+        <v>-2578326.436306563</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4679,11 +4361,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4694,22 +4372,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C108" t="n">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D108" t="n">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E108" t="n">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="G108" t="n">
-        <v>-2593750.301706565</v>
+        <v>-2578326.436306563</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4719,11 +4397,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4734,39 +4408,35 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C109" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D109" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E109" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F109" t="n">
-        <v>0.2826</v>
+        <v>163.237</v>
       </c>
       <c r="G109" t="n">
-        <v>-2593750.584306565</v>
+        <v>-2578489.673306563</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
       <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -4774,508 +4444,440 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C110" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D110" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E110" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F110" t="n">
-        <v>131.304</v>
+        <v>269.325</v>
       </c>
       <c r="G110" t="n">
-        <v>-2593881.888306565</v>
+        <v>-2578489.673306563</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>260</v>
-      </c>
-      <c r="K110" t="n">
-        <v>261</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>255</v>
+      </c>
+      <c r="C111" t="n">
+        <v>255</v>
+      </c>
+      <c r="D111" t="n">
+        <v>255</v>
+      </c>
+      <c r="E111" t="n">
+        <v>255</v>
+      </c>
+      <c r="F111" t="n">
+        <v>25</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-2578489.673306563</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>255</v>
+      </c>
+      <c r="C112" t="n">
+        <v>255</v>
+      </c>
+      <c r="D112" t="n">
+        <v>255</v>
+      </c>
+      <c r="E112" t="n">
+        <v>255</v>
+      </c>
+      <c r="F112" t="n">
+        <v>145.706</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-2578489.673306563</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>255</v>
+      </c>
+      <c r="C113" t="n">
+        <v>251</v>
+      </c>
+      <c r="D113" t="n">
+        <v>255</v>
+      </c>
+      <c r="E113" t="n">
+        <v>251</v>
+      </c>
+      <c r="F113" t="n">
+        <v>11160.7344</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-2589650.407706563</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>252</v>
+      </c>
+      <c r="C114" t="n">
+        <v>252</v>
+      </c>
+      <c r="D114" t="n">
+        <v>252</v>
+      </c>
+      <c r="E114" t="n">
+        <v>252</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1058.823</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-2588591.584706564</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>251</v>
+      </c>
+      <c r="C115" t="n">
+        <v>254</v>
+      </c>
+      <c r="D115" t="n">
+        <v>254</v>
+      </c>
+      <c r="E115" t="n">
+        <v>250</v>
+      </c>
+      <c r="F115" t="n">
+        <v>9777.8734</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-2578813.711306564</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>253</v>
+      </c>
+      <c r="C116" t="n">
+        <v>253</v>
+      </c>
+      <c r="D116" t="n">
+        <v>253</v>
+      </c>
+      <c r="E116" t="n">
+        <v>253</v>
+      </c>
+      <c r="F116" t="n">
+        <v>40.0869</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-2578853.798206564</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>253</v>
+      </c>
+      <c r="C117" t="n">
+        <v>253</v>
+      </c>
+      <c r="D117" t="n">
+        <v>253</v>
+      </c>
+      <c r="E117" t="n">
+        <v>253</v>
+      </c>
+      <c r="F117" t="n">
+        <v>297.4911</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-2578853.798206564</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>253</v>
+      </c>
+      <c r="C118" t="n">
+        <v>253</v>
+      </c>
+      <c r="D118" t="n">
+        <v>253</v>
+      </c>
+      <c r="E118" t="n">
+        <v>253</v>
+      </c>
+      <c r="F118" t="n">
+        <v>7292.8418</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-2578853.798206564</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>253</v>
+      </c>
+      <c r="C119" t="n">
+        <v>253</v>
+      </c>
+      <c r="D119" t="n">
+        <v>253</v>
+      </c>
+      <c r="E119" t="n">
+        <v>253</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2130.5059</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-2578853.798206564</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>253</v>
+      </c>
+      <c r="C120" t="n">
+        <v>253</v>
+      </c>
+      <c r="D120" t="n">
+        <v>253</v>
+      </c>
+      <c r="E120" t="n">
+        <v>253</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1389.0609</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-2578853.798206564</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>253</v>
+      </c>
+      <c r="K120" t="n">
+        <v>253</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>253</v>
+      </c>
+      <c r="C121" t="n">
+        <v>253</v>
+      </c>
+      <c r="D121" t="n">
+        <v>253</v>
+      </c>
+      <c r="E121" t="n">
+        <v>253</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1351.4387</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-2578853.798206564</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>253</v>
+      </c>
+      <c r="K121" t="n">
+        <v>253</v>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>258</v>
-      </c>
-      <c r="C111" t="n">
-        <v>256</v>
-      </c>
-      <c r="D111" t="n">
-        <v>258</v>
-      </c>
-      <c r="E111" t="n">
-        <v>256</v>
-      </c>
-      <c r="F111" t="n">
-        <v>2446.0536</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-2596327.941906565</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>258</v>
-      </c>
-      <c r="K111" t="n">
-        <v>261</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>261</v>
-      </c>
-      <c r="C112" t="n">
-        <v>261</v>
-      </c>
-      <c r="D112" t="n">
-        <v>261</v>
-      </c>
-      <c r="E112" t="n">
-        <v>261</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-2596326.941906565</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>256</v>
-      </c>
-      <c r="K112" t="n">
-        <v>261</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>260</v>
-      </c>
-      <c r="C113" t="n">
-        <v>260</v>
-      </c>
-      <c r="D113" t="n">
-        <v>260</v>
-      </c>
-      <c r="E113" t="n">
-        <v>260</v>
-      </c>
-      <c r="F113" t="n">
-        <v>2</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-2596328.941906565</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>261</v>
-      </c>
-      <c r="K113" t="n">
-        <v>261</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>260</v>
-      </c>
-      <c r="C114" t="n">
-        <v>260</v>
-      </c>
-      <c r="D114" t="n">
-        <v>260</v>
-      </c>
-      <c r="E114" t="n">
-        <v>260</v>
-      </c>
-      <c r="F114" t="n">
-        <v>59</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-2596328.941906565</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>261</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>260</v>
-      </c>
-      <c r="C115" t="n">
-        <v>260</v>
-      </c>
-      <c r="D115" t="n">
-        <v>260</v>
-      </c>
-      <c r="E115" t="n">
-        <v>260</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1120.5118</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-2596328.941906565</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>261</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>260</v>
-      </c>
-      <c r="C116" t="n">
-        <v>260</v>
-      </c>
-      <c r="D116" t="n">
-        <v>260</v>
-      </c>
-      <c r="E116" t="n">
-        <v>260</v>
-      </c>
-      <c r="F116" t="n">
-        <v>417.896</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-2596328.941906565</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>261</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>260</v>
-      </c>
-      <c r="C117" t="n">
-        <v>260</v>
-      </c>
-      <c r="D117" t="n">
-        <v>260</v>
-      </c>
-      <c r="E117" t="n">
-        <v>260</v>
-      </c>
-      <c r="F117" t="n">
-        <v>370</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-2596328.941906565</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>261</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>260</v>
-      </c>
-      <c r="C118" t="n">
-        <v>260</v>
-      </c>
-      <c r="D118" t="n">
-        <v>260</v>
-      </c>
-      <c r="E118" t="n">
-        <v>260</v>
-      </c>
-      <c r="F118" t="n">
-        <v>12833.7998</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-2596328.941906565</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>261</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>261</v>
-      </c>
-      <c r="C119" t="n">
-        <v>261</v>
-      </c>
-      <c r="D119" t="n">
-        <v>261</v>
-      </c>
-      <c r="E119" t="n">
-        <v>261</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-2596327.941906565</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>261</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>261</v>
-      </c>
-      <c r="C120" t="n">
-        <v>261</v>
-      </c>
-      <c r="D120" t="n">
-        <v>261</v>
-      </c>
-      <c r="E120" t="n">
-        <v>261</v>
-      </c>
-      <c r="F120" t="n">
-        <v>17.9175</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-2596327.941906565</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>261</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>261</v>
-      </c>
-      <c r="C121" t="n">
-        <v>261</v>
-      </c>
-      <c r="D121" t="n">
-        <v>261</v>
-      </c>
-      <c r="E121" t="n">
-        <v>261</v>
-      </c>
-      <c r="F121" t="n">
-        <v>51.6071</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-2596327.941906565</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>261</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5286,40 +4888,40 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C122" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D122" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E122" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F122" t="n">
-        <v>220.7885</v>
+        <v>4658.8701</v>
       </c>
       <c r="G122" t="n">
-        <v>-2596548.730406565</v>
+        <v>-2574194.928106564</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>0.9835057471264368</v>
+        <v>1</v>
       </c>
       <c r="N122" t="inlineStr"/>
     </row>
@@ -5328,28 +4930,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C123" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D123" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E123" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F123" t="n">
-        <v>29996.6895</v>
+        <v>40.899</v>
       </c>
       <c r="G123" t="n">
-        <v>-2626545.419906565</v>
+        <v>-2574235.827106564</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5364,28 +4966,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C124" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D124" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E124" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G124" t="n">
-        <v>-2626544.419906565</v>
+        <v>-2574230.827106564</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5400,28 +5002,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C125" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D125" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E125" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F125" t="n">
-        <v>21.0424</v>
+        <v>229.5</v>
       </c>
       <c r="G125" t="n">
-        <v>-2626544.419906565</v>
+        <v>-2574230.827106564</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5436,28 +5038,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C126" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D126" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E126" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F126" t="n">
-        <v>1827.4304</v>
+        <v>3057.6137</v>
       </c>
       <c r="G126" t="n">
-        <v>-2628371.850306565</v>
+        <v>-2571173.213406564</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5472,22 +5074,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C127" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D127" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E127" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="F127" t="n">
-        <v>3236.7585</v>
+        <v>6570.4591</v>
       </c>
       <c r="G127" t="n">
-        <v>-2631608.608806565</v>
+        <v>-2571173.213406564</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5508,22 +5110,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C128" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D128" t="n">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E128" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="F128" t="n">
-        <v>1043.762</v>
+        <v>21476.6115</v>
       </c>
       <c r="G128" t="n">
-        <v>-2631608.608806565</v>
+        <v>-2571173.213406564</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5544,22 +5146,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C129" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D129" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E129" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F129" t="n">
-        <v>4.7603</v>
+        <v>3489.8942</v>
       </c>
       <c r="G129" t="n">
-        <v>-2631603.848506565</v>
+        <v>-2571173.213406564</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5580,22 +5182,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C130" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D130" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E130" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F130" t="n">
-        <v>189.3992</v>
+        <v>11447.92</v>
       </c>
       <c r="G130" t="n">
-        <v>-2631603.848506565</v>
+        <v>-2582621.133406564</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5616,35 +5218,31 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C131" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D131" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E131" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F131" t="n">
-        <v>2</v>
+        <v>5326.1194</v>
       </c>
       <c r="G131" t="n">
-        <v>-2631601.848506565</v>
+        <v>-2587947.252806564</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>255</v>
-      </c>
-      <c r="K131" t="n">
-        <v>255</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
@@ -5656,44 +5254,2644 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C132" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D132" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E132" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F132" t="n">
-        <v>102.99</v>
+        <v>1151.0412</v>
       </c>
       <c r="G132" t="n">
-        <v>-2631704.838506565</v>
+        <v>-2586796.211606564</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>258</v>
-      </c>
-      <c r="K132" t="n">
-        <v>255</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>255</v>
+      </c>
+      <c r="C133" t="n">
+        <v>255</v>
+      </c>
+      <c r="D133" t="n">
+        <v>255</v>
+      </c>
+      <c r="E133" t="n">
+        <v>255</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1020.472</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-2586796.211606564</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>255</v>
+      </c>
+      <c r="C134" t="n">
+        <v>255</v>
+      </c>
+      <c r="D134" t="n">
+        <v>255</v>
+      </c>
+      <c r="E134" t="n">
+        <v>255</v>
+      </c>
+      <c r="F134" t="n">
+        <v>503.815</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-2586796.211606564</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>255</v>
+      </c>
+      <c r="C135" t="n">
+        <v>255</v>
+      </c>
+      <c r="D135" t="n">
+        <v>255</v>
+      </c>
+      <c r="E135" t="n">
+        <v>255</v>
+      </c>
+      <c r="F135" t="n">
+        <v>48.6054</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-2586796.211606564</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>255</v>
+      </c>
+      <c r="K135" t="n">
+        <v>255</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>255</v>
+      </c>
+      <c r="C136" t="n">
+        <v>255</v>
+      </c>
+      <c r="D136" t="n">
+        <v>255</v>
+      </c>
+      <c r="E136" t="n">
+        <v>255</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3581.7222</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-2586796.211606564</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>255</v>
+      </c>
+      <c r="K136" t="n">
+        <v>255</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>258</v>
+      </c>
+      <c r="C137" t="n">
+        <v>258</v>
+      </c>
+      <c r="D137" t="n">
+        <v>258</v>
+      </c>
+      <c r="E137" t="n">
+        <v>258</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-2586795.211606564</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>255</v>
+      </c>
+      <c r="K137" t="n">
+        <v>255</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>258</v>
+      </c>
+      <c r="C138" t="n">
+        <v>250</v>
+      </c>
+      <c r="D138" t="n">
+        <v>258</v>
+      </c>
+      <c r="E138" t="n">
+        <v>250</v>
+      </c>
+      <c r="F138" t="n">
+        <v>9402.861000000001</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-2596198.072606564</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>254</v>
+      </c>
+      <c r="C139" t="n">
+        <v>254</v>
+      </c>
+      <c r="D139" t="n">
+        <v>254</v>
+      </c>
+      <c r="E139" t="n">
+        <v>254</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1370.123</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-2594827.949606564</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>250</v>
+      </c>
+      <c r="K139" t="n">
+        <v>250</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>256</v>
+      </c>
+      <c r="C140" t="n">
+        <v>255</v>
+      </c>
+      <c r="D140" t="n">
+        <v>256</v>
+      </c>
+      <c r="E140" t="n">
+        <v>255</v>
+      </c>
+      <c r="F140" t="n">
+        <v>3564.4094</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-2591263.540206564</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>250</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>255</v>
+      </c>
+      <c r="C141" t="n">
+        <v>255</v>
+      </c>
+      <c r="D141" t="n">
+        <v>255</v>
+      </c>
+      <c r="E141" t="n">
+        <v>255</v>
+      </c>
+      <c r="F141" t="n">
+        <v>49.5478</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-2591263.540206564</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>250</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>254</v>
+      </c>
+      <c r="C142" t="n">
+        <v>254</v>
+      </c>
+      <c r="D142" t="n">
+        <v>254</v>
+      </c>
+      <c r="E142" t="n">
+        <v>254</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1179</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-2592442.540206564</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>255</v>
+      </c>
+      <c r="C143" t="n">
+        <v>255</v>
+      </c>
+      <c r="D143" t="n">
+        <v>255</v>
+      </c>
+      <c r="E143" t="n">
+        <v>255</v>
+      </c>
+      <c r="F143" t="n">
+        <v>135.7099</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-2592306.830306564</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>255</v>
+      </c>
+      <c r="C144" t="n">
+        <v>255</v>
+      </c>
+      <c r="D144" t="n">
+        <v>255</v>
+      </c>
+      <c r="E144" t="n">
+        <v>255</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4401.9512</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-2592306.830306564</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>256</v>
+      </c>
+      <c r="C145" t="n">
+        <v>257</v>
+      </c>
+      <c r="D145" t="n">
+        <v>257</v>
+      </c>
+      <c r="E145" t="n">
+        <v>256</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2001.0102</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-2590305.820106564</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>257</v>
+      </c>
+      <c r="C146" t="n">
+        <v>257</v>
+      </c>
+      <c r="D146" t="n">
+        <v>257</v>
+      </c>
+      <c r="E146" t="n">
+        <v>257</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3046.8054</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-2590305.820106564</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>257</v>
+      </c>
+      <c r="C147" t="n">
+        <v>257</v>
+      </c>
+      <c r="D147" t="n">
+        <v>257</v>
+      </c>
+      <c r="E147" t="n">
+        <v>257</v>
+      </c>
+      <c r="F147" t="n">
+        <v>889.4</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-2590305.820106564</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>256</v>
+      </c>
+      <c r="C148" t="n">
+        <v>257</v>
+      </c>
+      <c r="D148" t="n">
+        <v>257</v>
+      </c>
+      <c r="E148" t="n">
+        <v>256</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1050.6962</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-2590305.820106564</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>258</v>
+      </c>
+      <c r="C149" t="n">
+        <v>256</v>
+      </c>
+      <c r="D149" t="n">
+        <v>258</v>
+      </c>
+      <c r="E149" t="n">
+        <v>256</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1240.619</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-2591546.439106564</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>256</v>
+      </c>
+      <c r="C150" t="n">
+        <v>258</v>
+      </c>
+      <c r="D150" t="n">
+        <v>258</v>
+      </c>
+      <c r="E150" t="n">
+        <v>256</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1376.09</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-2590170.349106564</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>258</v>
+      </c>
+      <c r="C151" t="n">
+        <v>256</v>
+      </c>
+      <c r="D151" t="n">
+        <v>258</v>
+      </c>
+      <c r="E151" t="n">
+        <v>256</v>
+      </c>
+      <c r="F151" t="n">
+        <v>301.4138</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-2590471.762906564</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>256</v>
+      </c>
+      <c r="C152" t="n">
+        <v>255</v>
+      </c>
+      <c r="D152" t="n">
+        <v>256</v>
+      </c>
+      <c r="E152" t="n">
+        <v>255</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1945.6915</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-2592417.454406565</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>255</v>
+      </c>
+      <c r="C153" t="n">
+        <v>255</v>
+      </c>
+      <c r="D153" t="n">
+        <v>255</v>
+      </c>
+      <c r="E153" t="n">
+        <v>255</v>
+      </c>
+      <c r="F153" t="n">
+        <v>160.649</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-2592417.454406565</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>255</v>
+      </c>
+      <c r="C154" t="n">
+        <v>255</v>
+      </c>
+      <c r="D154" t="n">
+        <v>255</v>
+      </c>
+      <c r="E154" t="n">
+        <v>255</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1171.6507</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-2592417.454406565</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>255</v>
+      </c>
+      <c r="C155" t="n">
+        <v>255</v>
+      </c>
+      <c r="D155" t="n">
+        <v>255</v>
+      </c>
+      <c r="E155" t="n">
+        <v>255</v>
+      </c>
+      <c r="F155" t="n">
+        <v>978.5</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-2592417.454406565</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>257</v>
+      </c>
+      <c r="C156" t="n">
+        <v>257</v>
+      </c>
+      <c r="D156" t="n">
+        <v>257</v>
+      </c>
+      <c r="E156" t="n">
+        <v>257</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1730.3581</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-2590687.096306565</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>258</v>
+      </c>
+      <c r="C157" t="n">
+        <v>258</v>
+      </c>
+      <c r="D157" t="n">
+        <v>258</v>
+      </c>
+      <c r="E157" t="n">
+        <v>258</v>
+      </c>
+      <c r="F157" t="n">
+        <v>138</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-2590549.096306565</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>257</v>
+      </c>
+      <c r="C158" t="n">
+        <v>257</v>
+      </c>
+      <c r="D158" t="n">
+        <v>257</v>
+      </c>
+      <c r="E158" t="n">
+        <v>257</v>
+      </c>
+      <c r="F158" t="n">
+        <v>417.9316</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-2590967.027906565</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>257</v>
+      </c>
+      <c r="C159" t="n">
+        <v>257</v>
+      </c>
+      <c r="D159" t="n">
+        <v>257</v>
+      </c>
+      <c r="E159" t="n">
+        <v>257</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-2590967.027906565</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>257</v>
+      </c>
+      <c r="C160" t="n">
+        <v>257</v>
+      </c>
+      <c r="D160" t="n">
+        <v>257</v>
+      </c>
+      <c r="E160" t="n">
+        <v>257</v>
+      </c>
+      <c r="F160" t="n">
+        <v>412.5578</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-2590967.027906565</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>257</v>
+      </c>
+      <c r="C161" t="n">
+        <v>257</v>
+      </c>
+      <c r="D161" t="n">
+        <v>257</v>
+      </c>
+      <c r="E161" t="n">
+        <v>257</v>
+      </c>
+      <c r="F161" t="n">
+        <v>565</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-2590967.027906565</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>257</v>
+      </c>
+      <c r="C162" t="n">
+        <v>257</v>
+      </c>
+      <c r="D162" t="n">
+        <v>257</v>
+      </c>
+      <c r="E162" t="n">
+        <v>257</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1835.2328</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-2590967.027906565</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>257</v>
+      </c>
+      <c r="C163" t="n">
+        <v>257</v>
+      </c>
+      <c r="D163" t="n">
+        <v>257</v>
+      </c>
+      <c r="E163" t="n">
+        <v>257</v>
+      </c>
+      <c r="F163" t="n">
+        <v>6473.8846</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-2590967.027906565</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>257</v>
+      </c>
+      <c r="C164" t="n">
+        <v>257</v>
+      </c>
+      <c r="D164" t="n">
+        <v>257</v>
+      </c>
+      <c r="E164" t="n">
+        <v>257</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1556.1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-2590967.027906565</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>257</v>
+      </c>
+      <c r="C165" t="n">
+        <v>257</v>
+      </c>
+      <c r="D165" t="n">
+        <v>257</v>
+      </c>
+      <c r="E165" t="n">
+        <v>257</v>
+      </c>
+      <c r="F165" t="n">
+        <v>174.459</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-2590967.027906565</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>258</v>
+      </c>
+      <c r="C166" t="n">
+        <v>257</v>
+      </c>
+      <c r="D166" t="n">
+        <v>258</v>
+      </c>
+      <c r="E166" t="n">
+        <v>257</v>
+      </c>
+      <c r="F166" t="n">
+        <v>205.997</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-2590967.027906565</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>259</v>
+      </c>
+      <c r="C167" t="n">
+        <v>259</v>
+      </c>
+      <c r="D167" t="n">
+        <v>259</v>
+      </c>
+      <c r="E167" t="n">
+        <v>259</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-2590966.027906565</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>259</v>
+      </c>
+      <c r="C168" t="n">
+        <v>258</v>
+      </c>
+      <c r="D168" t="n">
+        <v>259</v>
+      </c>
+      <c r="E168" t="n">
+        <v>257</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2263.1039</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-2593229.131806565</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>260</v>
+      </c>
+      <c r="C169" t="n">
+        <v>259</v>
+      </c>
+      <c r="D169" t="n">
+        <v>261</v>
+      </c>
+      <c r="E169" t="n">
+        <v>257</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4603.6912</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-2588625.440606565</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>261</v>
+      </c>
+      <c r="C170" t="n">
+        <v>261</v>
+      </c>
+      <c r="D170" t="n">
+        <v>261</v>
+      </c>
+      <c r="E170" t="n">
+        <v>261</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-2588624.440606565</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>259</v>
+      </c>
+      <c r="C171" t="n">
+        <v>259</v>
+      </c>
+      <c r="D171" t="n">
+        <v>259</v>
+      </c>
+      <c r="E171" t="n">
+        <v>255</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3240.9459</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-2591865.386506565</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>260</v>
+      </c>
+      <c r="C172" t="n">
+        <v>259</v>
+      </c>
+      <c r="D172" t="n">
+        <v>260</v>
+      </c>
+      <c r="E172" t="n">
+        <v>255</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2120.878</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-2591865.386506565</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>259</v>
+      </c>
+      <c r="C173" t="n">
+        <v>260</v>
+      </c>
+      <c r="D173" t="n">
+        <v>260</v>
+      </c>
+      <c r="E173" t="n">
+        <v>259</v>
+      </c>
+      <c r="F173" t="n">
+        <v>12</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-2591853.386506565</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>259</v>
+      </c>
+      <c r="C174" t="n">
+        <v>259</v>
+      </c>
+      <c r="D174" t="n">
+        <v>259</v>
+      </c>
+      <c r="E174" t="n">
+        <v>259</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-2591854.386506565</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>257</v>
+      </c>
+      <c r="C175" t="n">
+        <v>257</v>
+      </c>
+      <c r="D175" t="n">
+        <v>257</v>
+      </c>
+      <c r="E175" t="n">
+        <v>257</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1897.9152</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-2593752.301706565</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>260</v>
+      </c>
+      <c r="C176" t="n">
+        <v>260</v>
+      </c>
+      <c r="D176" t="n">
+        <v>260</v>
+      </c>
+      <c r="E176" t="n">
+        <v>260</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-2593751.301706565</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>260</v>
+      </c>
+      <c r="C177" t="n">
+        <v>260</v>
+      </c>
+      <c r="D177" t="n">
+        <v>260</v>
+      </c>
+      <c r="E177" t="n">
+        <v>260</v>
+      </c>
+      <c r="F177" t="n">
+        <v>494.802</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-2593751.301706565</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>261</v>
+      </c>
+      <c r="C178" t="n">
+        <v>260</v>
+      </c>
+      <c r="D178" t="n">
+        <v>261</v>
+      </c>
+      <c r="E178" t="n">
+        <v>260</v>
+      </c>
+      <c r="F178" t="n">
+        <v>13</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-2593751.301706565</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>261</v>
+      </c>
+      <c r="C179" t="n">
+        <v>261</v>
+      </c>
+      <c r="D179" t="n">
+        <v>261</v>
+      </c>
+      <c r="E179" t="n">
+        <v>261</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-2593750.301706565</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>260</v>
+      </c>
+      <c r="C180" t="n">
+        <v>260</v>
+      </c>
+      <c r="D180" t="n">
+        <v>260</v>
+      </c>
+      <c r="E180" t="n">
+        <v>260</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.2826</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-2593750.584306565</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>258</v>
+      </c>
+      <c r="C181" t="n">
+        <v>258</v>
+      </c>
+      <c r="D181" t="n">
+        <v>258</v>
+      </c>
+      <c r="E181" t="n">
+        <v>258</v>
+      </c>
+      <c r="F181" t="n">
+        <v>131.304</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-2593881.888306565</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>258</v>
+      </c>
+      <c r="C182" t="n">
+        <v>256</v>
+      </c>
+      <c r="D182" t="n">
+        <v>258</v>
+      </c>
+      <c r="E182" t="n">
+        <v>256</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2446.0536</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-2596327.941906565</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>261</v>
+      </c>
+      <c r="C183" t="n">
+        <v>261</v>
+      </c>
+      <c r="D183" t="n">
+        <v>261</v>
+      </c>
+      <c r="E183" t="n">
+        <v>261</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-2596326.941906565</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>260</v>
+      </c>
+      <c r="C184" t="n">
+        <v>260</v>
+      </c>
+      <c r="D184" t="n">
+        <v>260</v>
+      </c>
+      <c r="E184" t="n">
+        <v>260</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-2596328.941906565</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>260</v>
+      </c>
+      <c r="C185" t="n">
+        <v>260</v>
+      </c>
+      <c r="D185" t="n">
+        <v>260</v>
+      </c>
+      <c r="E185" t="n">
+        <v>260</v>
+      </c>
+      <c r="F185" t="n">
+        <v>59</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-2596328.941906565</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>260</v>
+      </c>
+      <c r="C186" t="n">
+        <v>260</v>
+      </c>
+      <c r="D186" t="n">
+        <v>260</v>
+      </c>
+      <c r="E186" t="n">
+        <v>260</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1120.5118</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-2596328.941906565</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>260</v>
+      </c>
+      <c r="C187" t="n">
+        <v>260</v>
+      </c>
+      <c r="D187" t="n">
+        <v>260</v>
+      </c>
+      <c r="E187" t="n">
+        <v>260</v>
+      </c>
+      <c r="F187" t="n">
+        <v>417.896</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-2596328.941906565</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>260</v>
+      </c>
+      <c r="C188" t="n">
+        <v>260</v>
+      </c>
+      <c r="D188" t="n">
+        <v>260</v>
+      </c>
+      <c r="E188" t="n">
+        <v>260</v>
+      </c>
+      <c r="F188" t="n">
+        <v>370</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-2596328.941906565</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>260</v>
+      </c>
+      <c r="C189" t="n">
+        <v>260</v>
+      </c>
+      <c r="D189" t="n">
+        <v>260</v>
+      </c>
+      <c r="E189" t="n">
+        <v>260</v>
+      </c>
+      <c r="F189" t="n">
+        <v>12833.7998</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-2596328.941906565</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>261</v>
+      </c>
+      <c r="C190" t="n">
+        <v>261</v>
+      </c>
+      <c r="D190" t="n">
+        <v>261</v>
+      </c>
+      <c r="E190" t="n">
+        <v>261</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-2596327.941906565</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>261</v>
+      </c>
+      <c r="C191" t="n">
+        <v>261</v>
+      </c>
+      <c r="D191" t="n">
+        <v>261</v>
+      </c>
+      <c r="E191" t="n">
+        <v>261</v>
+      </c>
+      <c r="F191" t="n">
+        <v>17.9175</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-2596327.941906565</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>261</v>
+      </c>
+      <c r="C192" t="n">
+        <v>261</v>
+      </c>
+      <c r="D192" t="n">
+        <v>261</v>
+      </c>
+      <c r="E192" t="n">
+        <v>261</v>
+      </c>
+      <c r="F192" t="n">
+        <v>51.6071</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-2596327.941906565</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>261</v>
+      </c>
+      <c r="C193" t="n">
+        <v>258</v>
+      </c>
+      <c r="D193" t="n">
+        <v>261</v>
+      </c>
+      <c r="E193" t="n">
+        <v>258</v>
+      </c>
+      <c r="F193" t="n">
+        <v>220.7885</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-2596548.730406565</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>258</v>
+      </c>
+      <c r="C194" t="n">
+        <v>252</v>
+      </c>
+      <c r="D194" t="n">
+        <v>258</v>
+      </c>
+      <c r="E194" t="n">
+        <v>252</v>
+      </c>
+      <c r="F194" t="n">
+        <v>29996.6895</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-2626545.419906565</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>259</v>
+      </c>
+      <c r="C195" t="n">
+        <v>259</v>
+      </c>
+      <c r="D195" t="n">
+        <v>259</v>
+      </c>
+      <c r="E195" t="n">
+        <v>259</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-2626544.419906565</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>259</v>
+      </c>
+      <c r="C196" t="n">
+        <v>259</v>
+      </c>
+      <c r="D196" t="n">
+        <v>259</v>
+      </c>
+      <c r="E196" t="n">
+        <v>259</v>
+      </c>
+      <c r="F196" t="n">
+        <v>21.0424</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-2626544.419906565</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>255</v>
+      </c>
+      <c r="C197" t="n">
+        <v>254</v>
+      </c>
+      <c r="D197" t="n">
+        <v>255</v>
+      </c>
+      <c r="E197" t="n">
+        <v>253</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1827.4304</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-2628371.850306565</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>252</v>
+      </c>
+      <c r="C198" t="n">
+        <v>252</v>
+      </c>
+      <c r="D198" t="n">
+        <v>252</v>
+      </c>
+      <c r="E198" t="n">
+        <v>252</v>
+      </c>
+      <c r="F198" t="n">
+        <v>3236.7585</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-2631608.608806565</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>253</v>
+      </c>
+      <c r="C199" t="n">
+        <v>252</v>
+      </c>
+      <c r="D199" t="n">
+        <v>253</v>
+      </c>
+      <c r="E199" t="n">
+        <v>252</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1043.762</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-2631608.608806565</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>255</v>
+      </c>
+      <c r="C200" t="n">
+        <v>255</v>
+      </c>
+      <c r="D200" t="n">
+        <v>255</v>
+      </c>
+      <c r="E200" t="n">
+        <v>255</v>
+      </c>
+      <c r="F200" t="n">
+        <v>4.7603</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-2631603.848506565</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>252</v>
+      </c>
+      <c r="K200" t="n">
+        <v>252</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>255</v>
+      </c>
+      <c r="C201" t="n">
+        <v>255</v>
+      </c>
+      <c r="D201" t="n">
+        <v>255</v>
+      </c>
+      <c r="E201" t="n">
+        <v>255</v>
+      </c>
+      <c r="F201" t="n">
+        <v>189.3992</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-2631603.848506565</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>252</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>258</v>
+      </c>
+      <c r="C202" t="n">
+        <v>258</v>
+      </c>
+      <c r="D202" t="n">
+        <v>258</v>
+      </c>
+      <c r="E202" t="n">
+        <v>258</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-2631601.848506565</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>252</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>256</v>
+      </c>
+      <c r="C203" t="n">
+        <v>256</v>
+      </c>
+      <c r="D203" t="n">
+        <v>256</v>
+      </c>
+      <c r="E203" t="n">
+        <v>256</v>
+      </c>
+      <c r="F203" t="n">
+        <v>102.99</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-2631704.838506565</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-15 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-15 BackTest TRUE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N203"/>
+  <dimension ref="A1:M203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>244547.5915</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>244547.5915</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>244547.5915</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>244547.5915</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-338025.2475000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,22 +682,15 @@
         <v>-338025.2475000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>250</v>
-      </c>
-      <c r="K9" t="n">
-        <v>250</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -750,742 +717,630 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>250</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="C11" t="n">
+        <v>250</v>
+      </c>
+      <c r="D11" t="n">
+        <v>250</v>
+      </c>
+      <c r="E11" t="n">
+        <v>250</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1899342.2685</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-338025.2475000001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>250</v>
+      </c>
+      <c r="C12" t="n">
+        <v>250</v>
+      </c>
+      <c r="D12" t="n">
+        <v>250</v>
+      </c>
+      <c r="E12" t="n">
+        <v>250</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1925657.7315</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-338025.2475000001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>250</v>
+      </c>
+      <c r="C13" t="n">
+        <v>250</v>
+      </c>
+      <c r="D13" t="n">
+        <v>250</v>
+      </c>
+      <c r="E13" t="n">
+        <v>250</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1953113.2449</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-338025.2475000001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>250</v>
+      </c>
+      <c r="C14" t="n">
+        <v>250</v>
+      </c>
+      <c r="D14" t="n">
+        <v>250</v>
+      </c>
+      <c r="E14" t="n">
+        <v>250</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1541886.7551</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-338025.2475000001</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>249</v>
+      </c>
+      <c r="C15" t="n">
+        <v>249</v>
+      </c>
+      <c r="D15" t="n">
+        <v>249</v>
+      </c>
+      <c r="E15" t="n">
+        <v>249</v>
+      </c>
+      <c r="F15" t="n">
+        <v>517596.924</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-855622.1715000001</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>249</v>
+      </c>
+      <c r="C16" t="n">
+        <v>249</v>
+      </c>
+      <c r="D16" t="n">
+        <v>249</v>
+      </c>
+      <c r="E16" t="n">
+        <v>249</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1920000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-855622.1715000001</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>249</v>
+      </c>
+      <c r="C17" t="n">
+        <v>249</v>
+      </c>
+      <c r="D17" t="n">
+        <v>249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>249</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1942500</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-855622.1715000001</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>249</v>
+      </c>
+      <c r="C18" t="n">
+        <v>249</v>
+      </c>
+      <c r="D18" t="n">
+        <v>249</v>
+      </c>
+      <c r="E18" t="n">
+        <v>249</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1927500</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-855622.1715000001</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>249</v>
+      </c>
+      <c r="J18" t="n">
+        <v>249</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>249</v>
+      </c>
+      <c r="C19" t="n">
+        <v>249</v>
+      </c>
+      <c r="D19" t="n">
+        <v>249</v>
+      </c>
+      <c r="E19" t="n">
+        <v>249</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1965000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-855622.1715000001</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>249</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>250</v>
-      </c>
-      <c r="C11" t="n">
-        <v>250</v>
-      </c>
-      <c r="D11" t="n">
-        <v>250</v>
-      </c>
-      <c r="E11" t="n">
-        <v>250</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1899342.2685</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-338025.2475000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>250</v>
-      </c>
-      <c r="K11" t="n">
-        <v>250</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>249</v>
+      </c>
+      <c r="C20" t="n">
+        <v>249</v>
+      </c>
+      <c r="D20" t="n">
+        <v>249</v>
+      </c>
+      <c r="E20" t="n">
+        <v>249</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1942790.772</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-855622.1715000001</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>249</v>
+      </c>
+      <c r="J20" t="n">
+        <v>249</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>250</v>
-      </c>
-      <c r="C12" t="n">
-        <v>250</v>
-      </c>
-      <c r="D12" t="n">
-        <v>250</v>
-      </c>
-      <c r="E12" t="n">
-        <v>250</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1925657.7315</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-338025.2475000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>250</v>
-      </c>
-      <c r="K12" t="n">
-        <v>250</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>250</v>
-      </c>
-      <c r="C13" t="n">
-        <v>250</v>
-      </c>
-      <c r="D13" t="n">
-        <v>250</v>
-      </c>
-      <c r="E13" t="n">
-        <v>250</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1953113.2449</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-338025.2475000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>250</v>
-      </c>
-      <c r="K13" t="n">
-        <v>250</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>249</v>
+      </c>
+      <c r="C21" t="n">
+        <v>249</v>
+      </c>
+      <c r="D21" t="n">
+        <v>249</v>
+      </c>
+      <c r="E21" t="n">
+        <v>249</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1950000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-855622.1715000001</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>249</v>
+      </c>
+      <c r="C22" t="n">
+        <v>249</v>
+      </c>
+      <c r="D22" t="n">
+        <v>249</v>
+      </c>
+      <c r="E22" t="n">
+        <v>249</v>
+      </c>
+      <c r="F22" t="n">
+        <v>812743.2561</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-855622.1715000001</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>249</v>
+      </c>
+      <c r="J22" t="n">
+        <v>249</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>248</v>
+      </c>
+      <c r="C23" t="n">
+        <v>248</v>
+      </c>
+      <c r="D23" t="n">
+        <v>248</v>
+      </c>
+      <c r="E23" t="n">
+        <v>248</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1747667.4977</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-2603289.6692</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>249</v>
+      </c>
+      <c r="J23" t="n">
+        <v>249</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>250</v>
-      </c>
-      <c r="C14" t="n">
-        <v>250</v>
-      </c>
-      <c r="D14" t="n">
-        <v>250</v>
-      </c>
-      <c r="E14" t="n">
-        <v>250</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1541886.7551</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-338025.2475000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>250</v>
-      </c>
-      <c r="K14" t="n">
-        <v>250</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>248</v>
+      </c>
+      <c r="C24" t="n">
+        <v>248</v>
+      </c>
+      <c r="D24" t="n">
+        <v>248</v>
+      </c>
+      <c r="E24" t="n">
+        <v>248</v>
+      </c>
+      <c r="F24" t="n">
+        <v>719697.4054</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-2603289.6692</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>248</v>
+      </c>
+      <c r="J24" t="n">
+        <v>249</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>249</v>
-      </c>
-      <c r="C15" t="n">
-        <v>249</v>
-      </c>
-      <c r="D15" t="n">
-        <v>249</v>
-      </c>
-      <c r="E15" t="n">
-        <v>249</v>
-      </c>
-      <c r="F15" t="n">
-        <v>517596.924</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-855622.1715000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>250</v>
-      </c>
-      <c r="K15" t="n">
-        <v>250</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>249</v>
-      </c>
-      <c r="C16" t="n">
-        <v>249</v>
-      </c>
-      <c r="D16" t="n">
-        <v>249</v>
-      </c>
-      <c r="E16" t="n">
-        <v>249</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1920000</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-855622.1715000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>249</v>
-      </c>
-      <c r="K16" t="n">
-        <v>250</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>248</v>
+      </c>
+      <c r="C25" t="n">
+        <v>248</v>
+      </c>
+      <c r="D25" t="n">
+        <v>248</v>
+      </c>
+      <c r="E25" t="n">
+        <v>248</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1980000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-2603289.6692</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>248</v>
+      </c>
+      <c r="J25" t="n">
+        <v>248</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>248</v>
+      </c>
+      <c r="C26" t="n">
+        <v>248</v>
+      </c>
+      <c r="D26" t="n">
+        <v>248</v>
+      </c>
+      <c r="E26" t="n">
+        <v>248</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1965467</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-2603289.6692</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>248</v>
+      </c>
+      <c r="J26" t="n">
+        <v>248</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>249</v>
-      </c>
-      <c r="C17" t="n">
-        <v>249</v>
-      </c>
-      <c r="D17" t="n">
-        <v>249</v>
-      </c>
-      <c r="E17" t="n">
-        <v>249</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1942500</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-855622.1715000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>249</v>
-      </c>
-      <c r="K17" t="n">
-        <v>250</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>248</v>
+      </c>
+      <c r="C27" t="n">
+        <v>248</v>
+      </c>
+      <c r="D27" t="n">
+        <v>248</v>
+      </c>
+      <c r="E27" t="n">
+        <v>248</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1950000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-2603289.6692</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>248</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>249</v>
-      </c>
-      <c r="C18" t="n">
-        <v>249</v>
-      </c>
-      <c r="D18" t="n">
-        <v>249</v>
-      </c>
-      <c r="E18" t="n">
-        <v>249</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1927500</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-855622.1715000001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>249</v>
-      </c>
-      <c r="K18" t="n">
-        <v>249</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>249</v>
-      </c>
-      <c r="C19" t="n">
-        <v>249</v>
-      </c>
-      <c r="D19" t="n">
-        <v>249</v>
-      </c>
-      <c r="E19" t="n">
-        <v>249</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1965000</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-855622.1715000001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>249</v>
-      </c>
-      <c r="K19" t="n">
-        <v>249</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>249</v>
-      </c>
-      <c r="C20" t="n">
-        <v>249</v>
-      </c>
-      <c r="D20" t="n">
-        <v>249</v>
-      </c>
-      <c r="E20" t="n">
-        <v>249</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1942790.772</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-855622.1715000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>249</v>
-      </c>
-      <c r="K20" t="n">
-        <v>249</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>249</v>
-      </c>
-      <c r="C21" t="n">
-        <v>249</v>
-      </c>
-      <c r="D21" t="n">
-        <v>249</v>
-      </c>
-      <c r="E21" t="n">
-        <v>249</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1950000</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-855622.1715000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>249</v>
-      </c>
-      <c r="K21" t="n">
-        <v>249</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>249</v>
-      </c>
-      <c r="C22" t="n">
-        <v>249</v>
-      </c>
-      <c r="D22" t="n">
-        <v>249</v>
-      </c>
-      <c r="E22" t="n">
-        <v>249</v>
-      </c>
-      <c r="F22" t="n">
-        <v>812743.2561</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-855622.1715000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>249</v>
-      </c>
-      <c r="K22" t="n">
-        <v>249</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>248</v>
-      </c>
-      <c r="C23" t="n">
-        <v>248</v>
-      </c>
-      <c r="D23" t="n">
-        <v>248</v>
-      </c>
-      <c r="E23" t="n">
-        <v>248</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1747667.4977</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-2603289.6692</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>249</v>
-      </c>
-      <c r="K23" t="n">
-        <v>249</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>248</v>
-      </c>
-      <c r="C24" t="n">
-        <v>248</v>
-      </c>
-      <c r="D24" t="n">
-        <v>248</v>
-      </c>
-      <c r="E24" t="n">
-        <v>248</v>
-      </c>
-      <c r="F24" t="n">
-        <v>719697.4054</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-2603289.6692</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>248</v>
-      </c>
-      <c r="K24" t="n">
-        <v>248</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>248</v>
-      </c>
-      <c r="C25" t="n">
-        <v>248</v>
-      </c>
-      <c r="D25" t="n">
-        <v>248</v>
-      </c>
-      <c r="E25" t="n">
-        <v>248</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1980000</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-2603289.6692</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>248</v>
-      </c>
-      <c r="K25" t="n">
-        <v>248</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>248</v>
-      </c>
-      <c r="C26" t="n">
-        <v>248</v>
-      </c>
-      <c r="D26" t="n">
-        <v>248</v>
-      </c>
-      <c r="E26" t="n">
-        <v>248</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1965467</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-2603289.6692</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>248</v>
-      </c>
-      <c r="K26" t="n">
-        <v>248</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>248</v>
-      </c>
-      <c r="C27" t="n">
-        <v>248</v>
-      </c>
-      <c r="D27" t="n">
-        <v>248</v>
-      </c>
-      <c r="E27" t="n">
-        <v>248</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1950000</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-2603289.6692</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1512,16 +1367,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1548,16 +1400,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1584,16 +1433,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1620,16 +1466,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1656,16 +1499,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1692,16 +1532,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1728,16 +1565,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1764,16 +1598,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1800,16 +1631,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1836,16 +1664,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1872,16 +1697,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1908,16 +1730,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1944,16 +1763,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1980,16 +1796,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2016,16 +1829,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2052,16 +1862,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2088,16 +1895,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2124,16 +1928,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2160,16 +1961,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2196,16 +1994,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2232,16 +2027,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2268,16 +2060,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2304,16 +2093,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2340,16 +2126,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2376,16 +2159,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2412,16 +2192,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2448,16 +2225,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2484,16 +2258,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2520,16 +2291,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2556,16 +2324,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2592,16 +2357,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2628,16 +2390,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2664,16 +2423,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2700,16 +2456,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2736,16 +2489,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2772,16 +2522,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2808,16 +2555,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2844,16 +2588,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2880,16 +2621,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2916,16 +2654,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2952,16 +2687,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2988,16 +2720,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3024,16 +2753,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3060,16 +2786,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3096,16 +2819,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3132,16 +2852,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3168,16 +2885,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3204,16 +2918,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3240,16 +2951,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3276,16 +2984,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3312,16 +3017,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3348,16 +3050,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3384,16 +3083,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3420,16 +3116,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3456,16 +3149,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3492,16 +3182,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3528,16 +3215,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3564,16 +3248,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3600,16 +3281,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3636,16 +3314,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3672,16 +3347,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3708,16 +3380,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3744,16 +3413,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3780,16 +3446,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3816,16 +3479,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3852,16 +3512,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3888,16 +3545,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3924,16 +3578,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3960,16 +3611,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3996,16 +3644,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4032,16 +3677,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4068,16 +3710,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4104,16 +3743,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4140,16 +3776,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4176,16 +3809,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4212,16 +3842,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4248,16 +3875,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4284,16 +3908,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4318,18 +3939,15 @@
         <v>-2578326.436306563</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4356,16 +3974,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4392,16 +4007,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4428,16 +4040,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4462,18 +4071,15 @@
         <v>-2578489.673306563</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4500,16 +4106,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4536,16 +4139,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4572,16 +4172,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4608,16 +4205,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4644,16 +4238,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4680,16 +4271,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4716,16 +4304,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4752,16 +4337,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4788,16 +4370,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4822,22 +4401,15 @@
         <v>-2578853.798206564</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>253</v>
-      </c>
-      <c r="K120" t="n">
-        <v>253</v>
-      </c>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4862,26 +4434,15 @@
         <v>-2578853.798206564</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>253</v>
-      </c>
-      <c r="K121" t="n">
-        <v>253</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4908,22 +4469,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>253</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4950,16 +4502,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4986,16 +4535,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5022,16 +4568,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5058,16 +4601,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5094,16 +4634,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5130,16 +4667,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5166,16 +4700,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5202,16 +4733,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5238,16 +4766,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5274,16 +4799,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5310,16 +4832,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5346,16 +4865,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5380,22 +4896,15 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>255</v>
-      </c>
-      <c r="K135" t="n">
-        <v>255</v>
-      </c>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5420,26 +4929,15 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>255</v>
-      </c>
-      <c r="K136" t="n">
-        <v>255</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5464,26 +4962,15 @@
         <v>-2586795.211606564</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>255</v>
-      </c>
-      <c r="K137" t="n">
-        <v>255</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5508,18 +4995,15 @@
         <v>-2596198.072606564</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5544,22 +5028,15 @@
         <v>-2594827.949606564</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>250</v>
-      </c>
-      <c r="K139" t="n">
-        <v>250</v>
-      </c>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5586,22 +5063,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>250</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5628,22 +5096,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>250</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5670,16 +5129,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5706,16 +5162,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5742,16 +5195,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5778,16 +5228,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5814,16 +5261,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5850,16 +5294,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5886,16 +5327,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5922,16 +5360,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5958,16 +5393,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5994,16 +5426,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6030,16 +5459,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6066,16 +5492,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6102,16 +5525,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6138,16 +5558,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6174,16 +5591,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6210,16 +5624,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6246,16 +5657,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6282,16 +5690,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6318,16 +5723,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6354,16 +5756,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6390,16 +5789,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6426,16 +5822,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6462,16 +5855,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6498,16 +5888,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6534,16 +5921,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6570,16 +5954,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6606,16 +5987,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6642,16 +6020,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6678,16 +6053,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6712,18 +6084,15 @@
         <v>-2591865.386506565</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6748,18 +6117,15 @@
         <v>-2591865.386506565</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6784,18 +6150,15 @@
         <v>-2591853.386506565</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6822,16 +6185,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6856,18 +6216,15 @@
         <v>-2593752.301706565</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6894,16 +6251,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6930,16 +6284,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6966,16 +6317,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7002,16 +6350,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7038,16 +6383,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7074,16 +6416,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7110,16 +6449,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7146,16 +6482,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7180,18 +6513,15 @@
         <v>-2596328.941906565</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7216,18 +6546,15 @@
         <v>-2596328.941906565</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7254,16 +6581,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7290,16 +6614,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7326,16 +6647,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7362,16 +6680,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7398,16 +6713,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7432,18 +6744,15 @@
         <v>-2596327.941906565</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7468,18 +6777,15 @@
         <v>-2596327.941906565</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7504,18 +6810,15 @@
         <v>-2596548.730406565</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7540,18 +6843,15 @@
         <v>-2626545.419906565</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7576,18 +6876,15 @@
         <v>-2626544.419906565</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7614,16 +6911,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7648,18 +6942,15 @@
         <v>-2628371.850306565</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7686,16 +6977,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7722,16 +7010,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7756,22 +7041,15 @@
         <v>-2631603.848506565</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>252</v>
-      </c>
-      <c r="K200" t="n">
-        <v>252</v>
-      </c>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7798,22 +7076,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>252</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7840,22 +7109,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>252</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7882,18 +7142,15 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-15 BackTest TRUE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>244547.5915</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>244547.5915</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>244547.5915</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>244547.5915</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>244547.5915</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>244547.5915</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-338025.2475000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-338025.2475000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-338025.2475000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-338025.2475000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-338025.2475000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-338025.2475000001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-855622.1715000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-855622.1715000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-855622.1715000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -981,12 +981,8 @@
       <c r="H18" t="n">
         <v>2</v>
       </c>
-      <c r="I18" t="n">
-        <v>249</v>
-      </c>
-      <c r="J18" t="n">
-        <v>249</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1016,17 +1012,11 @@
         <v>-855622.1715000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>249</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1057,17 +1047,9 @@
       <c r="H20" t="n">
         <v>2</v>
       </c>
-      <c r="I20" t="n">
-        <v>249</v>
-      </c>
-      <c r="J20" t="n">
-        <v>249</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1096,7 +1078,7 @@
         <v>-855622.1715000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1129,14 +1111,10 @@
         <v>-855622.1715000001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>249</v>
-      </c>
-      <c r="J22" t="n">
-        <v>249</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
@@ -1166,19 +1144,11 @@
         <v>-2603289.6692</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>249</v>
-      </c>
-      <c r="J23" t="n">
-        <v>249</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1207,19 +1177,11 @@
         <v>-2603289.6692</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>248</v>
-      </c>
-      <c r="J24" t="n">
-        <v>249</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1248,14 +1210,10 @@
         <v>-2603289.6692</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>248</v>
-      </c>
-      <c r="J25" t="n">
-        <v>248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
@@ -1285,19 +1243,11 @@
         <v>-2603289.6692</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>248</v>
-      </c>
-      <c r="J26" t="n">
-        <v>248</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1329,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>248</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -3939,7 +3883,7 @@
         <v>-2578326.436306563</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4071,7 +4015,7 @@
         <v>-2578489.673306563</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4797,10 +4741,14 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>251</v>
+      </c>
+      <c r="J132" t="n">
+        <v>251</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
@@ -4830,11 +4778,19 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>255</v>
+      </c>
+      <c r="J133" t="n">
+        <v>251</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4863,11 +4819,19 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>255</v>
+      </c>
+      <c r="J134" t="n">
+        <v>251</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4896,10 +4860,14 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>255</v>
+      </c>
+      <c r="J135" t="n">
+        <v>255</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
@@ -4929,11 +4897,19 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>255</v>
+      </c>
+      <c r="J136" t="n">
+        <v>255</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4962,11 +4938,19 @@
         <v>-2586795.211606564</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>255</v>
+      </c>
+      <c r="J137" t="n">
+        <v>255</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4995,7 +4979,7 @@
         <v>-2596198.072606564</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -6084,7 +6068,7 @@
         <v>-2591865.386506565</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6117,7 +6101,7 @@
         <v>-2591865.386506565</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6150,7 +6134,7 @@
         <v>-2591853.386506565</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6216,7 +6200,7 @@
         <v>-2593752.301706565</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6513,7 +6497,7 @@
         <v>-2596328.941906565</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6546,7 +6530,7 @@
         <v>-2596328.941906565</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6744,7 +6728,7 @@
         <v>-2596327.941906565</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6777,7 +6761,7 @@
         <v>-2596327.941906565</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6810,7 +6794,7 @@
         <v>-2596548.730406565</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6843,7 +6827,7 @@
         <v>-2626545.419906565</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6876,7 +6860,7 @@
         <v>-2626544.419906565</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6942,7 +6926,7 @@
         <v>-2628371.850306565</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7151,6 +7135,6 @@
       <c r="M203" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-15 BackTest TRUE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>244547.5915</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>244547.5915</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>244547.5915</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>244547.5915</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>244547.5915</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-338025.2475000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-338025.2475000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-338025.2475000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-338025.2475000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-338025.2475000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-338025.2475000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-855622.1715000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-855622.1715000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-855622.1715000001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-855622.1715000001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-855622.1715000001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-855622.1715000001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-2577578.5383</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-2577578.5383</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-2577578.5383</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-2577578.5383</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-2581534.9969</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-2577701.888506563</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-2578266.954506563</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-2578266.954506563</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-2578135.891006563</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-2577876.262406563</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-2577178.262406563</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4741,14 +4741,10 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>251</v>
-      </c>
-      <c r="J132" t="n">
-        <v>251</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
@@ -4778,19 +4774,11 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>255</v>
-      </c>
-      <c r="J133" t="n">
-        <v>251</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4819,19 +4807,11 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>255</v>
-      </c>
-      <c r="J134" t="n">
-        <v>251</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4860,14 +4840,10 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>255</v>
-      </c>
-      <c r="J135" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
@@ -4897,19 +4873,11 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>255</v>
-      </c>
-      <c r="J136" t="n">
-        <v>255</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4938,19 +4906,11 @@
         <v>-2586795.211606564</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>255</v>
-      </c>
-      <c r="J137" t="n">
-        <v>255</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5243,10 +5203,14 @@
         <v>-2590305.820106564</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>257</v>
+      </c>
+      <c r="J146" t="n">
+        <v>257</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
@@ -5276,11 +5240,19 @@
         <v>-2590305.820106564</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>257</v>
+      </c>
+      <c r="J147" t="n">
+        <v>257</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5309,11 +5281,19 @@
         <v>-2590305.820106564</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>257</v>
+      </c>
+      <c r="J148" t="n">
+        <v>257</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5345,8 +5325,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>257</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5378,8 +5364,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>257</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5411,8 +5403,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>257</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5444,8 +5442,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>257</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5477,8 +5481,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>257</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5510,8 +5520,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>257</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5540,11 +5556,19 @@
         <v>-2592417.454406565</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>255</v>
+      </c>
+      <c r="J155" t="n">
+        <v>257</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5573,11 +5597,19 @@
         <v>-2590687.096306565</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>255</v>
+      </c>
+      <c r="J156" t="n">
+        <v>257</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5609,8 +5641,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>257</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5642,8 +5680,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>257</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5675,8 +5719,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>257</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5708,8 +5758,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>257</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5741,8 +5797,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>257</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5774,8 +5836,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>257</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5807,8 +5875,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>257</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5840,8 +5914,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>257</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5873,8 +5953,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>257</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5906,8 +5992,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>257</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5939,8 +6031,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>257</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5972,8 +6070,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>257</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6005,8 +6109,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>257</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6038,8 +6148,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>257</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6071,8 +6187,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>257</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6104,8 +6226,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>257</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6137,8 +6265,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>257</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6170,8 +6304,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>257</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6203,8 +6343,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>257</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6236,8 +6382,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>257</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6269,8 +6421,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>257</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6302,8 +6460,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>257</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6335,8 +6499,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>257</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6368,8 +6538,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>257</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6401,8 +6577,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>257</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6434,8 +6616,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>257</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6467,8 +6655,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>257</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6500,8 +6694,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>257</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6533,8 +6733,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>257</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6566,8 +6772,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>257</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6599,8 +6811,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>257</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6632,8 +6850,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>257</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6665,8 +6889,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>257</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6698,8 +6928,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>257</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6731,8 +6967,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>257</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6764,8 +7006,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>257</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6797,8 +7045,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>257</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6830,8 +7084,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>257</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6863,8 +7123,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>257</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6896,8 +7162,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>257</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6929,8 +7201,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>257</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6962,8 +7240,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>257</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6995,8 +7279,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>257</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7028,8 +7318,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>257</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7061,8 +7357,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>257</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7094,8 +7396,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>257</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7127,14 +7435,20 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>257</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
       <c r="M203" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-15 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-15 BackTest TRUE.xlsx
@@ -3520,7 +3520,7 @@
         <v>-2577578.5383</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-2577578.5383</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-2577578.5383</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-2577578.5383</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-2581534.9969</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-2577701.888506563</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-2578266.954506563</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-2578266.954506563</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-2578135.891006563</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-2577876.262406563</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-2577178.262406563</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4741,10 +4741,14 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>251</v>
+      </c>
+      <c r="J132" t="n">
+        <v>251</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
@@ -4774,11 +4778,19 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>255</v>
+      </c>
+      <c r="J133" t="n">
+        <v>251</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +4819,19 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>255</v>
+      </c>
+      <c r="J134" t="n">
+        <v>251</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,10 +4860,14 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>255</v>
+      </c>
+      <c r="J135" t="n">
+        <v>255</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
@@ -4873,11 +4897,19 @@
         <v>-2586796.211606564</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>255</v>
+      </c>
+      <c r="J136" t="n">
+        <v>255</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +4938,19 @@
         <v>-2586795.211606564</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>255</v>
+      </c>
+      <c r="J137" t="n">
+        <v>255</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +4979,19 @@
         <v>-2596198.072606564</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>258</v>
+      </c>
+      <c r="J138" t="n">
+        <v>255</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5020,19 @@
         <v>-2594827.949606564</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>250</v>
+      </c>
+      <c r="J139" t="n">
+        <v>255</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5061,19 @@
         <v>-2591263.540206564</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>254</v>
+      </c>
+      <c r="J140" t="n">
+        <v>255</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5102,19 @@
         <v>-2591263.540206564</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>255</v>
+      </c>
+      <c r="J141" t="n">
+        <v>255</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5143,19 @@
         <v>-2592442.540206564</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>255</v>
+      </c>
+      <c r="J142" t="n">
+        <v>255</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5184,19 @@
         <v>-2592306.830306564</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>254</v>
+      </c>
+      <c r="J143" t="n">
+        <v>255</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5225,19 @@
         <v>-2592306.830306564</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>255</v>
+      </c>
+      <c r="J144" t="n">
+        <v>255</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5266,19 @@
         <v>-2590305.820106564</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>255</v>
+      </c>
+      <c r="J145" t="n">
+        <v>255</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5209,9 +5313,13 @@
         <v>257</v>
       </c>
       <c r="J146" t="n">
-        <v>257</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
+        <v>255</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5246,11 +5354,11 @@
         <v>257</v>
       </c>
       <c r="J147" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L147" t="n">
@@ -5281,17 +5389,15 @@
         <v>-2590305.820106564</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L148" t="n">
@@ -5326,7 +5432,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5365,7 +5471,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5404,7 +5510,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5443,7 +5549,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5478,11 +5584,13 @@
         <v>-2592417.454406565</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>255</v>
+      </c>
       <c r="J153" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5517,11 +5625,13 @@
         <v>-2592417.454406565</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>255</v>
+      </c>
       <c r="J154" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5562,7 +5672,7 @@
         <v>255</v>
       </c>
       <c r="J155" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5603,7 +5713,7 @@
         <v>255</v>
       </c>
       <c r="J156" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5638,11 +5748,13 @@
         <v>-2590549.096306565</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>257</v>
+      </c>
       <c r="J157" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5681,7 +5793,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5716,11 +5828,13 @@
         <v>-2590967.027906565</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>257</v>
+      </c>
       <c r="J159" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5755,11 +5869,13 @@
         <v>-2590967.027906565</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>257</v>
+      </c>
       <c r="J160" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5794,11 +5910,13 @@
         <v>-2590967.027906565</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>257</v>
+      </c>
       <c r="J161" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5833,11 +5951,13 @@
         <v>-2590967.027906565</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>257</v>
+      </c>
       <c r="J162" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5872,11 +5992,13 @@
         <v>-2590967.027906565</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>257</v>
+      </c>
       <c r="J163" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -5911,11 +6033,13 @@
         <v>-2590967.027906565</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>257</v>
+      </c>
       <c r="J164" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -5950,11 +6074,13 @@
         <v>-2590967.027906565</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>257</v>
+      </c>
       <c r="J165" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -5989,11 +6115,13 @@
         <v>-2590967.027906565</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>257</v>
+      </c>
       <c r="J166" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6028,11 +6156,13 @@
         <v>-2590966.027906565</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>257</v>
+      </c>
       <c r="J167" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6067,11 +6197,13 @@
         <v>-2593229.131806565</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>259</v>
+      </c>
       <c r="J168" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6106,11 +6238,13 @@
         <v>-2588625.440606565</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>258</v>
+      </c>
       <c r="J169" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6145,11 +6279,13 @@
         <v>-2588624.440606565</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>259</v>
+      </c>
       <c r="J170" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6184,11 +6320,13 @@
         <v>-2591865.386506565</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>261</v>
+      </c>
       <c r="J171" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6227,7 +6365,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6262,11 +6400,13 @@
         <v>-2591853.386506565</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>259</v>
+      </c>
       <c r="J173" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6305,7 +6445,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6344,7 +6484,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6383,7 +6523,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6418,19 +6558,19 @@
         <v>-2593751.301706565</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1</v>
+        <v>1.014607843137255</v>
       </c>
       <c r="M177" t="inlineStr"/>
     </row>
@@ -6457,17 +6597,11 @@
         <v>-2593751.301706565</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>257</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6496,17 +6630,11 @@
         <v>-2593750.301706565</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>257</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6535,17 +6663,11 @@
         <v>-2593750.584306565</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>257</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6574,17 +6696,11 @@
         <v>-2593881.888306565</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>257</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6616,14 +6732,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>257</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6652,17 +6762,15 @@
         <v>-2596326.941906565</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>256</v>
+      </c>
       <c r="J183" t="n">
-        <v>257</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6695,11 +6803,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L184" t="n">
@@ -6730,15 +6838,15 @@
         <v>-2596328.941906565</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L185" t="n">
@@ -6769,17 +6877,11 @@
         <v>-2596328.941906565</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>257</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6808,17 +6910,11 @@
         <v>-2596328.941906565</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>257</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6850,14 +6946,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>257</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6886,17 +6976,11 @@
         <v>-2596328.941906565</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>257</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6928,14 +7012,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>257</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6964,17 +7042,11 @@
         <v>-2596327.941906565</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>257</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7003,17 +7075,15 @@
         <v>-2596327.941906565</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>261</v>
+      </c>
       <c r="J192" t="n">
-        <v>257</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7042,15 +7112,17 @@
         <v>-2596548.730406565</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>261</v>
+      </c>
       <c r="J193" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L193" t="n">
@@ -7081,11 +7153,13 @@
         <v>-2626545.419906565</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>258</v>
+      </c>
       <c r="J194" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7120,11 +7194,13 @@
         <v>-2626544.419906565</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>252</v>
+      </c>
       <c r="J195" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7159,11 +7235,13 @@
         <v>-2626544.419906565</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>259</v>
+      </c>
       <c r="J196" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7198,11 +7276,13 @@
         <v>-2628371.850306565</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>259</v>
+      </c>
       <c r="J197" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7237,11 +7317,13 @@
         <v>-2631608.608806565</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>254</v>
+      </c>
       <c r="J198" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7276,11 +7358,13 @@
         <v>-2631608.608806565</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>252</v>
+      </c>
       <c r="J199" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7315,11 +7399,13 @@
         <v>-2631603.848506565</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>252</v>
+      </c>
       <c r="J200" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7354,11 +7440,13 @@
         <v>-2631603.848506565</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>255</v>
+      </c>
       <c r="J201" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7393,11 +7481,13 @@
         <v>-2631601.848506565</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>255</v>
+      </c>
       <c r="J202" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7432,11 +7522,13 @@
         <v>-2631704.838506565</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>258</v>
+      </c>
       <c r="J203" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>

--- a/BackTest/2019-10-15 BackTest TRUE.xlsx
+++ b/BackTest/2019-10-15 BackTest TRUE.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:L203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>822400</v>
       </c>
       <c r="G2" t="n">
-        <v>244547.5915</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>822400</v>
       </c>
       <c r="G3" t="n">
-        <v>244547.5915</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>704472.1</v>
       </c>
       <c r="G4" t="n">
-        <v>244547.5915</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>910737.745</v>
       </c>
       <c r="G5" t="n">
-        <v>244547.5915</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>939549.916</v>
       </c>
       <c r="G6" t="n">
-        <v>244547.5915</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>955314.061</v>
       </c>
       <c r="G7" t="n">
-        <v>244547.5915</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>582572.839</v>
       </c>
       <c r="G8" t="n">
-        <v>-338025.2475000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1957500</v>
       </c>
       <c r="G9" t="n">
-        <v>-338025.2475000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,19 @@
         <v>1948457.7315</v>
       </c>
       <c r="G10" t="n">
-        <v>-338025.2475000001</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>250</v>
+      </c>
+      <c r="I10" t="n">
+        <v>250</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +717,21 @@
         <v>1899342.2685</v>
       </c>
       <c r="G11" t="n">
-        <v>-338025.2475000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>250</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +753,21 @@
         <v>1925657.7315</v>
       </c>
       <c r="G12" t="n">
-        <v>-338025.2475000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>250</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +789,15 @@
         <v>1953113.2449</v>
       </c>
       <c r="G13" t="n">
-        <v>-338025.2475000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +819,15 @@
         <v>1541886.7551</v>
       </c>
       <c r="G14" t="n">
-        <v>-338025.2475000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +849,15 @@
         <v>517596.924</v>
       </c>
       <c r="G15" t="n">
-        <v>-855622.1715000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +879,15 @@
         <v>1920000</v>
       </c>
       <c r="G16" t="n">
-        <v>-855622.1715000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +909,19 @@
         <v>1942500</v>
       </c>
       <c r="G17" t="n">
-        <v>-855622.1715000001</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="I17" t="n">
+        <v>249</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +943,23 @@
         <v>1927500</v>
       </c>
       <c r="G18" t="n">
-        <v>-855622.1715000001</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="I18" t="n">
+        <v>249</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +981,23 @@
         <v>1965000</v>
       </c>
       <c r="G19" t="n">
-        <v>-855622.1715000001</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="I19" t="n">
+        <v>249</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1019,19 @@
         <v>1942790.772</v>
       </c>
       <c r="G20" t="n">
-        <v>-855622.1715000001</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="I20" t="n">
+        <v>249</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1053,23 @@
         <v>1950000</v>
       </c>
       <c r="G21" t="n">
-        <v>-855622.1715000001</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="I21" t="n">
+        <v>249</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1091,23 @@
         <v>812743.2561</v>
       </c>
       <c r="G22" t="n">
-        <v>-855622.1715000001</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="I22" t="n">
+        <v>249</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1129,19 @@
         <v>1747667.4977</v>
       </c>
       <c r="G23" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="I23" t="n">
+        <v>249</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1163,23 @@
         <v>719697.4054</v>
       </c>
       <c r="G24" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I24" t="n">
+        <v>249</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1201,23 @@
         <v>1980000</v>
       </c>
       <c r="G25" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I25" t="n">
+        <v>249</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1239,19 @@
         <v>1965467</v>
       </c>
       <c r="G26" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I26" t="n">
+        <v>248</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1273,23 @@
         <v>1950000</v>
       </c>
       <c r="G27" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I27" t="n">
+        <v>248</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1311,23 @@
         <v>1995000</v>
       </c>
       <c r="G28" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I28" t="n">
+        <v>248</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1349,23 @@
         <v>1957500</v>
       </c>
       <c r="G29" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I29" t="n">
+        <v>248</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1387,23 @@
         <v>1935000</v>
       </c>
       <c r="G30" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I30" t="n">
+        <v>248</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1425,23 @@
         <v>1972500</v>
       </c>
       <c r="G31" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I31" t="n">
+        <v>248</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1463,23 @@
         <v>1980000</v>
       </c>
       <c r="G32" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I32" t="n">
+        <v>248</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1501,23 @@
         <v>407725.9516</v>
       </c>
       <c r="G33" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I33" t="n">
+        <v>248</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1539,23 @@
         <v>22785</v>
       </c>
       <c r="G34" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I34" t="n">
+        <v>248</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1577,23 @@
         <v>1672400.6976</v>
       </c>
       <c r="G35" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I35" t="n">
+        <v>248</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1615,23 @@
         <v>1620599.3024</v>
       </c>
       <c r="G36" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I36" t="n">
+        <v>248</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1653,23 @@
         <v>1517000</v>
       </c>
       <c r="G37" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I37" t="n">
+        <v>248</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1691,23 @@
         <v>1998000</v>
       </c>
       <c r="G38" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I38" t="n">
+        <v>248</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1729,23 @@
         <v>1990600</v>
       </c>
       <c r="G39" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I39" t="n">
+        <v>248</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1767,23 @@
         <v>1975800</v>
       </c>
       <c r="G40" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I40" t="n">
+        <v>248</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1805,23 @@
         <v>1990600</v>
       </c>
       <c r="G41" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I41" t="n">
+        <v>248</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1843,23 @@
         <v>2005400</v>
       </c>
       <c r="G42" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I42" t="n">
+        <v>248</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1881,23 @@
         <v>1953600</v>
       </c>
       <c r="G43" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I43" t="n">
+        <v>248</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1919,23 @@
         <v>1961000</v>
       </c>
       <c r="G44" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I44" t="n">
+        <v>248</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1957,23 @@
         <v>1968400</v>
       </c>
       <c r="G45" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I45" t="n">
+        <v>248</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1995,23 @@
         <v>1975800</v>
       </c>
       <c r="G46" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I46" t="n">
+        <v>248</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2033,23 @@
         <v>1983200</v>
       </c>
       <c r="G47" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I47" t="n">
+        <v>248</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2071,23 @@
         <v>1998000</v>
       </c>
       <c r="G48" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I48" t="n">
+        <v>248</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2109,23 @@
         <v>1998000</v>
       </c>
       <c r="G49" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I49" t="n">
+        <v>248</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2147,23 @@
         <v>2020201</v>
       </c>
       <c r="G50" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I50" t="n">
+        <v>248</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2185,23 @@
         <v>2027600</v>
       </c>
       <c r="G51" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I51" t="n">
+        <v>248</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2223,23 @@
         <v>2005400</v>
       </c>
       <c r="G52" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I52" t="n">
+        <v>248</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2261,23 @@
         <v>2020200</v>
       </c>
       <c r="G53" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I53" t="n">
+        <v>248</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2299,23 @@
         <v>2027600</v>
       </c>
       <c r="G54" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I54" t="n">
+        <v>248</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2337,23 @@
         <v>2027600</v>
       </c>
       <c r="G55" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I55" t="n">
+        <v>248</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2375,23 @@
         <v>2012800</v>
       </c>
       <c r="G56" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I56" t="n">
+        <v>248</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2413,23 @@
         <v>2006899</v>
       </c>
       <c r="G57" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I57" t="n">
+        <v>248</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2451,23 @@
         <v>2012801</v>
       </c>
       <c r="G58" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I58" t="n">
+        <v>248</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2489,23 @@
         <v>2020200</v>
       </c>
       <c r="G59" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I59" t="n">
+        <v>248</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2527,23 @@
         <v>2012800</v>
       </c>
       <c r="G60" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I60" t="n">
+        <v>248</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2565,23 @@
         <v>2012800</v>
       </c>
       <c r="G61" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I61" t="n">
+        <v>248</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2603,23 @@
         <v>2034999</v>
       </c>
       <c r="G62" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I62" t="n">
+        <v>248</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2641,23 @@
         <v>1990601</v>
       </c>
       <c r="G63" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I63" t="n">
+        <v>248</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2679,23 @@
         <v>2027600</v>
       </c>
       <c r="G64" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I64" t="n">
+        <v>248</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2717,23 @@
         <v>2012800</v>
       </c>
       <c r="G65" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I65" t="n">
+        <v>248</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2755,23 @@
         <v>554999</v>
       </c>
       <c r="G66" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I66" t="n">
+        <v>248</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2793,23 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I67" t="n">
+        <v>248</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2831,23 @@
         <v>24818.439</v>
       </c>
       <c r="G68" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I68" t="n">
+        <v>248</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2869,23 @@
         <v>1749830</v>
       </c>
       <c r="G69" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I69" t="n">
+        <v>248</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2907,23 @@
         <v>2046724</v>
       </c>
       <c r="G70" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I70" t="n">
+        <v>248</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2945,23 @@
         <v>2042720</v>
       </c>
       <c r="G71" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I71" t="n">
+        <v>248</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2983,23 @@
         <v>2042720</v>
       </c>
       <c r="G72" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I72" t="n">
+        <v>248</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +3021,23 @@
         <v>2035210</v>
       </c>
       <c r="G73" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I73" t="n">
+        <v>248</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +3059,23 @@
         <v>2029163.724</v>
       </c>
       <c r="G74" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I74" t="n">
+        <v>248</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +3097,23 @@
         <v>2048543.717</v>
       </c>
       <c r="G75" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I75" t="n">
+        <v>248</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +3135,23 @@
         <v>2050230</v>
       </c>
       <c r="G76" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I76" t="n">
+        <v>248</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +3173,23 @@
         <v>2035210</v>
       </c>
       <c r="G77" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I77" t="n">
+        <v>248</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3211,23 @@
         <v>2050230</v>
       </c>
       <c r="G78" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I78" t="n">
+        <v>248</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3249,23 @@
         <v>2065250</v>
       </c>
       <c r="G79" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I79" t="n">
+        <v>248</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3287,23 @@
         <v>1659710</v>
       </c>
       <c r="G80" t="n">
-        <v>-2603289.6692</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I80" t="n">
+        <v>248</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3325,23 @@
         <v>2288.439</v>
       </c>
       <c r="G81" t="n">
-        <v>-2601001.2302</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="I81" t="n">
+        <v>248</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3363,23 @@
         <v>21.5496</v>
       </c>
       <c r="G82" t="n">
-        <v>-2600979.6806</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="I82" t="n">
+        <v>248</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3401,21 @@
         <v>10.9856</v>
       </c>
       <c r="G83" t="n">
-        <v>-2600979.6806</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>248</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3437,21 @@
         <v>9.8872</v>
       </c>
       <c r="G84" t="n">
-        <v>-2600979.6806</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>248</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3473,21 @@
         <v>4.0543</v>
       </c>
       <c r="G85" t="n">
-        <v>-2600979.6806</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>248</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3509,21 @@
         <v>219.543</v>
       </c>
       <c r="G86" t="n">
-        <v>-2600979.6806</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>248</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3545,21 @@
         <v>0.0002</v>
       </c>
       <c r="G87" t="n">
-        <v>-2600979.6806</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>248</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3581,21 @@
         <v>56.1435</v>
       </c>
       <c r="G88" t="n">
-        <v>-2600979.6806</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>248</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3617,21 @@
         <v>4000</v>
       </c>
       <c r="G89" t="n">
-        <v>-2596979.6806</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>248</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3653,21 @@
         <v>3940.0213</v>
       </c>
       <c r="G90" t="n">
-        <v>-2596979.6806</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>248</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3689,21 @@
         <v>656.774</v>
       </c>
       <c r="G91" t="n">
-        <v>-2596322.9066</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>248</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3725,21 @@
         <v>18740.3917</v>
       </c>
       <c r="G92" t="n">
-        <v>-2577582.5149</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>248</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3761,21 @@
         <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>-2577580.5149</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>248</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3797,21 @@
         <v>1.9766</v>
       </c>
       <c r="G94" t="n">
-        <v>-2577578.5383</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>248</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3833,21 @@
         <v>1374.8132</v>
       </c>
       <c r="G95" t="n">
-        <v>-2577578.5383</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>248</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3869,21 @@
         <v>325.2607</v>
       </c>
       <c r="G96" t="n">
-        <v>-2577578.5383</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>248</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3905,21 @@
         <v>575.8647</v>
       </c>
       <c r="G97" t="n">
-        <v>-2577578.5383</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>248</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3941,21 @@
         <v>7945.7548</v>
       </c>
       <c r="G98" t="n">
-        <v>-2577578.5383</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>248</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3977,21 @@
         <v>3956.4586</v>
       </c>
       <c r="G99" t="n">
-        <v>-2581534.9969</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>248</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +4013,21 @@
         <v>3833.108393436293</v>
       </c>
       <c r="G100" t="n">
-        <v>-2577701.888506563</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>248</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +4049,21 @@
         <v>565.066</v>
       </c>
       <c r="G101" t="n">
-        <v>-2578266.954506563</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>248</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +4085,21 @@
         <v>324.4475</v>
       </c>
       <c r="G102" t="n">
-        <v>-2578266.954506563</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>248</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +4121,21 @@
         <v>131.0635</v>
       </c>
       <c r="G103" t="n">
-        <v>-2578135.891006563</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>248</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +4157,21 @@
         <v>259.6286</v>
       </c>
       <c r="G104" t="n">
-        <v>-2577876.262406563</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>248</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1.035322580645161</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +4193,15 @@
         <v>698</v>
       </c>
       <c r="G105" t="n">
-        <v>-2577178.262406563</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +4223,15 @@
         <v>1148.1739</v>
       </c>
       <c r="G106" t="n">
-        <v>-2578326.436306563</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +4253,15 @@
         <v>194</v>
       </c>
       <c r="G107" t="n">
-        <v>-2578326.436306563</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +4283,15 @@
         <v>57</v>
       </c>
       <c r="G108" t="n">
-        <v>-2578326.436306563</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4313,15 @@
         <v>163.237</v>
       </c>
       <c r="G109" t="n">
-        <v>-2578489.673306563</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4343,15 @@
         <v>269.325</v>
       </c>
       <c r="G110" t="n">
-        <v>-2578489.673306563</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4373,15 @@
         <v>25</v>
       </c>
       <c r="G111" t="n">
-        <v>-2578489.673306563</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4403,15 @@
         <v>145.706</v>
       </c>
       <c r="G112" t="n">
-        <v>-2578489.673306563</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4433,15 @@
         <v>11160.7344</v>
       </c>
       <c r="G113" t="n">
-        <v>-2589650.407706563</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4463,15 @@
         <v>1058.823</v>
       </c>
       <c r="G114" t="n">
-        <v>-2588591.584706564</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4493,15 @@
         <v>9777.8734</v>
       </c>
       <c r="G115" t="n">
-        <v>-2578813.711306564</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4523,15 @@
         <v>40.0869</v>
       </c>
       <c r="G116" t="n">
-        <v>-2578853.798206564</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4553,15 @@
         <v>297.4911</v>
       </c>
       <c r="G117" t="n">
-        <v>-2578853.798206564</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4583,15 @@
         <v>7292.8418</v>
       </c>
       <c r="G118" t="n">
-        <v>-2578853.798206564</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4613,15 @@
         <v>2130.5059</v>
       </c>
       <c r="G119" t="n">
-        <v>-2578853.798206564</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4643,15 @@
         <v>1389.0609</v>
       </c>
       <c r="G120" t="n">
-        <v>-2578853.798206564</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4673,15 @@
         <v>1351.4387</v>
       </c>
       <c r="G121" t="n">
-        <v>-2578853.798206564</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4703,15 @@
         <v>4658.8701</v>
       </c>
       <c r="G122" t="n">
-        <v>-2574194.928106564</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4733,15 @@
         <v>40.899</v>
       </c>
       <c r="G123" t="n">
-        <v>-2574235.827106564</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4763,15 @@
         <v>5</v>
       </c>
       <c r="G124" t="n">
-        <v>-2574230.827106564</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4793,15 @@
         <v>229.5</v>
       </c>
       <c r="G125" t="n">
-        <v>-2574230.827106564</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4823,15 @@
         <v>3057.6137</v>
       </c>
       <c r="G126" t="n">
-        <v>-2571173.213406564</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4853,15 @@
         <v>6570.4591</v>
       </c>
       <c r="G127" t="n">
-        <v>-2571173.213406564</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4883,15 @@
         <v>21476.6115</v>
       </c>
       <c r="G128" t="n">
-        <v>-2571173.213406564</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4913,15 @@
         <v>3489.8942</v>
       </c>
       <c r="G129" t="n">
-        <v>-2571173.213406564</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4943,15 @@
         <v>11447.92</v>
       </c>
       <c r="G130" t="n">
-        <v>-2582621.133406564</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4973,15 @@
         <v>5326.1194</v>
       </c>
       <c r="G131" t="n">
-        <v>-2587947.252806564</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,22 +5003,15 @@
         <v>1151.0412</v>
       </c>
       <c r="G132" t="n">
-        <v>-2586796.211606564</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>251</v>
-      </c>
-      <c r="J132" t="n">
-        <v>251</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4775,26 +5033,15 @@
         <v>1020.472</v>
       </c>
       <c r="G133" t="n">
-        <v>-2586796.211606564</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>255</v>
-      </c>
-      <c r="J133" t="n">
-        <v>251</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4816,26 +5063,15 @@
         <v>503.815</v>
       </c>
       <c r="G134" t="n">
-        <v>-2586796.211606564</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>255</v>
-      </c>
-      <c r="J134" t="n">
-        <v>251</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4857,22 +5093,15 @@
         <v>48.6054</v>
       </c>
       <c r="G135" t="n">
-        <v>-2586796.211606564</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>255</v>
-      </c>
-      <c r="J135" t="n">
-        <v>255</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4894,26 +5123,15 @@
         <v>3581.7222</v>
       </c>
       <c r="G136" t="n">
-        <v>-2586796.211606564</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>255</v>
-      </c>
-      <c r="J136" t="n">
-        <v>255</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4935,26 +5153,15 @@
         <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>-2586795.211606564</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>255</v>
-      </c>
-      <c r="J137" t="n">
-        <v>255</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4976,26 +5183,15 @@
         <v>9402.861000000001</v>
       </c>
       <c r="G138" t="n">
-        <v>-2596198.072606564</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>258</v>
-      </c>
-      <c r="J138" t="n">
-        <v>255</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5017,26 +5213,15 @@
         <v>1370.123</v>
       </c>
       <c r="G139" t="n">
-        <v>-2594827.949606564</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>250</v>
-      </c>
-      <c r="J139" t="n">
-        <v>255</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5058,26 +5243,15 @@
         <v>3564.4094</v>
       </c>
       <c r="G140" t="n">
-        <v>-2591263.540206564</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>254</v>
-      </c>
-      <c r="J140" t="n">
-        <v>255</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5099,26 +5273,15 @@
         <v>49.5478</v>
       </c>
       <c r="G141" t="n">
-        <v>-2591263.540206564</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>255</v>
-      </c>
-      <c r="J141" t="n">
-        <v>255</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5140,26 +5303,15 @@
         <v>1179</v>
       </c>
       <c r="G142" t="n">
-        <v>-2592442.540206564</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>255</v>
-      </c>
-      <c r="J142" t="n">
-        <v>255</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5181,26 +5333,15 @@
         <v>135.7099</v>
       </c>
       <c r="G143" t="n">
-        <v>-2592306.830306564</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>254</v>
-      </c>
-      <c r="J143" t="n">
-        <v>255</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5222,26 +5363,15 @@
         <v>4401.9512</v>
       </c>
       <c r="G144" t="n">
-        <v>-2592306.830306564</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>255</v>
-      </c>
-      <c r="J144" t="n">
-        <v>255</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5263,26 +5393,15 @@
         <v>2001.0102</v>
       </c>
       <c r="G145" t="n">
-        <v>-2590305.820106564</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>255</v>
-      </c>
-      <c r="J145" t="n">
-        <v>255</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5304,26 +5423,15 @@
         <v>3046.8054</v>
       </c>
       <c r="G146" t="n">
-        <v>-2590305.820106564</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>257</v>
-      </c>
-      <c r="J146" t="n">
-        <v>255</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5345,26 +5453,15 @@
         <v>889.4</v>
       </c>
       <c r="G147" t="n">
-        <v>-2590305.820106564</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>257</v>
-      </c>
-      <c r="J147" t="n">
-        <v>255</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5386,24 +5483,15 @@
         <v>1050.6962</v>
       </c>
       <c r="G148" t="n">
-        <v>-2590305.820106564</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>255</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5425,24 +5513,15 @@
         <v>1240.619</v>
       </c>
       <c r="G149" t="n">
-        <v>-2591546.439106564</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>255</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5464,24 +5543,15 @@
         <v>1376.09</v>
       </c>
       <c r="G150" t="n">
-        <v>-2590170.349106564</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>255</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5503,24 +5573,15 @@
         <v>301.4138</v>
       </c>
       <c r="G151" t="n">
-        <v>-2590471.762906564</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>255</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5542,24 +5603,15 @@
         <v>1945.6915</v>
       </c>
       <c r="G152" t="n">
-        <v>-2592417.454406565</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>255</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5581,26 +5633,15 @@
         <v>160.649</v>
       </c>
       <c r="G153" t="n">
-        <v>-2592417.454406565</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>255</v>
-      </c>
-      <c r="J153" t="n">
-        <v>255</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5622,26 +5663,15 @@
         <v>1171.6507</v>
       </c>
       <c r="G154" t="n">
-        <v>-2592417.454406565</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>255</v>
-      </c>
-      <c r="J154" t="n">
-        <v>255</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5663,26 +5693,15 @@
         <v>978.5</v>
       </c>
       <c r="G155" t="n">
-        <v>-2592417.454406565</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>255</v>
-      </c>
-      <c r="J155" t="n">
-        <v>255</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5704,26 +5723,15 @@
         <v>1730.3581</v>
       </c>
       <c r="G156" t="n">
-        <v>-2590687.096306565</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>255</v>
-      </c>
-      <c r="J156" t="n">
-        <v>255</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5745,26 +5753,15 @@
         <v>138</v>
       </c>
       <c r="G157" t="n">
-        <v>-2590549.096306565</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>257</v>
-      </c>
-      <c r="J157" t="n">
-        <v>255</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5786,24 +5783,15 @@
         <v>417.9316</v>
       </c>
       <c r="G158" t="n">
-        <v>-2590967.027906565</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>255</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5825,26 +5813,15 @@
         <v>1200</v>
       </c>
       <c r="G159" t="n">
-        <v>-2590967.027906565</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>257</v>
-      </c>
-      <c r="J159" t="n">
-        <v>255</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5866,26 +5843,15 @@
         <v>412.5578</v>
       </c>
       <c r="G160" t="n">
-        <v>-2590967.027906565</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>257</v>
-      </c>
-      <c r="J160" t="n">
-        <v>255</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5907,26 +5873,15 @@
         <v>565</v>
       </c>
       <c r="G161" t="n">
-        <v>-2590967.027906565</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>257</v>
-      </c>
-      <c r="J161" t="n">
-        <v>255</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5948,26 +5903,15 @@
         <v>1835.2328</v>
       </c>
       <c r="G162" t="n">
-        <v>-2590967.027906565</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>257</v>
-      </c>
-      <c r="J162" t="n">
-        <v>255</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5989,26 +5933,15 @@
         <v>6473.8846</v>
       </c>
       <c r="G163" t="n">
-        <v>-2590967.027906565</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>257</v>
-      </c>
-      <c r="J163" t="n">
-        <v>255</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6030,26 +5963,15 @@
         <v>1556.1</v>
       </c>
       <c r="G164" t="n">
-        <v>-2590967.027906565</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>257</v>
-      </c>
-      <c r="J164" t="n">
-        <v>255</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6071,26 +5993,15 @@
         <v>174.459</v>
       </c>
       <c r="G165" t="n">
-        <v>-2590967.027906565</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>257</v>
-      </c>
-      <c r="J165" t="n">
-        <v>255</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6112,26 +6023,15 @@
         <v>205.997</v>
       </c>
       <c r="G166" t="n">
-        <v>-2590967.027906565</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>257</v>
-      </c>
-      <c r="J166" t="n">
-        <v>255</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6153,26 +6053,15 @@
         <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>-2590966.027906565</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>257</v>
-      </c>
-      <c r="J167" t="n">
-        <v>255</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6194,26 +6083,15 @@
         <v>2263.1039</v>
       </c>
       <c r="G168" t="n">
-        <v>-2593229.131806565</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>259</v>
-      </c>
-      <c r="J168" t="n">
-        <v>255</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6235,26 +6113,15 @@
         <v>4603.6912</v>
       </c>
       <c r="G169" t="n">
-        <v>-2588625.440606565</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>258</v>
-      </c>
-      <c r="J169" t="n">
-        <v>255</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6276,26 +6143,15 @@
         <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>-2588624.440606565</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>259</v>
-      </c>
-      <c r="J170" t="n">
-        <v>255</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6317,26 +6173,15 @@
         <v>3240.9459</v>
       </c>
       <c r="G171" t="n">
-        <v>-2591865.386506565</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>261</v>
-      </c>
-      <c r="J171" t="n">
-        <v>255</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6358,24 +6203,15 @@
         <v>2120.878</v>
       </c>
       <c r="G172" t="n">
-        <v>-2591865.386506565</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>255</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6397,26 +6233,15 @@
         <v>12</v>
       </c>
       <c r="G173" t="n">
-        <v>-2591853.386506565</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>259</v>
-      </c>
-      <c r="J173" t="n">
-        <v>255</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6438,24 +6263,15 @@
         <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>-2591854.386506565</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>255</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6477,24 +6293,15 @@
         <v>1897.9152</v>
       </c>
       <c r="G175" t="n">
-        <v>-2593752.301706565</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>255</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6516,24 +6323,15 @@
         <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>-2593751.301706565</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>255</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6555,24 +6353,15 @@
         <v>494.802</v>
       </c>
       <c r="G177" t="n">
-        <v>-2593751.301706565</v>
-      </c>
-      <c r="H177" t="n">
         <v>2</v>
       </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>255</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1.014607843137255</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6594,18 +6383,15 @@
         <v>13</v>
       </c>
       <c r="G178" t="n">
-        <v>-2593751.301706565</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6627,18 +6413,15 @@
         <v>1</v>
       </c>
       <c r="G179" t="n">
-        <v>-2593750.301706565</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6660,18 +6443,15 @@
         <v>0.2826</v>
       </c>
       <c r="G180" t="n">
-        <v>-2593750.584306565</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6693,18 +6473,15 @@
         <v>131.304</v>
       </c>
       <c r="G181" t="n">
-        <v>-2593881.888306565</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6726,18 +6503,15 @@
         <v>2446.0536</v>
       </c>
       <c r="G182" t="n">
-        <v>-2596327.941906565</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6759,22 +6533,15 @@
         <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>-2596326.941906565</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>256</v>
-      </c>
-      <c r="J183" t="n">
-        <v>256</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6796,24 +6563,15 @@
         <v>2</v>
       </c>
       <c r="G184" t="n">
-        <v>-2596328.941906565</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>256</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6835,24 +6593,15 @@
         <v>59</v>
       </c>
       <c r="G185" t="n">
-        <v>-2596328.941906565</v>
-      </c>
-      <c r="H185" t="n">
         <v>2</v>
       </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>256</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6874,18 +6623,15 @@
         <v>1120.5118</v>
       </c>
       <c r="G186" t="n">
-        <v>-2596328.941906565</v>
-      </c>
-      <c r="H186" t="n">
         <v>2</v>
       </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6907,18 +6653,15 @@
         <v>417.896</v>
       </c>
       <c r="G187" t="n">
-        <v>-2596328.941906565</v>
-      </c>
-      <c r="H187" t="n">
         <v>2</v>
       </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6940,18 +6683,15 @@
         <v>370</v>
       </c>
       <c r="G188" t="n">
-        <v>-2596328.941906565</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6973,18 +6713,15 @@
         <v>12833.7998</v>
       </c>
       <c r="G189" t="n">
-        <v>-2596328.941906565</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7006,18 +6743,15 @@
         <v>1</v>
       </c>
       <c r="G190" t="n">
-        <v>-2596327.941906565</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7039,18 +6773,15 @@
         <v>17.9175</v>
       </c>
       <c r="G191" t="n">
-        <v>-2596327.941906565</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7072,22 +6803,15 @@
         <v>51.6071</v>
       </c>
       <c r="G192" t="n">
-        <v>-2596327.941906565</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>261</v>
-      </c>
-      <c r="J192" t="n">
-        <v>261</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7109,26 +6833,15 @@
         <v>220.7885</v>
       </c>
       <c r="G193" t="n">
-        <v>-2596548.730406565</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>261</v>
-      </c>
-      <c r="J193" t="n">
-        <v>261</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7150,26 +6863,15 @@
         <v>29996.6895</v>
       </c>
       <c r="G194" t="n">
-        <v>-2626545.419906565</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>258</v>
-      </c>
-      <c r="J194" t="n">
-        <v>261</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7191,26 +6893,15 @@
         <v>1</v>
       </c>
       <c r="G195" t="n">
-        <v>-2626544.419906565</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>252</v>
-      </c>
-      <c r="J195" t="n">
-        <v>261</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7232,26 +6923,15 @@
         <v>21.0424</v>
       </c>
       <c r="G196" t="n">
-        <v>-2626544.419906565</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>259</v>
-      </c>
-      <c r="J196" t="n">
-        <v>261</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7273,26 +6953,15 @@
         <v>1827.4304</v>
       </c>
       <c r="G197" t="n">
-        <v>-2628371.850306565</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>259</v>
-      </c>
-      <c r="J197" t="n">
-        <v>261</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7314,26 +6983,15 @@
         <v>3236.7585</v>
       </c>
       <c r="G198" t="n">
-        <v>-2631608.608806565</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>254</v>
-      </c>
-      <c r="J198" t="n">
-        <v>261</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7355,26 +7013,15 @@
         <v>1043.762</v>
       </c>
       <c r="G199" t="n">
-        <v>-2631608.608806565</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>252</v>
-      </c>
-      <c r="J199" t="n">
-        <v>261</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7396,26 +7043,15 @@
         <v>4.7603</v>
       </c>
       <c r="G200" t="n">
-        <v>-2631603.848506565</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>252</v>
-      </c>
-      <c r="J200" t="n">
-        <v>261</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7437,26 +7073,15 @@
         <v>189.3992</v>
       </c>
       <c r="G201" t="n">
-        <v>-2631603.848506565</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>255</v>
-      </c>
-      <c r="J201" t="n">
-        <v>261</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7478,26 +7103,15 @@
         <v>2</v>
       </c>
       <c r="G202" t="n">
-        <v>-2631601.848506565</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>255</v>
-      </c>
-      <c r="J202" t="n">
-        <v>261</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7519,26 +7133,15 @@
         <v>102.99</v>
       </c>
       <c r="G203" t="n">
-        <v>-2631704.838506565</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>258</v>
-      </c>
-      <c r="J203" t="n">
-        <v>261</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
